--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>jezebel</t>
   </si>
@@ -64,12 +64,42 @@
   </si>
   <si>
     <t>K20 keff</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>watt</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>watts</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>nps</t>
+  </si>
+  <si>
+    <t>total cycles</t>
+  </si>
+  <si>
+    <t>titan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,7 +142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -126,23 +156,161 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,79 +640,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1.0000500000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D2">
         <v>0.99995000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F2">
         <v>0.99977099999999997</v>
       </c>
-      <c r="E2">
-        <f>(D2-B2)*100000</f>
+      <c r="G2" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H2">
+        <f>(F2-B2)*100000</f>
         <v>-27.900000000014025</v>
       </c>
-      <c r="F2">
-        <f>(D2-C2)*100000</f>
+      <c r="I2">
+        <f>(F2-D2)*100000</f>
         <v>-17.900000000004024</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.59338500000000005</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="D3">
         <v>0.59272999999999998</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F3">
         <v>0.59229500000000002</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">(D3-B3)*100000</f>
+      <c r="G3" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="0">(F3-B3)*100000</f>
         <v>-109.00000000000354</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="1">(D3-C3)*100000</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="1">(F3-D3)*100000</f>
         <v>-43.499999999996319</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -552,164 +747,263 @@
         <v>0.27540100000000001</v>
       </c>
       <c r="C4">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="D4">
         <v>0.27517000000000003</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F4">
         <v>0.27410600000000002</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>-129.49999999999906</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>-106.40000000000094</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.88048999999999999</v>
       </c>
+      <c r="C5" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
       <c r="D5">
+        <v>0.88085999999999998</v>
+      </c>
+      <c r="E5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F5">
         <v>0.87570099999999995</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>-478.9000000000043</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>87570.099999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-515.90000000000248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.0986800000000001</v>
       </c>
+      <c r="C6" s="1">
+        <v>6.3999999999999997E-5</v>
+      </c>
       <c r="D6">
+        <v>1.1009899999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F6">
         <v>1.096884</v>
       </c>
-      <c r="E6">
+      <c r="G6" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>-179.6000000000131</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>109688.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-410.59999999999428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.0757000000000001</v>
       </c>
+      <c r="C7" s="1">
+        <v>6.2000000000000003E-5</v>
+      </c>
       <c r="D7">
+        <v>0.88634000000000002</v>
+      </c>
+      <c r="E7">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F7">
         <v>1.0740259999999999</v>
       </c>
-      <c r="E7">
+      <c r="G7" s="1">
+        <v>7.8187578799999996E-5</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>-167.40000000001754</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>107402.59999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>18768.599999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>10.34</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>37.200000000000003</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E10">
-        <f>B10/D10</f>
+      <c r="H10">
+        <f t="shared" ref="H10:H15" si="2">B10/F10</f>
         <v>2.2478260869565219</v>
       </c>
-      <c r="F10">
-        <f>C10/D10</f>
+      <c r="I10">
+        <f>D10/F10</f>
         <v>8.0869565217391308</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="L10" s="2">
+        <f>J10*K10/(B10*60)</f>
+        <v>918762.08897485491</v>
+      </c>
+      <c r="M10" s="2">
+        <f>J10*K10/(60*D10)</f>
+        <v>255376.34408602151</v>
+      </c>
+      <c r="N10" s="2">
+        <f>J10*K10/(60*F10)</f>
+        <v>2065217.3913043479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>57.84</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>133.37</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>10.93</v>
       </c>
-      <c r="E11">
-        <f t="shared" ref="E11:F15" si="2">B11/D11</f>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>5.2918572735590121</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F15" si="3">C11/D11</f>
+      <c r="I11">
+        <f t="shared" ref="I11:I15" si="3">D11/F11</f>
         <v>12.202195791399818</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11:N15" si="4">J11*K11/(B11*60)</f>
+        <v>164246.19640387275</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11:M15" si="5">J11*K11/(60*D11)</f>
+        <v>71230.411636799879</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:N15" si="6">J11*K11/(60*F11)</f>
+        <v>869167.42909423611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>198.57</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>177.38</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>30.43</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>6.5254682878738084</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <f t="shared" si="3"/>
         <v>5.8291160039434766</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="4"/>
+        <v>47842.070806264797</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
+        <v>53557.334536024355</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="6"/>
+        <v>312191.91587249428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -717,18 +1011,39 @@
         <v>114.65</v>
       </c>
       <c r="D13">
+        <v>416.76666666666603</v>
+      </c>
+      <c r="F13">
         <v>31.99</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>3.5839324788996567</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>13.028029592580996</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="4"/>
+        <v>82860.880941997384</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="5"/>
+        <v>22794.529312964925</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="6"/>
+        <v>296967.80243826198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -736,18 +1051,39 @@
         <v>185.78</v>
       </c>
       <c r="D14">
+        <v>494.3</v>
+      </c>
+      <c r="F14">
         <v>73.73</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>2.5197341651973417</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>6.7041909670419093</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8500000</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="4"/>
+        <v>45753.041231564217</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="5"/>
+        <v>17196.034796682176</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="6"/>
+        <v>115285.50115285501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -755,166 +1091,253 @@
         <v>122.43</v>
       </c>
       <c r="D15">
+        <v>316.45</v>
+      </c>
+      <c r="F15">
         <v>41.55</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>2.9465703971119139</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>7.6161251504211798</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="4"/>
+        <v>77595.360614228543</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="5"/>
+        <v>30020.540369726656</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="6"/>
+        <v>228640.1925391095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>9.9978400000000001</v>
       </c>
+      <c r="C19" s="1">
+        <v>9.5000000000000005E-5</v>
+      </c>
       <c r="D19">
+        <v>0.99982000000000004</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F19">
         <v>0.99977099999999997</v>
       </c>
-      <c r="E19">
-        <f>(D19-B19)*100000</f>
+      <c r="G19" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H19">
+        <f>(F19-B19)*100000</f>
         <v>-899806.90000000014</v>
       </c>
-      <c r="F19">
-        <f>(D19-C19)*100000</f>
-        <v>99977.099999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19">
+        <f>(F19-D19)*100000</f>
+        <v>-4.900000000007676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20">
         <v>0.59340899999999996</v>
       </c>
+      <c r="C20">
+        <v>1.2E-4</v>
+      </c>
       <c r="D20">
+        <v>0.59277000000000002</v>
+      </c>
+      <c r="E20">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F20">
         <v>0.59225899999999998</v>
       </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E24" si="4">(D20-B20)*100000</f>
+      <c r="G20" s="1">
+        <v>1.3542485199999999E-4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H24" si="7">(F20-B20)*100000</f>
         <v>-114.99999999999844</v>
       </c>
-      <c r="F20">
-        <f t="shared" ref="F20:F24" si="5">(D20-C20)*100000</f>
-        <v>59225.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20">
+        <f t="shared" ref="I20:I24" si="8">(F20-D20)*100000</f>
+        <v>-51.100000000003917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="D21">
+        <v>0.27517000000000003</v>
+      </c>
+      <c r="E21">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F21">
         <v>0.27416200000000002</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
+      <c r="G21" s="1">
+        <v>1.5637515800000001E-4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
         <v>27416.2</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>27416.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>-100.80000000000089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22">
         <v>0.88048999999999999</v>
       </c>
+      <c r="C22" s="1">
+        <v>8.7000000000000001E-5</v>
+      </c>
       <c r="D22">
+        <v>0.88088</v>
+      </c>
+      <c r="E22">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F22">
         <v>0.87572799999999995</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
+      <c r="G22" s="1">
+        <v>9.5759831300000004E-5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
         <v>-476.20000000000442</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>87572.799999999988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>-515.20000000000459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="D23">
+        <v>1.1009800000000001</v>
+      </c>
+      <c r="E23">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F23">
         <v>1.0971089999999999</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
+      <c r="G23" s="1">
+        <v>5.5286964199999999E-5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
         <v>109710.9</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>109710.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>-387.10000000001799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
         <v>1.0757399999999999</v>
       </c>
+      <c r="C24" s="1">
+        <v>7.2000000000000002E-5</v>
+      </c>
       <c r="D24">
+        <v>0.88636000000000004</v>
+      </c>
+      <c r="E24">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F24">
         <v>1.0738829999999999</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
+      <c r="G24" s="1">
+        <v>1.1057392800000001E-4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
         <v>-185.69999999999976</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>107388.29999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>18752.299999999988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -922,18 +1345,39 @@
         <v>7.24</v>
       </c>
       <c r="D27">
+        <v>30.566666666666599</v>
+      </c>
+      <c r="F27">
         <v>5.24</v>
       </c>
-      <c r="E27">
-        <f>B27/D27</f>
+      <c r="H27">
+        <f>B27/F27</f>
         <v>1.3816793893129771</v>
       </c>
-      <c r="F27">
-        <f>C27/D27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27">
+        <f>D27/F27</f>
+        <v>5.8333333333333206</v>
+      </c>
+      <c r="J27">
+        <v>60</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="L27" s="2">
+        <f>J27*K27/(B27*60)</f>
+        <v>897790.05524861871</v>
+      </c>
+      <c r="M27" s="2">
+        <f>J27*K27/(60*D27)</f>
+        <v>212649.94547437344</v>
+      </c>
+      <c r="N27" s="2">
+        <f>J27*K27/(60*F27)</f>
+        <v>1240458.0152671754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -941,34 +1385,76 @@
         <v>39.409999999999997</v>
       </c>
       <c r="D28">
+        <v>98.4</v>
+      </c>
+      <c r="F28">
         <v>12.26</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28:E32" si="6">B28/D28</f>
+      <c r="H28">
+        <f t="shared" ref="H28:H32" si="9">B28/F28</f>
         <v>3.2145187601957583</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F32" si="7">C28/D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28">
+        <f t="shared" ref="I28:I32" si="10">D28/F28</f>
+        <v>8.0261011419249595</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ref="L28:L32" si="11">J28*K28/(B28*60)</f>
+        <v>164932.75818320224</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28:M32" si="12">J28*K28/(60*D28)</f>
+        <v>66056.91056910569</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" ref="N28:N32" si="13">J28*K28/(60*F28)</f>
+        <v>530179.44535073405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
+        <v>131.266666666666</v>
+      </c>
+      <c r="F29">
         <v>33.700000000000003</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="6"/>
+      <c r="H29">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>3.8951533135509195</v>
+      </c>
+      <c r="J29">
+        <v>60</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="L29" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="12"/>
+        <v>49517.521584560942</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="13"/>
+        <v>192878.33827893174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -976,34 +1462,76 @@
         <v>79.16</v>
       </c>
       <c r="D30">
+        <v>269.46666666666601</v>
+      </c>
+      <c r="F30">
         <v>32.03</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
+      <c r="H30">
+        <f t="shared" si="9"/>
         <v>2.4714330315329378</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>8.4129461962743051</v>
+      </c>
+      <c r="J30">
+        <v>60</v>
+      </c>
+      <c r="K30" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="11"/>
+        <v>82112.17786760992</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="12"/>
+        <v>24121.721919841722</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="13"/>
+        <v>202934.74867311894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="D31">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="F31">
         <v>76.459999999999994</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="6"/>
+      <c r="H31">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>4.1904263667277011</v>
+      </c>
+      <c r="J31">
+        <v>60</v>
+      </c>
+      <c r="K31" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="L31" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="12"/>
+        <v>18726.591760299627</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="13"/>
+        <v>78472.403871305272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1011,15 +1539,124 @@
         <v>77.099999999999994</v>
       </c>
       <c r="D32">
+        <v>217.78333333333299</v>
+      </c>
+      <c r="F32">
         <v>42.8</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="6"/>
+      <c r="H32">
+        <f t="shared" si="9"/>
         <v>1.8014018691588785</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>5.0883956386292759</v>
+      </c>
+      <c r="J32">
+        <v>60</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="11"/>
+        <v>84306.095979247737</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="12"/>
+        <v>29846.177393433885</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="13"/>
+        <v>151869.15887850468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>9310</v>
+      </c>
+      <c r="I37">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2">
+        <f>AVERAGE(L10:L15)</f>
+        <v>222843.27316213041</v>
+      </c>
+      <c r="C38" s="2">
+        <f>AVERAGE(M10:M15)</f>
+        <v>75029.199123036597</v>
+      </c>
+      <c r="D38" s="2">
+        <f>AVERAGE(N10:N15)</f>
+        <v>647911.70540021744</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>1321</v>
+      </c>
+      <c r="I38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <f>B38/H37</f>
+        <v>23.935904743515618</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C38/H37</f>
+        <v>8.0589902387794403</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D38/H38</f>
+        <v>490.47063239986181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="2">
+        <f>B38/I37</f>
+        <v>484.44189817854436</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C38/I37</f>
+        <v>163.10695461529696</v>
+      </c>
+      <c r="D40" s="2">
+        <f>D38/I38</f>
+        <v>2591.6468216008698</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -228,7 +228,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -837,30 +837,30 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0757000000000001</v>
+        <v>1.05057</v>
       </c>
       <c r="C7" s="1">
-        <v>6.2000000000000003E-5</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="D7">
-        <v>0.88634000000000002</v>
-      </c>
-      <c r="E7">
-        <v>4.0000000000000003E-5</v>
+        <v>1.0501199999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F7">
-        <v>1.0740259999999999</v>
+        <v>1.0488964300000001</v>
       </c>
       <c r="G7" s="1">
-        <v>7.8187578799999996E-5</v>
+        <v>5.5286964199999999E-5</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>-167.40000000001754</v>
+        <v>-167.35699999999019</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>18768.599999999991</v>
+        <v>-122.35699999998405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -951,7 +951,7 @@
         <v>9500000</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:N15" si="4">J11*K11/(B11*60)</f>
+        <f t="shared" ref="L11:L15" si="4">J11*K11/(B11*60)</f>
         <v>164246.19640387275</v>
       </c>
       <c r="M11" s="2">
@@ -1088,21 +1088,21 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>122.43</v>
+        <v>120.42</v>
       </c>
       <c r="D15">
-        <v>316.45</v>
+        <v>321.27</v>
       </c>
       <c r="F15">
-        <v>41.55</v>
+        <v>43.15</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>2.9465703971119139</v>
+        <v>2.7907300115874856</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>7.6161251504211798</v>
+        <v>7.4454229432213204</v>
       </c>
       <c r="J15">
         <v>60</v>
@@ -1112,15 +1112,15 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
-        <v>77595.360614228543</v>
+        <v>78890.549742567688</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>30020.540369726656</v>
+        <v>29570.143493012114</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="6"/>
-        <v>228640.1925391095</v>
+        <v>220162.22479721901</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1209,6 +1209,12 @@
       <c r="A21" t="s">
         <v>2</v>
       </c>
+      <c r="B21" s="1">
+        <v>0.27505099999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.8000000000000001E-4</v>
+      </c>
       <c r="D21">
         <v>0.27517000000000003</v>
       </c>
@@ -1223,7 +1229,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="7"/>
-        <v>27416.2</v>
+        <v>-88.89999999999732</v>
       </c>
       <c r="I21">
         <f t="shared" si="8"/>
@@ -1291,30 +1297,30 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>1.0757399999999999</v>
+        <v>1.05033</v>
       </c>
       <c r="C24" s="1">
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="D24">
-        <v>0.88636000000000004</v>
+        <v>1.05019</v>
       </c>
       <c r="E24">
-        <v>5.0000000000000002E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F24">
-        <v>1.0738829999999999</v>
+        <v>1.0488605499999999</v>
       </c>
       <c r="G24" s="1">
-        <v>1.1057392800000001E-4</v>
+        <v>5.5286964199999999E-5</v>
       </c>
       <c r="H24">
         <f t="shared" si="7"/>
-        <v>-185.69999999999976</v>
+        <v>-146.94500000000943</v>
       </c>
       <c r="I24">
         <f t="shared" si="8"/>
-        <v>18752.299999999988</v>
+        <v>-132.94500000000653</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1421,6 +1427,9 @@
       <c r="A29" t="s">
         <v>2</v>
       </c>
+      <c r="B29">
+        <v>146.15</v>
+      </c>
       <c r="D29">
         <v>131.266666666666</v>
       </c>
@@ -1429,7 +1438,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.3367952522255191</v>
       </c>
       <c r="I29">
         <f t="shared" si="10"/>
@@ -1441,9 +1450,9 @@
       <c r="K29" s="1">
         <v>6500000</v>
       </c>
-      <c r="L29" s="2" t="e">
+      <c r="L29" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>44474.854601436877</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="12"/>
@@ -1535,22 +1544,22 @@
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>77.099999999999994</v>
+      <c r="B32" s="1">
+        <v>81.537199999999999</v>
       </c>
       <c r="D32">
-        <v>217.78333333333299</v>
+        <v>160.68</v>
       </c>
       <c r="F32">
-        <v>42.8</v>
+        <v>45.06</v>
       </c>
       <c r="H32">
         <f t="shared" si="9"/>
-        <v>1.8014018691588785</v>
+        <v>1.809525077674212</v>
       </c>
       <c r="I32">
         <f t="shared" si="10"/>
-        <v>5.0883956386292759</v>
+        <v>3.5659121171770973</v>
       </c>
       <c r="J32">
         <v>60</v>
@@ -1560,15 +1569,15 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="11"/>
-        <v>84306.095979247737</v>
+        <v>79718.214508224468</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="12"/>
-        <v>29846.177393433885</v>
+        <v>40453.074433656955</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="13"/>
-        <v>151869.15887850468</v>
+        <v>144252.10830004438</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1605,15 +1614,15 @@
       </c>
       <c r="B38" s="2">
         <f>AVERAGE(L10:L15)</f>
-        <v>222843.27316213041</v>
+        <v>223059.1380168536</v>
       </c>
       <c r="C38" s="2">
         <f>AVERAGE(M10:M15)</f>
-        <v>75029.199123036597</v>
+        <v>74954.132976917506</v>
       </c>
       <c r="D38" s="2">
         <f>AVERAGE(N10:N15)</f>
-        <v>647911.70540021744</v>
+        <v>646498.71077656897</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
@@ -1631,15 +1640,15 @@
       </c>
       <c r="B39" s="2">
         <f>B38/H37</f>
-        <v>23.935904743515618</v>
+        <v>23.959091086665264</v>
       </c>
       <c r="C39" s="2">
         <f>C38/H37</f>
-        <v>8.0589902387794403</v>
+        <v>8.0509272800126208</v>
       </c>
       <c r="D39" s="2">
         <f>D38/H38</f>
-        <v>490.47063239986181</v>
+        <v>489.40099226083947</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1648,15 +1657,15 @@
       </c>
       <c r="B40" s="2">
         <f>B38/I37</f>
-        <v>484.44189817854436</v>
+        <v>484.91116960185565</v>
       </c>
       <c r="C40" s="2">
         <f>C38/I37</f>
-        <v>163.10695461529696</v>
+        <v>162.94376734112501</v>
       </c>
       <c r="D40" s="2">
         <f>D38/I38</f>
-        <v>2591.6468216008698</v>
+        <v>2585.9948431062758</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1271,6 +1271,12 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
+      <c r="B23">
+        <v>1.0987100000000001</v>
+      </c>
+      <c r="C23">
+        <v>2.2000000000000001E-4</v>
+      </c>
       <c r="D23">
         <v>1.1009800000000001</v>
       </c>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="7"/>
-        <v>109710.9</v>
+        <v>-160.10000000001855</v>
       </c>
       <c r="I23">
         <f t="shared" si="8"/>
@@ -1507,6 +1513,9 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
+      <c r="B31">
+        <v>120.86</v>
+      </c>
       <c r="D31">
         <v>320.39999999999998</v>
       </c>
@@ -1515,7 +1524,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5806957886476591</v>
       </c>
       <c r="I31">
         <f t="shared" si="10"/>
@@ -1527,9 +1536,9 @@
       <c r="K31" s="1">
         <v>6000000</v>
       </c>
-      <c r="L31" s="2" t="e">
+      <c r="L31" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>49644.216448783714</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="12"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>jezebel</t>
   </si>
@@ -91,14 +91,21 @@
   </si>
   <si>
     <t>titan</t>
+  </si>
+  <si>
+    <t>2*stddev SERP</t>
+  </si>
+  <si>
+    <t>2*stddev MCNP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,13 +231,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -271,6 +303,18 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -311,6 +355,18 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,15 +696,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -676,8 +736,14 @@
       <c r="L1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -707,8 +773,16 @@
         <f>(F2-D2)*100000</f>
         <v>-17.900000000004024</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="3">
+        <f>2*B2*C2*100000</f>
+        <v>15.400770000000003</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>2*B2*C2*100000</f>
+        <v>15.400770000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -738,8 +812,16 @@
         <f t="shared" ref="I3:I7" si="1">(F3-D3)*100000</f>
         <v>-43.499999999996319</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P32" si="2">2*B3*C3*100000</f>
+        <v>11.630346000000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q32" si="3">2*B3*C3*100000</f>
+        <v>11.630346000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -769,8 +851,16 @@
         <f t="shared" si="1"/>
         <v>-106.40000000000094</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" s="3">
+        <f t="shared" si="2"/>
+        <v>24.786090000000002</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>24.786090000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -800,8 +890,16 @@
         <f t="shared" si="1"/>
         <v>-515.90000000000248</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>12.326859999999998</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>12.326859999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -831,8 +929,16 @@
         <f t="shared" si="1"/>
         <v>-410.59999999999428</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>14.063104000000001</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>14.063104000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -862,8 +968,20 @@
         <f t="shared" si="1"/>
         <v>-122.35699999998405</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>39.921660000000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>39.921660000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -882,8 +1000,10 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -897,7 +1017,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H15" si="2">B10/F10</f>
+        <f t="shared" ref="H10:H15" si="4">B10/F10</f>
         <v>2.2478260869565219</v>
       </c>
       <c r="I10">
@@ -922,8 +1042,10 @@
         <f>J10*K10/(60*F10)</f>
         <v>2065217.3913043479</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -937,11 +1059,11 @@
         <v>10.93</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2918572735590121</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I15" si="3">D11/F11</f>
+        <f t="shared" ref="I11:I15" si="5">D11/F11</f>
         <v>12.202195791399818</v>
       </c>
       <c r="J11">
@@ -951,19 +1073,21 @@
         <v>9500000</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:L15" si="4">J11*K11/(B11*60)</f>
+        <f t="shared" ref="L11:L15" si="6">J11*K11/(B11*60)</f>
         <v>164246.19640387275</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11:M15" si="5">J11*K11/(60*D11)</f>
+        <f t="shared" ref="M11:M15" si="7">J11*K11/(60*D11)</f>
         <v>71230.411636799879</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:N15" si="6">J11*K11/(60*F11)</f>
+        <f t="shared" ref="N11:N15" si="8">J11*K11/(60*F11)</f>
         <v>869167.42909423611</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -977,11 +1101,11 @@
         <v>30.43</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5254682878738084</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8291160039434766</v>
       </c>
       <c r="J12">
@@ -991,19 +1115,21 @@
         <v>9500000</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47842.070806264797</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>53557.334536024355</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>312191.91587249428</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1017,11 +1143,11 @@
         <v>31.99</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5839324788996567</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.028029592580996</v>
       </c>
       <c r="J13">
@@ -1031,19 +1157,21 @@
         <v>9500000</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>82860.880941997384</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22794.529312964925</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>296967.80243826198</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1057,11 +1185,11 @@
         <v>73.73</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5197341651973417</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7041909670419093</v>
       </c>
       <c r="J14">
@@ -1071,19 +1199,21 @@
         <v>8500000</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45753.041231564217</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17196.034796682176</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>115285.50115285501</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1097,11 +1227,11 @@
         <v>43.15</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7907300115874856</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4454229432213204</v>
       </c>
       <c r="J15">
@@ -1111,19 +1241,29 @@
         <v>9500000</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78890.549742567688</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29570.143493012114</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>220162.22479721901</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1142,13 +1282,15 @@
       <c r="I18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>9.9978400000000001</v>
+        <v>0.99978400000000001</v>
       </c>
       <c r="C19" s="1">
         <v>9.5000000000000005E-5</v>
@@ -1167,14 +1309,22 @@
       </c>
       <c r="H19">
         <f>(F19-B19)*100000</f>
-        <v>-899806.90000000014</v>
+        <v>-1.3000000000040757</v>
       </c>
       <c r="I19">
         <f>(F19-D19)*100000</f>
         <v>-4.900000000007676</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>18.995896000000002</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="3"/>
+        <v>18.995896000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1197,15 +1347,23 @@
         <v>1.3542485199999999E-4</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H24" si="7">(F20-B20)*100000</f>
+        <f t="shared" ref="H20:H24" si="9">(F20-B20)*100000</f>
         <v>-114.99999999999844</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I24" si="8">(F20-D20)*100000</f>
+        <f t="shared" ref="I20:I24" si="10">(F20-D20)*100000</f>
         <v>-51.100000000003917</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>14.241815999999998</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
+        <v>14.241815999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1228,15 +1386,23 @@
         <v>1.5637515800000001E-4</v>
       </c>
       <c r="H21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-88.89999999999732</v>
       </c>
       <c r="I21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-100.80000000000089</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="P21" s="3">
+        <f t="shared" si="2"/>
+        <v>9.9018360000000012</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>9.9018360000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1259,15 +1425,23 @@
         <v>9.5759831300000004E-5</v>
       </c>
       <c r="H22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-476.20000000000442</v>
       </c>
       <c r="I22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-515.20000000000459</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22" s="3">
+        <f t="shared" si="2"/>
+        <v>15.320525999999999</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
+        <v>15.320525999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1290,15 +1464,23 @@
         <v>5.5286964199999999E-5</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-160.10000000001855</v>
       </c>
       <c r="I23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-387.10000000001799</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>48.343240000000002</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="3"/>
+        <v>48.343240000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1321,15 +1503,27 @@
         <v>5.5286964199999999E-5</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-146.94500000000943</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-132.94500000000653</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>15.124752000000001</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="3"/>
+        <v>15.124752000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1348,8 +1542,10 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1388,8 +1584,10 @@
         <f>J27*K27/(60*F27)</f>
         <v>1240458.0152671754</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1403,11 +1601,11 @@
         <v>12.26</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H32" si="9">B28/F28</f>
+        <f t="shared" ref="H28:H32" si="11">B28/F28</f>
         <v>3.2145187601957583</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I32" si="10">D28/F28</f>
+        <f t="shared" ref="I28:I32" si="12">D28/F28</f>
         <v>8.0261011419249595</v>
       </c>
       <c r="J28">
@@ -1417,19 +1615,21 @@
         <v>6500000</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:L32" si="11">J28*K28/(B28*60)</f>
+        <f t="shared" ref="L28:L32" si="13">J28*K28/(B28*60)</f>
         <v>164932.75818320224</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" ref="M28:M32" si="12">J28*K28/(60*D28)</f>
+        <f t="shared" ref="M28:M32" si="14">J28*K28/(60*D28)</f>
         <v>66056.91056910569</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:N32" si="13">J28*K28/(60*F28)</f>
+        <f t="shared" ref="N28:N32" si="15">J28*K28/(60*F28)</f>
         <v>530179.44535073405</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1443,11 +1643,11 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.3367952522255191</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.8951533135509195</v>
       </c>
       <c r="J29">
@@ -1457,19 +1657,21 @@
         <v>6500000</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44474.854601436877</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>49517.521584560942</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>192878.33827893174</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1483,11 +1685,11 @@
         <v>32.03</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4714330315329378</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.4129461962743051</v>
       </c>
       <c r="J30">
@@ -1497,19 +1699,21 @@
         <v>6500000</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>82112.17786760992</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24121.721919841722</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>202934.74867311894</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1523,11 +1727,11 @@
         <v>76.459999999999994</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5806957886476591</v>
       </c>
       <c r="I31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1904263667277011</v>
       </c>
       <c r="J31">
@@ -1537,19 +1741,21 @@
         <v>6000000</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49644.216448783714</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18726.591760299627</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78472.403871305272</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1563,11 +1769,11 @@
         <v>45.06</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.809525077674212</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.5659121171770973</v>
       </c>
       <c r="J32">
@@ -1577,17 +1783,19 @@
         <v>6500000</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>79718.214508224468</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>40453.074433656955</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>144252.10830004438</v>
       </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="36" spans="1:9">
       <c r="H36" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -813,11 +813,11 @@
         <v>-43.499999999996319</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P32" si="2">2*B3*C3*100000</f>
+        <f t="shared" ref="P3:P24" si="2">2*B3*C3*100000</f>
         <v>11.630346000000001</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q32" si="3">2*B3*C3*100000</f>
+        <f t="shared" ref="Q3:Q24" si="3">2*B3*C3*100000</f>
         <v>11.630346000000001</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="H38">
-        <v>1321</v>
+        <v>1521</v>
       </c>
       <c r="I38">
         <v>250</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D39" s="2">
         <f>D38/H38</f>
-        <v>489.40099226083947</v>
+        <v>425.04846204902628</v>
       </c>
     </row>
     <row r="40" spans="1:9">

--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="50">
   <si>
     <t>TITAN, keff</t>
   </si>
@@ -35,13 +35,25 @@
     <t>dm - savio</t>
   </si>
   <si>
-    <t>stddev SERP</t>
-  </si>
-  <si>
-    <t>stddev MCNP</t>
+    <t>1-sigma SERP</t>
+  </si>
+  <si>
+    <t>1-sigma MCNP</t>
+  </si>
+  <si>
+    <t>2-sigma SERP</t>
+  </si>
+  <si>
+    <t>2-sigma MCNP</t>
   </si>
   <si>
     <t>jezebel</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>homfuel</t>
@@ -159,21 +171,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00E+0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00000000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
-    <numFmt numFmtId="173" formatCode="H:MM:SS"/>
-    <numFmt numFmtId="174" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="175" formatCode="[M]&quot;m &quot;S\s"/>
-    <numFmt numFmtId="176" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="177" formatCode="[H]&quot;h &quot;M&quot;m &quot;S\s"/>
+    <numFmt numFmtId="170" formatCode="0.00E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+    <numFmt numFmtId="172" formatCode="H:MM:SS"/>
+    <numFmt numFmtId="173" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="174" formatCode="[M]&quot;m &quot;S\s"/>
+    <numFmt numFmtId="175" formatCode="[H]&quot;h &quot;M&quot;m &quot;S\s"/>
+    <numFmt numFmtId="176" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -253,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,15 +301,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,15 +313,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,11 +333,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,7 +353,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,16 +378,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:S123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+      <selection pane="topLeft" activeCell="S42" activeCellId="0" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.9767441860465"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="1" width="10.7302325581395"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.7302325581395"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.293023255814"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.7302325581395"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2511627906977"/>
@@ -415,13 +431,19 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1.00006199</v>
@@ -448,25 +470,41 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="8" t="n">
-        <f aca="false">(B56*C56+B2*C2)*100000</f>
+        <f aca="false">($B56*$C56+$B2*$C2)*100000</f>
         <v>19.0745247451942</v>
       </c>
       <c r="K2" s="8" t="n">
-        <f aca="false">(D56*E56+B2*C2)*100000</f>
+        <f aca="false">($D56*$E56+$B2*$C2)*100000</f>
         <v>16.5762967451942</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <f aca="false">($B56*$C56+$B2*$C2)*2*100000</f>
+        <v>38.1490494903885</v>
+      </c>
+      <c r="P2" s="8" t="n">
+        <f aca="false">($D56*$E56+$B2*$C2)*2*100000</f>
+        <v>33.1525934903885</v>
+      </c>
       <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>0.593372405</v>
       </c>
       <c r="C3" s="6" t="n">
@@ -491,25 +529,41 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="8" t="n">
-        <f aca="false">(B57*C57+B3*C3)*100000</f>
+        <f aca="false">($B57*$C57+$B3*$C3)*100000</f>
         <v>14.4564991004418</v>
       </c>
       <c r="K3" s="8" t="n">
-        <f aca="false">(D57*E57+B3*C3)*100000</f>
+        <f aca="false">($D57*$E57+$B3*$C3)*100000</f>
         <v>9.70879110044179</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <f aca="false">($B57*$C57+$B3*$C3)*2*100000</f>
+        <v>28.9129982008836</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <f aca="false">($D57*$E57+$B3*$C3)*2*100000</f>
+        <v>19.4175822008836</v>
+      </c>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>0.275029391</v>
       </c>
       <c r="C4" s="6" t="n">
@@ -534,25 +588,41 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="8" t="n">
-        <f aca="false">(B58*C58+B4*C4)*100000</f>
+        <f aca="false">($B58*$C58+$B4*$C4)*100000</f>
         <v>8.97392584600133</v>
       </c>
       <c r="K4" s="8" t="n">
-        <f aca="false">(D58*E58+B4*C4)*100000</f>
+        <f aca="false">($D58*$E58+$B4*$C4)*100000</f>
         <v>5.12384784600134</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <f aca="false">($B58*$C58+$B4*$C4)*2*100000</f>
+        <v>17.9478516920027</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <f aca="false">($D58*$E58+$B4*$C4)*2*100000</f>
+        <v>10.2476956920027</v>
+      </c>
       <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>0.880700469</v>
       </c>
       <c r="C5" s="6" t="n">
@@ -577,25 +647,41 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="8" t="n">
-        <f aca="false">(B59*C59+B5*C5)*100000</f>
+        <f aca="false">($B59*$C59+$B5*$C5)*100000</f>
         <v>16.0938358337271</v>
       </c>
       <c r="K5" s="8" t="n">
-        <f aca="false">(D59*E59+B5*C5)*100000</f>
+        <f aca="false">($D59*$E59+$B5*$C5)*100000</f>
         <v>13.7166328337271</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <f aca="false">($B59*$C59+$B5*$C5)*2*100000</f>
+        <v>32.1876716674542</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <f aca="false">($D59*$E59+$B5*$C5)*2*100000</f>
+        <v>27.4332656674542</v>
+      </c>
       <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>1.09868598</v>
       </c>
       <c r="C6" s="6" t="n">
@@ -620,25 +706,41 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="8" t="n">
-        <f aca="false">(B60*C60+B6*C6)*100000</f>
+        <f aca="false">($B60*$C60+$B6*$C6)*100000</f>
         <v>32.7619796637705</v>
       </c>
       <c r="K6" s="8" t="n">
-        <f aca="false">(D60*E60+B6*C6)*100000</f>
+        <f aca="false">($D60*$E60+$B6*$C6)*100000</f>
         <v>15.1829796637705</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <f aca="false">($B60*$C60+$B6*$C6)*2*100000</f>
+        <v>65.5239593275411</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <f aca="false">($D60*$E60+$B6*$C6)*2*100000</f>
+        <v>30.365959327541</v>
+      </c>
       <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>1.05107951</v>
       </c>
       <c r="C7" s="6" t="n">
@@ -663,19 +765,35 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="8" t="n">
-        <f aca="false">(B61*C61+B7*C7)*100000</f>
+        <f aca="false">($B61*$C61+$B7*$C7)*100000</f>
         <v>17.6274956560487</v>
       </c>
       <c r="K7" s="8" t="n">
-        <f aca="false">(D61*E61+B7*C7)*100000</f>
+        <f aca="false">($D61*$E61+$B7*$C7)*100000</f>
         <v>17.4147696560487</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <f aca="false">($B61*$C61+$B7*$C7)*2*100000</f>
+        <v>35.2549913120973</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <f aca="false">($D61*$E61+$B7*$C7)*2*100000</f>
+        <v>34.8295393120973</v>
+      </c>
       <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -698,7 +816,7 @@
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -729,9 +847,9 @@
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>1.47383321</v>
       </c>
       <c r="C10" s="3"/>
@@ -744,11 +862,11 @@
         <f aca="false">$B$64/B10</f>
         <v>4.29017337721682</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="9" t="n">
         <f aca="false">$D$80/B10</f>
         <v>20.7395697554315</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="9" t="n">
         <f aca="false">$D$64/B10</f>
         <v>3.35858899529072</v>
       </c>
@@ -764,9 +882,9 @@
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>7.52899984</v>
       </c>
       <c r="C11" s="3"/>
@@ -779,11 +897,11 @@
         <f aca="false">$B$65/B11</f>
         <v>3.20067744881238</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="9" t="n">
         <f aca="false">$D$81/B11</f>
         <v>13.0694650140941</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="9" t="n">
         <f aca="false">$D$65/B11</f>
         <v>5.84849704729617</v>
       </c>
@@ -799,9 +917,9 @@
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>26.4744995</v>
       </c>
       <c r="C12" s="3"/>
@@ -814,11 +932,11 @@
         <f aca="false">$B$66/B12</f>
         <v>2.88978834141888</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="9" t="n">
         <f aca="false">$D$82/B12</f>
         <v>4.95823034035699</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="9" t="n">
         <f aca="false">$D$66/B12</f>
         <v>2.42434548510854</v>
       </c>
@@ -834,9 +952,9 @@
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>25.7771667</v>
       </c>
       <c r="C13" s="3"/>
@@ -849,11 +967,11 @@
         <f aca="false">$B$67/B13</f>
         <v>1.74893542508689</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="9" t="n">
         <f aca="false">$D$83/B13</f>
         <v>10.4536960870361</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="9" t="n">
         <f aca="false">$D$67/B13</f>
         <v>3.14360900390706</v>
       </c>
@@ -869,9 +987,9 @@
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <f aca="false">81.0563314*650000/649000</f>
         <v>81.1812255932204</v>
       </c>
@@ -885,11 +1003,11 @@
         <f aca="false">$B$68/B14</f>
         <v>0.843244229189328</v>
       </c>
-      <c r="G14" s="11" t="n">
+      <c r="G14" s="9" t="n">
         <f aca="false">$D$84/B14</f>
         <v>3.94672533777018</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="9" t="n">
         <f aca="false">$D$68/B14</f>
         <v>2.45315340517145</v>
       </c>
@@ -905,9 +1023,9 @@
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>34.9105021</v>
       </c>
       <c r="C15" s="3"/>
@@ -920,11 +1038,11 @@
         <f aca="false">$B$69/B15</f>
         <v>1.26960362452077</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="9" t="n">
         <f aca="false">$D$85/B15</f>
         <v>4.60262644002476</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="9" t="n">
         <f aca="false">$D$69/B15</f>
         <v>3.2153648113815</v>
       </c>
@@ -978,7 +1096,7 @@
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1009,9 +1127,9 @@
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>1.00002122</v>
       </c>
       <c r="C19" s="6" t="n">
@@ -1036,25 +1154,41 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="8" t="n">
-        <f aca="false">(B19*C19+B56*C56)*100000</f>
+        <f aca="false">($B19*$C19+$B56*$C56)*100000</f>
         <v>17.3168717940422</v>
       </c>
       <c r="K19" s="8" t="n">
-        <f aca="false">(B19*C19+D56*E56)*100000</f>
+        <f aca="false">($B19*$C19+$D56*$E56)*100000</f>
         <v>14.8186437940422</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <f aca="false">($B19*$C19+$B56*$C56)*2*100000</f>
+        <v>34.6337435880844</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <f aca="false">($B19*$C19+$D56*$E56)*2*100000</f>
+        <v>29.6372875880844</v>
+      </c>
       <c r="Q19" s="3"/>
+      <c r="R19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>0.59345388</v>
       </c>
       <c r="C20" s="6" t="n">
@@ -1079,25 +1213,41 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="8" t="n">
-        <f aca="false">(B20*C20+B57*C57)*100000</f>
+        <f aca="false">($B20*$C20+$B57*$C57)*100000</f>
         <v>16.9639872271476</v>
       </c>
       <c r="K20" s="8" t="n">
-        <f aca="false">(B20*C20+D57*E57)*100000</f>
+        <f aca="false">($B20*$C20+$D57*$E57)*100000</f>
         <v>12.2162792271476</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <f aca="false">($B20*$C20+$B57*$C57)*2*100000</f>
+        <v>33.9279744542953</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <f aca="false">($B20*$C20+$D57*$E57)*2*100000</f>
+        <v>24.4325584542953</v>
+      </c>
       <c r="Q20" s="3"/>
+      <c r="R20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>0.275104821</v>
       </c>
       <c r="C21" s="6" t="n">
@@ -1122,25 +1272,41 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="8" t="n">
-        <f aca="false">(B21*C21+B58*C58)*100000</f>
+        <f aca="false">($B21*$C21+$B58*$C58)*100000</f>
         <v>10.6418704683167</v>
       </c>
       <c r="K21" s="8" t="n">
-        <f aca="false">(B21*C21+D58*E58)*100000</f>
+        <f aca="false">($B21*$C21+$D58*$E58)*100000</f>
         <v>6.79179246831672</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <f aca="false">($B21*$C21+$B58*$C58)*2*100000</f>
+        <v>21.2837409366334</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <f aca="false">($B21*$C21+$D58*$E58)*2*100000</f>
+        <v>13.5835849366334</v>
+      </c>
       <c r="Q21" s="3"/>
+      <c r="R21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>0.880708635</v>
       </c>
       <c r="C22" s="6" t="n">
@@ -1165,25 +1331,41 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="8" t="n">
-        <f aca="false">(B22*C22+B59*C59)*100000</f>
+        <f aca="false">($B22*$C22+$B59*$C59)*100000</f>
         <v>16.0939140312053</v>
       </c>
       <c r="K22" s="8" t="n">
-        <f aca="false">(B22*C22+D59*E59)*100000</f>
+        <f aca="false">($B22*$C22+$D59*$E59)*100000</f>
         <v>13.7167110312053</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <f aca="false">($B22*$C22+$B59*$C59)*2*100000</f>
+        <v>32.1878280624107</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <f aca="false">($B22*$C22+$D59*$E59)*2*100000</f>
+        <v>27.4334220624107</v>
+      </c>
       <c r="Q22" s="3"/>
+      <c r="R22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <v>1.09879124</v>
       </c>
       <c r="C23" s="6" t="n">
@@ -1208,25 +1390,41 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="8" t="n">
-        <f aca="false">(B23*C23+B60*C60)*100000</f>
+        <f aca="false">($B23*$C23+$B60*$C60)*100000</f>
         <v>30.2465031949154</v>
       </c>
       <c r="K23" s="8" t="n">
-        <f aca="false">(B23*C23+D60*E60)*100000</f>
+        <f aca="false">($B23*$C23+$D60*$E60)*100000</f>
         <v>12.6675031949154</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <f aca="false">($B23*$C23+$B60*$C60)*2*100000</f>
+        <v>60.4930063898307</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <f aca="false">($B23*$C23+$D60*$E60)*2*100000</f>
+        <v>25.3350063898307</v>
+      </c>
       <c r="Q23" s="3"/>
+      <c r="R23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <v>1.05106199</v>
       </c>
       <c r="C24" s="6" t="n">
@@ -1251,19 +1449,35 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="8" t="n">
-        <f aca="false">(B24*C24+B61*C61)*100000</f>
+        <f aca="false">($B24*$C24+$B61*$C61)*100000</f>
         <v>17.6273278848242</v>
       </c>
       <c r="K24" s="8" t="n">
-        <f aca="false">(B24*C24+D61*E61)*100000</f>
+        <f aca="false">($B24*$C24+$D61*$E61)*100000</f>
         <v>17.4146018848242</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <f aca="false">($B24*$C24+$B61*$C61)*2*100000</f>
+        <v>35.2546557696485</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <f aca="false">($B24*$C24+$D61*$E61)*2*100000</f>
+        <v>34.8292037696485</v>
+      </c>
       <c r="Q24" s="3"/>
+      <c r="R24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
@@ -1275,7 +1489,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="8"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1286,7 +1500,7 @@
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -1306,8 +1520,8 @@
         <v>5</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1317,9 +1531,9 @@
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>2.44733327</v>
       </c>
       <c r="C27" s="3"/>
@@ -1332,29 +1546,29 @@
         <f aca="false">$B$64/B27</f>
         <v>2.58362850597786</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="9" t="n">
         <f aca="false">$D$80/B27</f>
         <v>12.489785122999</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="9" t="n">
         <f aca="false">$D$64/B27</f>
         <v>2.02260969549112</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" s="7" t="n">
         <v>12.5981669</v>
       </c>
       <c r="C28" s="3"/>
@@ -1367,29 +1581,29 @@
         <f aca="false">$B$65/B28</f>
         <v>1.91281002952898</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="9" t="n">
         <f aca="false">$D$81/B28</f>
         <v>7.81066013659495</v>
       </c>
-      <c r="H28" s="11" t="n">
+      <c r="H28" s="9" t="n">
         <f aca="false">$D$65/B28</f>
         <v>3.49521749337464</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7" t="n">
         <v>42.545166</v>
       </c>
       <c r="C29" s="3"/>
@@ -1402,29 +1616,29 @@
         <f aca="false">$B$66/B29</f>
         <v>1.79822309307713</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="9" t="n">
         <f aca="false">$D$82/B29</f>
         <v>3.08534856031978</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="9" t="n">
         <f aca="false">$D$66/B29</f>
         <v>1.50859285243671</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" s="7" t="n">
         <v>39.828833</v>
       </c>
       <c r="C30" s="3"/>
@@ -1437,29 +1651,29 @@
         <f aca="false">$B$67/B30</f>
         <v>1.13190863513375</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="9" t="n">
         <f aca="false">$D$83/B30</f>
         <v>6.76561792977128</v>
       </c>
-      <c r="H30" s="11" t="n">
+      <c r="H30" s="9" t="n">
         <f aca="false">$D$67/B30</f>
         <v>2.03453948382905</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7" t="n">
         <v>121.341829</v>
       </c>
       <c r="C31" s="3"/>
@@ -1472,29 +1686,29 @@
         <f aca="false">$B$68/B31</f>
         <v>0.564155003795105</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="9" t="n">
         <f aca="false">$D$84/B31</f>
         <v>2.64047445666902</v>
       </c>
-      <c r="H31" s="11" t="n">
+      <c r="H31" s="9" t="n">
         <f aca="false">$D$68/B31</f>
         <v>1.64123123609749</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7" t="n">
         <v>56.03</v>
       </c>
       <c r="C32" s="3"/>
@@ -1507,20 +1721,20 @@
         <f aca="false">$B$69/B32</f>
         <v>0.791049437801178</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="9" t="n">
         <f aca="false">$D$85/B32</f>
         <v>2.8677494199536</v>
       </c>
-      <c r="H32" s="11" t="n">
+      <c r="H32" s="9" t="n">
         <f aca="false">$D$69/B32</f>
         <v>2.00339104051401</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -1565,7 +1779,7 @@
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
@@ -1596,9 +1810,9 @@
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="n">
         <v>0.999960184</v>
       </c>
       <c r="C36" s="6" t="n">
@@ -1613,7 +1827,7 @@
         <f aca="false">(B36-$B$56)*100000</f>
         <v>17.6183999999968</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="7" t="n">
         <f aca="false">(B36-$D$72)*100000</f>
         <v>0.0184000000014173</v>
       </c>
@@ -1623,25 +1837,41 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="8" t="n">
-        <f aca="false">(B36*C36+B56*C56)*100000</f>
+        <f aca="false">($B36*$C36+$B56*$C56)*100000</f>
         <v>19.0735498526557</v>
       </c>
       <c r="K36" s="8" t="n">
-        <f aca="false">(B36*C36+D56*E56)*100000</f>
+        <f aca="false">($B36*$C36+$D56*$E56)*100000</f>
         <v>16.5753218526557</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="8" t="n">
+        <f aca="false">($B36*$C36+$B56*$C56)*2*100000</f>
+        <v>38.1470997053114</v>
+      </c>
+      <c r="P36" s="8" t="n">
+        <f aca="false">($B36*$C36+$D56*$E56)*2*100000</f>
+        <v>33.1506437053114</v>
+      </c>
       <c r="Q36" s="3"/>
+      <c r="R36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5" t="n">
         <v>0.593226552</v>
       </c>
       <c r="C37" s="6" t="n">
@@ -1666,25 +1896,41 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="8" t="n">
-        <f aca="false">(B37*C37+B57*C57)*100000</f>
+        <f aca="false">($B37*$C37+$B57*$C57)*100000</f>
         <v>14.4546959866472</v>
       </c>
       <c r="K37" s="8" t="n">
-        <f aca="false">(B37*C37+D57*E57)*100000</f>
+        <f aca="false">($B37*$C37+$D57*$E57)*100000</f>
         <v>9.70698798664722</v>
       </c>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <f aca="false">($B37*$C37+$B57*$C57)*2*100000</f>
+        <v>28.9093919732944</v>
+      </c>
+      <c r="P37" s="8" t="n">
+        <f aca="false">($B37*$C37+$D57*$E57)*2*100000</f>
+        <v>19.4139759732944</v>
+      </c>
       <c r="Q37" s="3"/>
+      <c r="R37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B38" s="5" t="n">
         <v>0.274988353</v>
       </c>
       <c r="C38" s="6" t="n">
@@ -1709,23 +1955,39 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="8" t="n">
-        <f aca="false">(B38*C38+B58*C58)*100000</f>
+        <f aca="false">($B38*$C38+$B58*$C58)*100000</f>
         <v>9.25105271485348</v>
       </c>
       <c r="K38" s="8" t="n">
-        <f aca="false">(B38*C38+D58*E58)*100000</f>
+        <f aca="false">($B38*$C38+$D58*$E58)*100000</f>
         <v>5.40097471485348</v>
       </c>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="8" t="n">
+        <f aca="false">($B38*$C38+$B58*$C58)*2*100000</f>
+        <v>18.502105429707</v>
+      </c>
+      <c r="P38" s="8" t="n">
+        <f aca="false">($B38*$C38+$D58*$E58)*2*100000</f>
+        <v>10.801949429707</v>
+      </c>
       <c r="Q38" s="3"/>
+      <c r="R38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>0.88075459</v>
@@ -1752,23 +2014,39 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="8" t="n">
-        <f aca="false">(B39*C39+B59*C59)*100000</f>
+        <f aca="false">($B39*$C39+$B59*$C59)*100000</f>
         <v>16.0943540955101</v>
       </c>
       <c r="K39" s="8" t="n">
-        <f aca="false">(B39*C39+D59*E59)*100000</f>
+        <f aca="false">($B39*$C39+$D59*$E59)*100000</f>
         <v>13.7171510955101</v>
       </c>
       <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <f aca="false">($B39*$C39+$B59*$C59)*2*100000</f>
+        <v>32.1887081910201</v>
+      </c>
+      <c r="P39" s="8" t="n">
+        <f aca="false">($B39*$C39+$D59*$E59)*2*100000</f>
+        <v>27.4343021910201</v>
+      </c>
       <c r="Q39" s="3"/>
+      <c r="R39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>1.09858978</v>
@@ -1795,23 +2073,39 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="8" t="n">
-        <f aca="false">(B40*C40+B60*C60)*100000</f>
+        <f aca="false">($B40*$C40+$B60*$C60)*100000</f>
         <v>30.2453893837346</v>
       </c>
       <c r="K40" s="8" t="n">
-        <f aca="false">(B40*C40+D60*E60)*100000</f>
+        <f aca="false">($B40*$C40+$D60*$E60)*100000</f>
         <v>12.6663893837346</v>
       </c>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <f aca="false">($B40*$C40+$B60*$C60)*2*100000</f>
+        <v>60.4907787674692</v>
+      </c>
+      <c r="P40" s="8" t="n">
+        <f aca="false">($B40*$C40+$D60*$E60)*2*100000</f>
+        <v>25.3327787674692</v>
+      </c>
       <c r="Q40" s="3"/>
+      <c r="R40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>1.05110347</v>
@@ -1838,19 +2132,35 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="8" t="n">
-        <f aca="false">(B41*C41+B61*C61)*100000</f>
+        <f aca="false">($B41*$C41+$B61*$C61)*100000</f>
         <v>20.5566864788897</v>
       </c>
       <c r="K41" s="8" t="n">
-        <f aca="false">(B41*C41+D61*E61)*100000</f>
+        <f aca="false">($B41*$C41+$D61*$E61)*100000</f>
         <v>20.3439604788897</v>
       </c>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <f aca="false">($B41*$C41+$B61*$C61)*2*100000</f>
+        <v>41.1133729577794</v>
+      </c>
+      <c r="P41" s="8" t="n">
+        <f aca="false">($B41*$C41+$D61*$E61)*2*100000</f>
+        <v>40.6879209577794</v>
+      </c>
       <c r="Q41" s="3"/>
+      <c r="R41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
@@ -1862,7 +2172,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="8"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1873,7 +2183,7 @@
     </row>
     <row r="43" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1899,14 +2209,14 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" s="7" t="n">
         <v>1.18483327</v>
       </c>
       <c r="C44" s="3"/>
@@ -1919,29 +2229,29 @@
         <f aca="false">$B$64/B44</f>
         <v>5.3366158430038</v>
       </c>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="9" t="n">
         <f aca="false">$D$80/B44</f>
         <v>25.7982852445278</v>
       </c>
-      <c r="H44" s="11" t="n">
+      <c r="H44" s="9" t="n">
         <f aca="false">$D$64/B44</f>
         <v>4.1778030085195</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B45" s="7" t="n">
         <v>5.78566691</v>
       </c>
       <c r="C45" s="3"/>
@@ -1954,29 +2264,29 @@
         <f aca="false">$B$65/B45</f>
         <v>4.16510324131328</v>
       </c>
-      <c r="G45" s="11" t="n">
+      <c r="G45" s="9" t="n">
         <f aca="false">$D$81/B45</f>
         <v>17.0075466719186</v>
       </c>
-      <c r="H45" s="11" t="n">
+      <c r="H45" s="9" t="n">
         <f aca="false">$D$65/B45</f>
         <v>7.61076190840259</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B46" s="7" t="n">
         <v>20.9061666</v>
       </c>
       <c r="C46" s="3"/>
@@ -1989,29 +2299,29 @@
         <f aca="false">$B$66/B46</f>
         <v>3.65948006938776</v>
       </c>
-      <c r="G46" s="11" t="n">
+      <c r="G46" s="9" t="n">
         <f aca="false">$D$82/B46</f>
         <v>6.27884916341698</v>
       </c>
-      <c r="H46" s="11" t="n">
+      <c r="H46" s="9" t="n">
         <f aca="false">$D$66/B46</f>
         <v>3.07006705539854</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <v>24.6835002</v>
       </c>
       <c r="C47" s="3"/>
@@ -2024,29 +2334,29 @@
         <f aca="false">$B$67/B47</f>
         <v>1.82642654545404</v>
       </c>
-      <c r="G47" s="11" t="n">
+      <c r="G47" s="9" t="n">
         <f aca="false">$D$83/B47</f>
         <v>10.9168742067896</v>
       </c>
-      <c r="H47" s="11" t="n">
+      <c r="H47" s="9" t="n">
         <f aca="false">$D$67/B47</f>
         <v>3.28289475466422</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B48" s="7" t="n">
         <v>81.395166</v>
       </c>
       <c r="C48" s="3"/>
@@ -2059,29 +2369,29 @@
         <f aca="false">$B$68/B48</f>
         <v>0.841027832045947</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="9" t="n">
         <f aca="false">$D$84/B48</f>
         <v>3.93635169931344</v>
       </c>
-      <c r="H48" s="11" t="n">
+      <c r="H48" s="9" t="n">
         <f aca="false">$D$68/B48</f>
         <v>2.4467054959996</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B49" s="7" t="n">
         <v>35.628833</v>
       </c>
       <c r="C49" s="3"/>
@@ -2094,23 +2404,23 @@
         <f aca="false">$B$69/B49</f>
         <v>1.24400650450718</v>
       </c>
-      <c r="G49" s="11" t="n">
+      <c r="G49" s="9" t="n">
         <f aca="false">$D$85/B49</f>
         <v>4.509830563353</v>
       </c>
-      <c r="H49" s="11" t="n">
+      <c r="H49" s="9" t="n">
         <f aca="false">$D$69/B49</f>
         <v>3.15053821717933</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
@@ -2208,15 +2518,15 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>20</v>
+      <c r="A55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="14" t="s">
-        <v>21</v>
+      <c r="D55" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2234,18 +2544,18 @@
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5" t="n">
         <v>0.999784</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>9.5E-005</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="5" t="n">
         <v>0.99996</v>
       </c>
-      <c r="E56" s="10" t="n">
+      <c r="E56" s="6" t="n">
         <v>7E-005</v>
       </c>
       <c r="F56" s="3"/>
@@ -2263,18 +2573,18 @@
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" s="5" t="n">
         <v>0.593409</v>
       </c>
-      <c r="C57" s="10" t="n">
+      <c r="C57" s="6" t="n">
         <v>0.00012</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="5" t="n">
         <v>0.5933</v>
       </c>
-      <c r="E57" s="10" t="n">
+      <c r="E57" s="6" t="n">
         <v>4E-005</v>
       </c>
       <c r="F57" s="3"/>
@@ -2292,18 +2602,18 @@
     </row>
     <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" s="5" t="n">
         <v>0.275051</v>
       </c>
-      <c r="C58" s="10" t="n">
+      <c r="C58" s="6" t="n">
         <v>0.00018</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="5" t="n">
         <v>0.27521</v>
       </c>
-      <c r="E58" s="10" t="n">
+      <c r="E58" s="6" t="n">
         <v>4E-005</v>
       </c>
       <c r="F58" s="3"/>
@@ -2321,18 +2631,18 @@
     </row>
     <row r="59" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B59" s="5" t="n">
         <v>0.88049</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>8.7E-005</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="5" t="n">
         <v>0.88051</v>
       </c>
-      <c r="E59" s="10" t="n">
+      <c r="E59" s="6" t="n">
         <v>6E-005</v>
       </c>
       <c r="F59" s="3"/>
@@ -2350,18 +2660,18 @@
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" s="5" t="n">
         <v>1.09871</v>
       </c>
-      <c r="C60" s="10" t="n">
+      <c r="C60" s="6" t="n">
         <v>0.00022</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="5" t="n">
         <v>1.09877</v>
       </c>
-      <c r="E60" s="10" t="n">
+      <c r="E60" s="6" t="n">
         <v>6E-005</v>
       </c>
       <c r="F60" s="3"/>
@@ -2379,18 +2689,18 @@
     </row>
     <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B61" s="5" t="n">
         <v>1.05033</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>7.2E-005</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="5" t="n">
         <v>1.04995</v>
       </c>
-      <c r="E61" s="10" t="n">
+      <c r="E61" s="6" t="n">
         <v>7E-005</v>
       </c>
       <c r="F61" s="3"/>
@@ -2427,14 +2737,14 @@
     </row>
     <row r="63" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2452,23 +2762,23 @@
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="B64" s="9" t="n">
         <v>6.323</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="15" t="n">
+      <c r="D64" s="9" t="n">
         <f aca="false">4+57/60</f>
         <v>4.95</v>
       </c>
-      <c r="E64" s="16" t="n">
+      <c r="E64" s="13" t="n">
         <v>0.126875</v>
       </c>
-      <c r="F64" s="17" t="n">
+      <c r="F64" s="14" t="n">
         <v>0.122256944444444</v>
       </c>
-      <c r="G64" s="18" t="n">
+      <c r="G64" s="15" t="n">
         <f aca="false">E64-F64</f>
         <v>0.00461805555555554</v>
       </c>
@@ -2485,23 +2795,23 @@
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B65" s="7" t="n">
         <v>24.0979</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="15" t="n">
+      <c r="D65" s="9" t="n">
         <f aca="false">44+2/60</f>
         <v>44.0333333333333</v>
       </c>
-      <c r="E65" s="17" t="n">
+      <c r="E65" s="14" t="n">
         <v>0.148425925925926</v>
       </c>
-      <c r="F65" s="17" t="n">
+      <c r="F65" s="14" t="n">
         <v>0.126886574074074</v>
       </c>
-      <c r="G65" s="18" t="n">
+      <c r="G65" s="15" t="n">
         <f aca="false">E65-F65</f>
         <v>0.0215393518518519</v>
       </c>
@@ -2518,23 +2828,23 @@
     </row>
     <row r="66" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="B66" s="7" t="n">
         <v>76.5057</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="15" t="n">
+      <c r="D66" s="9" t="n">
         <f aca="false">60+4+11/60</f>
         <v>64.1833333333333</v>
       </c>
-      <c r="E66" s="17" t="n">
+      <c r="E66" s="14" t="n">
         <v>0.188136574074074</v>
       </c>
-      <c r="F66" s="16" t="n">
+      <c r="F66" s="13" t="n">
         <v>0.148449074074074</v>
       </c>
-      <c r="G66" s="20" t="n">
+      <c r="G66" s="16" t="n">
         <f aca="false">E66-F66</f>
         <v>0.0396875</v>
       </c>
@@ -2551,23 +2861,23 @@
     </row>
     <row r="67" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B67" s="7" t="n">
         <v>45.0826</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="15" t="n">
+      <c r="D67" s="9" t="n">
         <f aca="false">60+21+2/60</f>
         <v>81.0333333333333</v>
       </c>
-      <c r="E67" s="17" t="n">
+      <c r="E67" s="14" t="n">
         <v>0.221145833333333</v>
       </c>
-      <c r="F67" s="16" t="n">
+      <c r="F67" s="13" t="n">
         <v>0.188148148148148</v>
       </c>
-      <c r="G67" s="20" t="n">
+      <c r="G67" s="16" t="n">
         <f aca="false">E67-F67</f>
         <v>0.0329976851851852</v>
       </c>
@@ -2584,23 +2894,23 @@
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B68" s="7" t="n">
         <v>68.4556</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="15" t="n">
+      <c r="D68" s="9" t="n">
         <f aca="false">3*60+19+9/60</f>
         <v>199.15</v>
       </c>
-      <c r="E68" s="17" t="n">
+      <c r="E68" s="14" t="n">
         <v>0.299837962962963</v>
       </c>
-      <c r="F68" s="17" t="n">
+      <c r="F68" s="14" t="n">
         <v>0.221157407407407</v>
       </c>
-      <c r="G68" s="20" t="n">
+      <c r="G68" s="16" t="n">
         <f aca="false">E68-F68</f>
         <v>0.0786805555555555</v>
       </c>
@@ -2617,23 +2927,23 @@
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B69" s="7" t="n">
         <v>44.3225</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="15" t="n">
+      <c r="D69" s="9" t="n">
         <f aca="false">60+52+15/60</f>
         <v>112.25</v>
       </c>
-      <c r="E69" s="16" t="n">
+      <c r="E69" s="13" t="n">
         <v>0.368993055555556</v>
       </c>
-      <c r="F69" s="17" t="n">
+      <c r="F69" s="14" t="n">
         <v>0.299849537037037</v>
       </c>
-      <c r="G69" s="20" t="n">
+      <c r="G69" s="16" t="n">
         <f aca="false">E69-F69</f>
         <v>0.0691435185185185</v>
       </c>
@@ -2668,15 +2978,15 @@
       <c r="Q70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>20</v>
+      <c r="A71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="14" t="s">
-        <v>21</v>
+      <c r="D71" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2694,18 +3004,18 @@
     </row>
     <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5" t="n">
         <v>0.999784</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>9.5E-005</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D72" s="5" t="n">
         <v>0.99996</v>
       </c>
-      <c r="E72" s="10" t="n">
+      <c r="E72" s="6" t="n">
         <v>7E-005</v>
       </c>
       <c r="F72" s="3"/>
@@ -2723,18 +3033,18 @@
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B73" s="5" t="n">
         <v>0.593409</v>
       </c>
-      <c r="C73" s="10" t="n">
+      <c r="C73" s="6" t="n">
         <v>0.00012</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D73" s="5" t="n">
         <v>0.5933</v>
       </c>
-      <c r="E73" s="10" t="n">
+      <c r="E73" s="6" t="n">
         <v>4E-005</v>
       </c>
       <c r="F73" s="3"/>
@@ -2752,18 +3062,18 @@
     </row>
     <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B74" s="5" t="n">
         <v>0.275051</v>
       </c>
-      <c r="C74" s="10" t="n">
+      <c r="C74" s="6" t="n">
         <v>0.00018</v>
       </c>
-      <c r="D74" s="10" t="n">
+      <c r="D74" s="5" t="n">
         <v>0.27521</v>
       </c>
-      <c r="E74" s="10" t="n">
+      <c r="E74" s="6" t="n">
         <v>4E-005</v>
       </c>
       <c r="F74" s="3"/>
@@ -2781,18 +3091,18 @@
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B75" s="5" t="n">
         <v>0.88049</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>8.7E-005</v>
       </c>
-      <c r="D75" s="10" t="n">
+      <c r="D75" s="5" t="n">
         <v>0.88051</v>
       </c>
-      <c r="E75" s="10" t="n">
+      <c r="E75" s="6" t="n">
         <v>6E-005</v>
       </c>
       <c r="F75" s="3"/>
@@ -2810,18 +3120,18 @@
     </row>
     <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B76" s="5" t="n">
         <v>1.09871</v>
       </c>
-      <c r="C76" s="10" t="n">
+      <c r="C76" s="6" t="n">
         <v>0.00022</v>
       </c>
-      <c r="D76" s="10" t="n">
+      <c r="D76" s="5" t="n">
         <v>1.09877</v>
       </c>
-      <c r="E76" s="10" t="n">
+      <c r="E76" s="6" t="n">
         <v>6E-005</v>
       </c>
       <c r="F76" s="3"/>
@@ -2839,18 +3149,18 @@
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B77" s="5" t="n">
         <v>1.05033</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>7.2E-005</v>
       </c>
-      <c r="D77" s="10" t="n">
+      <c r="D77" s="5" t="n">
         <v>1.04995</v>
       </c>
-      <c r="E77" s="10" t="n">
+      <c r="E77" s="6" t="n">
         <v>7E-005</v>
       </c>
       <c r="F77" s="3"/>
@@ -2886,15 +3196,15 @@
       <c r="Q78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="14" t="s">
-        <v>21</v>
+      <c r="D79" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2912,13 +3222,13 @@
     </row>
     <row r="80" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B80" s="7" t="n">
         <v>7.24</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="10" t="n">
+      <c r="C80" s="9"/>
+      <c r="D80" s="7" t="n">
         <v>30.5666666666666</v>
       </c>
       <c r="E80" s="3"/>
@@ -2937,13 +3247,13 @@
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B81" s="7" t="n">
         <v>39.41</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="10" t="n">
+      <c r="C81" s="9"/>
+      <c r="D81" s="7" t="n">
         <v>98.4</v>
       </c>
       <c r="E81" s="3"/>
@@ -2962,13 +3272,13 @@
     </row>
     <row r="82" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B82" s="7" t="n">
         <v>146.15</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="10" t="n">
+      <c r="C82" s="9"/>
+      <c r="D82" s="7" t="n">
         <v>131.266666666666</v>
       </c>
       <c r="E82" s="3"/>
@@ -2987,13 +3297,13 @@
     </row>
     <row r="83" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B83" s="7" t="n">
         <v>79.16</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="10" t="n">
+      <c r="C83" s="9"/>
+      <c r="D83" s="7" t="n">
         <v>269.466666666666</v>
       </c>
       <c r="E83" s="3"/>
@@ -3012,13 +3322,13 @@
     </row>
     <row r="84" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" s="7" t="n">
         <v>120.86</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="10" t="n">
+      <c r="C84" s="9"/>
+      <c r="D84" s="7" t="n">
         <v>320.4</v>
       </c>
       <c r="E84" s="3"/>
@@ -3037,13 +3347,13 @@
     </row>
     <row r="85" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B85" s="7" t="n">
         <v>81.5372</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="10" t="n">
+      <c r="C85" s="9"/>
+      <c r="D85" s="7" t="n">
         <v>160.68</v>
       </c>
       <c r="E85" s="3"/>
@@ -3086,7 +3396,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="14"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -3105,7 +3415,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="14"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -3124,7 +3434,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="14"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -3143,7 +3453,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="14"/>
+      <c r="G90" s="12"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3162,7 +3472,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="14"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -3181,7 +3491,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="14"/>
+      <c r="G92" s="12"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -3195,34 +3505,34 @@
     </row>
     <row r="93" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
-      <c r="B93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" s="14" t="s">
+      <c r="B93" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="C93" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="D93" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I93" s="14" t="s">
+      <c r="E93" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J93" s="14" t="s">
+      <c r="F93" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K93" s="3"/>
+      <c r="G93" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" s="19"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -3232,19 +3542,19 @@
     </row>
     <row r="94" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B94" s="20" t="n">
         <v>60</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>6500000</v>
       </c>
-      <c r="D94" s="13" t="n">
+      <c r="D94" s="6" t="n">
         <f aca="false">B94*C94/B27</f>
         <v>159357127.523543</v>
       </c>
-      <c r="E94" s="13" t="n">
+      <c r="E94" s="6" t="n">
         <f aca="false">B94*C94/B10</f>
         <v>264616102.659269</v>
       </c>
@@ -3252,11 +3562,11 @@
         <f aca="false">B94*C94/B44</f>
         <v>329160237.03487</v>
       </c>
-      <c r="G94" s="13" t="n">
+      <c r="G94" s="6" t="n">
         <f aca="false">B94*C94/B80</f>
         <v>53867403.3149171</v>
       </c>
-      <c r="H94" s="13" t="n">
+      <c r="H94" s="6" t="n">
         <f aca="false">B94*C94/B64</f>
         <v>61679582.4766725</v>
       </c>
@@ -3278,19 +3588,19 @@
     </row>
     <row r="95" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B95" s="20" t="n">
         <v>60</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>6500000</v>
       </c>
-      <c r="D95" s="13" t="n">
+      <c r="D95" s="6" t="n">
         <f aca="false">B95*C95/B28</f>
         <v>30956884.6877239</v>
       </c>
-      <c r="E95" s="13" t="n">
+      <c r="E95" s="6" t="n">
         <f aca="false">B95*C95/B11</f>
         <v>51799708.8973241</v>
       </c>
@@ -3298,11 +3608,11 @@
         <f aca="false">B95*C95/B45</f>
         <v>67407959.370409</v>
       </c>
-      <c r="G95" s="13" t="n">
+      <c r="G95" s="6" t="n">
         <f aca="false">B95*C95/B81</f>
         <v>9895965.49099213</v>
       </c>
-      <c r="H95" s="13" t="n">
+      <c r="H95" s="6" t="n">
         <f aca="false">B95*C95/B65</f>
         <v>16183982.8366787</v>
       </c>
@@ -3324,19 +3634,19 @@
     </row>
     <row r="96" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B96" s="20" t="n">
         <v>60</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>6500000</v>
       </c>
-      <c r="D96" s="13" t="n">
+      <c r="D96" s="6" t="n">
         <f aca="false">B96*C96/B29</f>
         <v>9166728.83589172</v>
       </c>
-      <c r="E96" s="13" t="n">
+      <c r="E96" s="6" t="n">
         <f aca="false">B96*C96/B12</f>
         <v>14731156.6739911</v>
       </c>
@@ -3344,11 +3654,11 @@
         <f aca="false">B96*C96/B46</f>
         <v>18654782.9385422</v>
       </c>
-      <c r="G96" s="13" t="n">
+      <c r="G96" s="6" t="n">
         <f aca="false">B96*C96/B82</f>
         <v>2668491.27608621</v>
       </c>
-      <c r="H96" s="13" t="n">
+      <c r="H96" s="6" t="n">
         <f aca="false">B96*C96/B66</f>
         <v>5097659.39008466</v>
       </c>
@@ -3370,19 +3680,19 @@
     </row>
     <row r="97" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B97" s="20" t="n">
         <v>60</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>6500000</v>
       </c>
-      <c r="D97" s="13" t="n">
+      <c r="D97" s="6" t="n">
         <f aca="false">B97*C97/B30</f>
         <v>9791901.25907028</v>
       </c>
-      <c r="E97" s="13" t="n">
+      <c r="E97" s="6" t="n">
         <f aca="false">B97*C97/B13</f>
         <v>15129669.0027613</v>
       </c>
@@ -3390,11 +3700,11 @@
         <f aca="false">B97*C97/B47</f>
         <v>15800028.2310043</v>
       </c>
-      <c r="G97" s="13" t="n">
+      <c r="G97" s="6" t="n">
         <f aca="false">B97*C97/B83</f>
         <v>4926730.67205659</v>
       </c>
-      <c r="H97" s="13" t="n">
+      <c r="H97" s="6" t="n">
         <f aca="false">B97*C97/B67</f>
         <v>8650787.66530768</v>
       </c>
@@ -3416,19 +3726,19 @@
     </row>
     <row r="98" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B98" s="20" t="n">
         <v>60</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>6000000</v>
       </c>
-      <c r="D98" s="13" t="n">
+      <c r="D98" s="6" t="n">
         <f aca="false">B98*C98/B31</f>
         <v>2966825.23221238</v>
       </c>
-      <c r="E98" s="13" t="n">
+      <c r="E98" s="6" t="n">
         <f aca="false">B98*C98/B14</f>
         <v>4434522.85142717</v>
       </c>
@@ -3436,11 +3746,11 @@
         <f aca="false">B98*C98/B48</f>
         <v>4422867.07788028</v>
       </c>
-      <c r="G98" s="13" t="n">
+      <c r="G98" s="6" t="n">
         <f aca="false">B98*C98/B84</f>
         <v>2978652.98692702</v>
       </c>
-      <c r="H98" s="13" t="n">
+      <c r="H98" s="6" t="n">
         <f aca="false">B98*C98/B68</f>
         <v>5258883.13008724</v>
       </c>
@@ -3462,19 +3772,19 @@
     </row>
     <row r="99" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B99" s="20" t="n">
         <v>60</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>6500000</v>
       </c>
-      <c r="D99" s="13" t="n">
+      <c r="D99" s="6" t="n">
         <f aca="false">B99*C99/B32</f>
         <v>6960556.84454756</v>
       </c>
-      <c r="E99" s="13" t="n">
+      <c r="E99" s="6" t="n">
         <f aca="false">B99*C99/B15</f>
         <v>11171423.3981184</v>
       </c>
@@ -3482,11 +3792,11 @@
         <f aca="false">B99*C99/B49</f>
         <v>10946190.68775</v>
       </c>
-      <c r="G99" s="13" t="n">
+      <c r="G99" s="6" t="n">
         <f aca="false">B99*C99/B85</f>
         <v>4783092.87049347</v>
       </c>
-      <c r="H99" s="13" t="n">
+      <c r="H99" s="6" t="n">
         <f aca="false">B99*C99/B69</f>
         <v>8799142.64763946</v>
       </c>
@@ -3513,7 +3823,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="14"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -3532,7 +3842,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="14"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -3545,16 +3855,16 @@
       <c r="Q101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
-        <v>34</v>
+      <c r="A102" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="22" t="n">
+      <c r="D102" s="21" t="n">
         <f aca="false">AVERAGE(D94:D99)</f>
         <v>36533337.3971648</v>
       </c>
-      <c r="E102" s="22" t="n">
+      <c r="E102" s="21" t="n">
         <f aca="false">AVERAGE(E94:E99)</f>
         <v>60313763.9138152</v>
       </c>
@@ -3562,11 +3872,11 @@
         <f aca="false">AVERAGE(F94:F99)</f>
         <v>74398677.5567426</v>
       </c>
-      <c r="G102" s="22" t="n">
+      <c r="G102" s="21" t="n">
         <f aca="false">AVERAGE(G94:G99)</f>
         <v>13186722.7685788</v>
       </c>
-      <c r="H102" s="22" t="n">
+      <c r="H102" s="21" t="n">
         <f aca="false">AVERAGE(H94:H99)</f>
         <v>17611673.0244117</v>
       </c>
@@ -3593,7 +3903,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="14"/>
+      <c r="G103" s="12"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -3612,7 +3922,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="14"/>
+      <c r="G104" s="12"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -3631,7 +3941,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="14"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -3650,7 +3960,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="14"/>
+      <c r="G106" s="12"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -3669,7 +3979,7 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="14"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -3683,28 +3993,28 @@
     </row>
     <row r="108" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
-      <c r="B108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="B108" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="C108" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="D108" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I108" s="3"/>
+      <c r="E108" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" s="19"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -3716,27 +4026,27 @@
     </row>
     <row r="109" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B109" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="B109" s="22" t="n">
         <v>3325</v>
       </c>
-      <c r="C109" s="15" t="n">
+      <c r="C109" s="23" t="n">
         <v>1521</v>
       </c>
-      <c r="D109" s="15" t="n">
+      <c r="D109" s="23" t="n">
         <v>5000</v>
       </c>
-      <c r="E109" s="13" t="n">
+      <c r="E109" s="22" t="n">
         <v>9310</v>
       </c>
-      <c r="F109" s="13" t="n">
+      <c r="F109" s="22" t="n">
         <v>6770</v>
       </c>
-      <c r="G109" s="13" t="n">
+      <c r="G109" s="22" t="n">
         <v>9310</v>
       </c>
-      <c r="H109" s="13" t="n">
+      <c r="H109" s="22" t="n">
         <v>6770</v>
       </c>
       <c r="I109" s="3"/>
@@ -3751,27 +4061,27 @@
     </row>
     <row r="110" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="13" t="n">
+        <v>47</v>
+      </c>
+      <c r="B110" s="22" t="n">
         <v>225</v>
       </c>
-      <c r="C110" s="15" t="n">
+      <c r="C110" s="23" t="n">
         <v>250</v>
       </c>
-      <c r="D110" s="15" t="n">
+      <c r="D110" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="E110" s="13" t="n">
+      <c r="E110" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="F110" s="13" t="n">
+      <c r="F110" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G110" s="13" t="n">
+      <c r="G110" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="H110" s="13" t="n">
+      <c r="H110" s="22" t="n">
         <v>210</v>
       </c>
       <c r="I110" s="3"/>
@@ -3786,33 +4096,33 @@
     </row>
     <row r="111" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="B111" s="22" t="n">
         <f aca="false">D$102/B109</f>
         <v>10987.4698938842</v>
       </c>
-      <c r="C111" s="13" t="n">
+      <c r="C111" s="22" t="n">
         <f aca="false">E$102/C109</f>
         <v>39654.0196672026</v>
       </c>
-      <c r="D111" s="13" t="n">
+      <c r="D111" s="22" t="n">
         <f aca="false">F$102/D109</f>
         <v>14879.7355113485</v>
       </c>
-      <c r="E111" s="13" t="n">
+      <c r="E111" s="22" t="n">
         <f aca="false">G$102/E109</f>
         <v>1416.40416418676</v>
       </c>
-      <c r="F111" s="13" t="n">
+      <c r="F111" s="22" t="n">
         <f aca="false">H$102/F109</f>
         <v>2601.42880715092</v>
       </c>
-      <c r="G111" s="13" t="n">
+      <c r="G111" s="22" t="n">
         <f aca="false">I$102/G109</f>
         <v>442.025527112608</v>
       </c>
-      <c r="H111" s="13" t="n">
+      <c r="H111" s="22" t="n">
         <f aca="false">J$102/H109</f>
         <v>2555.78664621291</v>
       </c>
@@ -3828,33 +4138,33 @@
     </row>
     <row r="112" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="B112" s="22" t="n">
         <f aca="false">D$102/B110</f>
         <v>162370.388431844</v>
       </c>
-      <c r="C112" s="13" t="n">
+      <c r="C112" s="22" t="n">
         <f aca="false">E$102/C110</f>
         <v>241255.055655261</v>
       </c>
-      <c r="D112" s="13" t="n">
+      <c r="D112" s="22" t="n">
         <f aca="false">F$102/D110</f>
         <v>247995.591855809</v>
       </c>
-      <c r="E112" s="13" t="n">
+      <c r="E112" s="22" t="n">
         <f aca="false">G$102/E110</f>
         <v>28666.7886273451</v>
       </c>
-      <c r="F112" s="13" t="n">
+      <c r="F112" s="22" t="n">
         <f aca="false">H$102/F110</f>
         <v>83865.1096400557</v>
       </c>
-      <c r="G112" s="13" t="n">
+      <c r="G112" s="22" t="n">
         <f aca="false">I$102/G110</f>
         <v>8946.21229873562</v>
       </c>
-      <c r="H112" s="13" t="n">
+      <c r="H112" s="22" t="n">
         <f aca="false">J$102/H110</f>
         <v>82393.6933088638</v>
       </c>
@@ -3875,7 +4185,7 @@
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="14"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -3894,7 +4204,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="14"/>
+      <c r="G114" s="12"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -4060,12 +4370,12 @@
     </row>
     <row r="123" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="14"/>
+      <c r="G123" s="12"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -182,8 +182,8 @@
     <numFmt numFmtId="171" formatCode="0.0E+00"/>
     <numFmt numFmtId="172" formatCode="H:MM:SS"/>
     <numFmt numFmtId="173" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="174" formatCode="[M]&quot;m &quot;S\s"/>
-    <numFmt numFmtId="175" formatCode="[H]&quot;h &quot;M&quot;m &quot;S\s"/>
+    <numFmt numFmtId="174" formatCode="[M]&quot;m &quot;SS"/>
+    <numFmt numFmtId="175" formatCode="[H]&quot;h &quot;M&quot;m &quot;SS"/>
     <numFmt numFmtId="176" formatCode="0"/>
   </numFmts>
   <fonts count="4">
@@ -264,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,10 +345,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,7 +377,7 @@
   <dimension ref="A1:S123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S42" activeCellId="0" sqref="S42"/>
+      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,6 +809,8 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -844,6 +842,8 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -879,6 +879,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -914,6 +916,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -949,6 +953,8 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -984,6 +990,8 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -1020,6 +1028,8 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -1055,6 +1065,8 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -1074,6 +1086,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -1093,6 +1107,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -1124,6 +1140,8 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -1497,6 +1515,8 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -1528,6 +1548,8 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
@@ -1563,6 +1585,8 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
@@ -1598,6 +1622,8 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
@@ -1633,6 +1659,8 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
@@ -1668,6 +1696,8 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -1703,6 +1733,8 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -1738,6 +1770,8 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
@@ -1757,6 +1791,8 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
@@ -1776,6 +1812,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -1807,6 +1845,8 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
@@ -1819,11 +1859,11 @@
         <v>9.57598313E-005</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="8" t="n">
+      <c r="E36" s="7" t="n">
         <f aca="false">(B36-$B$72)*100000</f>
         <v>17.6183999999968</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="7" t="n">
         <f aca="false">(B36-$B$56)*100000</f>
         <v>17.6183999999968</v>
       </c>
@@ -1831,7 +1871,7 @@
         <f aca="false">(B36-$D$72)*100000</f>
         <v>0.0184000000014173</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="7" t="n">
         <f aca="false">(B36-$D$56)*100000</f>
         <v>0.0184000000014173</v>
       </c>
@@ -1878,19 +1918,19 @@
         <v>0.000123625417</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="8" t="n">
+      <c r="E37" s="7" t="n">
         <f aca="false">(B37-$B$73)*100000</f>
         <v>-18.2448000000002</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="7" t="n">
         <f aca="false">(B37-$B$57)*100000</f>
         <v>-18.2448000000002</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="7" t="n">
         <f aca="false">(B37-$D$73)*100000</f>
         <v>-7.3447999999976</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="7" t="n">
         <f aca="false">(B37-$D$57)*100000</f>
         <v>-7.3447999999976</v>
       </c>
@@ -1937,19 +1977,19 @@
         <v>0.000156375158</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="8" t="n">
+      <c r="E38" s="7" t="n">
         <f aca="false">(B38-$B$74)*100000</f>
         <v>-6.26469999999713</v>
       </c>
-      <c r="F38" s="8" t="n">
+      <c r="F38" s="7" t="n">
         <f aca="false">(B38-$B$58)*100000</f>
         <v>-6.26469999999713</v>
       </c>
-      <c r="G38" s="8" t="n">
+      <c r="G38" s="7" t="n">
         <f aca="false">(B38-$D$74)*100000</f>
         <v>-22.1646999999991</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38" s="7" t="n">
         <f aca="false">(B38-$D$58)*100000</f>
         <v>-22.1646999999991</v>
       </c>
@@ -1996,19 +2036,19 @@
         <v>9.57598313E-005</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="8" t="n">
+      <c r="E39" s="7" t="n">
         <f aca="false">(B39-$B$75)*100000</f>
         <v>26.4590000000009</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39" s="7" t="n">
         <f aca="false">(B39-$B$59)*100000</f>
         <v>26.4590000000009</v>
       </c>
-      <c r="G39" s="8" t="n">
+      <c r="G39" s="7" t="n">
         <f aca="false">(B39-$D$75)*100000</f>
         <v>24.4589999999878</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39" s="7" t="n">
         <f aca="false">(B39-$D$59)*100000</f>
         <v>24.4589999999878</v>
       </c>
@@ -2055,19 +2095,19 @@
         <v>5.52869642E-005</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="7" t="n">
         <f aca="false">(B40-$B$76)*100000</f>
         <v>-12.0220000000115</v>
       </c>
-      <c r="F40" s="8" t="n">
+      <c r="F40" s="7" t="n">
         <f aca="false">(B40-$B$60)*100000</f>
         <v>-12.0220000000115</v>
       </c>
-      <c r="G40" s="8" t="n">
+      <c r="G40" s="7" t="n">
         <f aca="false">(B40-$D$76)*100000</f>
         <v>-18.0220000000064</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40" s="7" t="n">
         <f aca="false">(B40-$D$60)*100000</f>
         <v>-18.0220000000064</v>
       </c>
@@ -2114,19 +2154,19 @@
         <v>0.000123625417</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="8" t="n">
+      <c r="E41" s="7" t="n">
         <f aca="false">(B41-$B$77)*100000</f>
         <v>77.3469999999943</v>
       </c>
-      <c r="F41" s="8" t="n">
+      <c r="F41" s="7" t="n">
         <f aca="false">(B41-$B$61)*100000</f>
         <v>77.3469999999943</v>
       </c>
-      <c r="G41" s="8" t="n">
+      <c r="G41" s="7" t="n">
         <f aca="false">(B41-$D$77)*100000</f>
         <v>115.346999999999</v>
       </c>
-      <c r="H41" s="8" t="n">
+      <c r="H41" s="7" t="n">
         <f aca="false">(B41-$D$61)*100000</f>
         <v>115.346999999999</v>
       </c>
@@ -3544,7 +3584,7 @@
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="20" t="n">
+      <c r="B94" s="4" t="n">
         <v>60</v>
       </c>
       <c r="C94" s="6" t="n">
@@ -3558,7 +3598,7 @@
         <f aca="false">B94*C94/B10</f>
         <v>264616102.659269</v>
       </c>
-      <c r="F94" s="21" t="n">
+      <c r="F94" s="20" t="n">
         <f aca="false">B94*C94/B44</f>
         <v>329160237.03487</v>
       </c>
@@ -3570,11 +3610,11 @@
         <f aca="false">B94*C94/B64</f>
         <v>61679582.4766725</v>
       </c>
-      <c r="I94" s="21" t="n">
+      <c r="I94" s="20" t="n">
         <f aca="false">B94*C94/D80</f>
         <v>12758996.7284624</v>
       </c>
-      <c r="J94" s="21" t="n">
+      <c r="J94" s="20" t="n">
         <f aca="false">B94*C94/D64</f>
         <v>78787878.7878788</v>
       </c>
@@ -3590,7 +3630,7 @@
       <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="20" t="n">
+      <c r="B95" s="4" t="n">
         <v>60</v>
       </c>
       <c r="C95" s="6" t="n">
@@ -3604,7 +3644,7 @@
         <f aca="false">B95*C95/B11</f>
         <v>51799708.8973241</v>
       </c>
-      <c r="F95" s="21" t="n">
+      <c r="F95" s="20" t="n">
         <f aca="false">B95*C95/B45</f>
         <v>67407959.370409</v>
       </c>
@@ -3616,11 +3656,11 @@
         <f aca="false">B95*C95/B65</f>
         <v>16183982.8366787</v>
       </c>
-      <c r="I95" s="21" t="n">
+      <c r="I95" s="20" t="n">
         <f aca="false">B95*C95/D81</f>
         <v>3963414.63414634</v>
       </c>
-      <c r="J95" s="21" t="n">
+      <c r="J95" s="20" t="n">
         <f aca="false">B95*C95/D65</f>
         <v>8856926.57077971</v>
       </c>
@@ -3636,7 +3676,7 @@
       <c r="A96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="20" t="n">
+      <c r="B96" s="4" t="n">
         <v>60</v>
       </c>
       <c r="C96" s="6" t="n">
@@ -3650,7 +3690,7 @@
         <f aca="false">B96*C96/B12</f>
         <v>14731156.6739911</v>
       </c>
-      <c r="F96" s="21" t="n">
+      <c r="F96" s="20" t="n">
         <f aca="false">B96*C96/B46</f>
         <v>18654782.9385422</v>
       </c>
@@ -3662,11 +3702,11 @@
         <f aca="false">B96*C96/B66</f>
         <v>5097659.39008466</v>
       </c>
-      <c r="I96" s="21" t="n">
+      <c r="I96" s="20" t="n">
         <f aca="false">B96*C96/D82</f>
         <v>2971051.29507366</v>
       </c>
-      <c r="J96" s="21" t="n">
+      <c r="J96" s="20" t="n">
         <f aca="false">B96*C96/D66</f>
         <v>6076343.80680343</v>
       </c>
@@ -3682,7 +3722,7 @@
       <c r="A97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="20" t="n">
+      <c r="B97" s="4" t="n">
         <v>60</v>
       </c>
       <c r="C97" s="6" t="n">
@@ -3696,7 +3736,7 @@
         <f aca="false">B97*C97/B13</f>
         <v>15129669.0027613</v>
       </c>
-      <c r="F97" s="21" t="n">
+      <c r="F97" s="20" t="n">
         <f aca="false">B97*C97/B47</f>
         <v>15800028.2310043</v>
       </c>
@@ -3708,11 +3748,11 @@
         <f aca="false">B97*C97/B67</f>
         <v>8650787.66530768</v>
       </c>
-      <c r="I97" s="21" t="n">
+      <c r="I97" s="20" t="n">
         <f aca="false">B97*C97/D83</f>
         <v>1447303.3151905</v>
       </c>
-      <c r="J97" s="21" t="n">
+      <c r="J97" s="20" t="n">
         <f aca="false">B97*C97/D67</f>
         <v>4812834.22459893</v>
       </c>
@@ -3728,7 +3768,7 @@
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="20" t="n">
+      <c r="B98" s="4" t="n">
         <v>60</v>
       </c>
       <c r="C98" s="6" t="n">
@@ -3742,7 +3782,7 @@
         <f aca="false">B98*C98/B14</f>
         <v>4434522.85142717</v>
       </c>
-      <c r="F98" s="21" t="n">
+      <c r="F98" s="20" t="n">
         <f aca="false">B98*C98/B48</f>
         <v>4422867.07788028</v>
       </c>
@@ -3754,11 +3794,11 @@
         <f aca="false">B98*C98/B68</f>
         <v>5258883.13008724</v>
       </c>
-      <c r="I98" s="21" t="n">
+      <c r="I98" s="20" t="n">
         <f aca="false">B98*C98/D84</f>
         <v>1123595.50561798</v>
       </c>
-      <c r="J98" s="21" t="n">
+      <c r="J98" s="20" t="n">
         <f aca="false">B98*C98/D68</f>
         <v>1807682.65126789</v>
       </c>
@@ -3774,7 +3814,7 @@
       <c r="A99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="20" t="n">
+      <c r="B99" s="4" t="n">
         <v>60</v>
       </c>
       <c r="C99" s="6" t="n">
@@ -3788,7 +3828,7 @@
         <f aca="false">B99*C99/B15</f>
         <v>11171423.3981184</v>
       </c>
-      <c r="F99" s="21" t="n">
+      <c r="F99" s="20" t="n">
         <f aca="false">B99*C99/B49</f>
         <v>10946190.68775</v>
       </c>
@@ -3800,11 +3840,11 @@
         <f aca="false">B99*C99/B69</f>
         <v>8799142.64763946</v>
       </c>
-      <c r="I99" s="21" t="n">
+      <c r="I99" s="20" t="n">
         <f aca="false">B99*C99/D85</f>
         <v>2427184.46601942</v>
       </c>
-      <c r="J99" s="21" t="n">
+      <c r="J99" s="20" t="n">
         <f aca="false">B99*C99/D69</f>
         <v>3474387.52783964</v>
       </c>
@@ -3860,31 +3900,31 @@
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="21" t="n">
+      <c r="D102" s="20" t="n">
         <f aca="false">AVERAGE(D94:D99)</f>
         <v>36533337.3971648</v>
       </c>
-      <c r="E102" s="21" t="n">
+      <c r="E102" s="20" t="n">
         <f aca="false">AVERAGE(E94:E99)</f>
         <v>60313763.9138152</v>
       </c>
-      <c r="F102" s="21" t="n">
+      <c r="F102" s="20" t="n">
         <f aca="false">AVERAGE(F94:F99)</f>
         <v>74398677.5567426</v>
       </c>
-      <c r="G102" s="21" t="n">
+      <c r="G102" s="20" t="n">
         <f aca="false">AVERAGE(G94:G99)</f>
         <v>13186722.7685788</v>
       </c>
-      <c r="H102" s="21" t="n">
+      <c r="H102" s="20" t="n">
         <f aca="false">AVERAGE(H94:H99)</f>
         <v>17611673.0244117</v>
       </c>
-      <c r="I102" s="21" t="n">
+      <c r="I102" s="20" t="n">
         <f aca="false">AVERAGE(I94:I99)</f>
         <v>4115257.65741838</v>
       </c>
-      <c r="J102" s="21" t="n">
+      <c r="J102" s="20" t="n">
         <f aca="false">AVERAGE(J94:J99)</f>
         <v>17302675.5948614</v>
       </c>
@@ -4028,25 +4068,25 @@
       <c r="A109" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="22" t="n">
+      <c r="B109" s="21" t="n">
         <v>3325</v>
       </c>
-      <c r="C109" s="23" t="n">
+      <c r="C109" s="22" t="n">
         <v>1521</v>
       </c>
-      <c r="D109" s="23" t="n">
+      <c r="D109" s="22" t="n">
         <v>5000</v>
       </c>
-      <c r="E109" s="22" t="n">
+      <c r="E109" s="21" t="n">
         <v>9310</v>
       </c>
-      <c r="F109" s="22" t="n">
+      <c r="F109" s="21" t="n">
         <v>6770</v>
       </c>
-      <c r="G109" s="22" t="n">
+      <c r="G109" s="21" t="n">
         <v>9310</v>
       </c>
-      <c r="H109" s="22" t="n">
+      <c r="H109" s="21" t="n">
         <v>6770</v>
       </c>
       <c r="I109" s="3"/>
@@ -4063,25 +4103,25 @@
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="22" t="n">
+      <c r="B110" s="21" t="n">
         <v>225</v>
       </c>
-      <c r="C110" s="23" t="n">
+      <c r="C110" s="22" t="n">
         <v>250</v>
       </c>
-      <c r="D110" s="23" t="n">
+      <c r="D110" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="E110" s="22" t="n">
+      <c r="E110" s="21" t="n">
         <v>460</v>
       </c>
-      <c r="F110" s="22" t="n">
+      <c r="F110" s="21" t="n">
         <v>210</v>
       </c>
-      <c r="G110" s="22" t="n">
+      <c r="G110" s="21" t="n">
         <v>460</v>
       </c>
-      <c r="H110" s="22" t="n">
+      <c r="H110" s="21" t="n">
         <v>210</v>
       </c>
       <c r="I110" s="3"/>
@@ -4098,31 +4138,31 @@
       <c r="A111" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="22" t="n">
+      <c r="B111" s="21" t="n">
         <f aca="false">D$102/B109</f>
         <v>10987.4698938842</v>
       </c>
-      <c r="C111" s="22" t="n">
+      <c r="C111" s="21" t="n">
         <f aca="false">E$102/C109</f>
         <v>39654.0196672026</v>
       </c>
-      <c r="D111" s="22" t="n">
+      <c r="D111" s="21" t="n">
         <f aca="false">F$102/D109</f>
         <v>14879.7355113485</v>
       </c>
-      <c r="E111" s="22" t="n">
+      <c r="E111" s="21" t="n">
         <f aca="false">G$102/E109</f>
         <v>1416.40416418676</v>
       </c>
-      <c r="F111" s="22" t="n">
+      <c r="F111" s="21" t="n">
         <f aca="false">H$102/F109</f>
         <v>2601.42880715092</v>
       </c>
-      <c r="G111" s="22" t="n">
+      <c r="G111" s="21" t="n">
         <f aca="false">I$102/G109</f>
         <v>442.025527112608</v>
       </c>
-      <c r="H111" s="22" t="n">
+      <c r="H111" s="21" t="n">
         <f aca="false">J$102/H109</f>
         <v>2555.78664621291</v>
       </c>
@@ -4140,31 +4180,31 @@
       <c r="A112" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="22" t="n">
+      <c r="B112" s="21" t="n">
         <f aca="false">D$102/B110</f>
         <v>162370.388431844</v>
       </c>
-      <c r="C112" s="22" t="n">
+      <c r="C112" s="21" t="n">
         <f aca="false">E$102/C110</f>
         <v>241255.055655261</v>
       </c>
-      <c r="D112" s="22" t="n">
+      <c r="D112" s="21" t="n">
         <f aca="false">F$102/D110</f>
         <v>247995.591855809</v>
       </c>
-      <c r="E112" s="22" t="n">
+      <c r="E112" s="21" t="n">
         <f aca="false">G$102/E110</f>
         <v>28666.7886273451</v>
       </c>
-      <c r="F112" s="22" t="n">
+      <c r="F112" s="21" t="n">
         <f aca="false">H$102/F110</f>
         <v>83865.1096400557</v>
       </c>
-      <c r="G112" s="22" t="n">
+      <c r="G112" s="21" t="n">
         <f aca="false">I$102/G110</f>
         <v>8946.21229873562</v>
       </c>
-      <c r="H112" s="22" t="n">
+      <c r="H112" s="21" t="n">
         <f aca="false">J$102/H110</f>
         <v>82393.6933088638</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -376,8 +376,8 @@
   </sheetPr>
   <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D112" activeCellId="0" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3901,32 +3901,32 @@
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="20" t="n">
-        <f aca="false">AVERAGE(D94:D99)</f>
-        <v>36533337.3971648</v>
+        <f aca="false">B94*C94*6/SUM(B27:B32)</f>
+        <v>8515552.56704591</v>
       </c>
       <c r="E102" s="20" t="n">
-        <f aca="false">AVERAGE(E94:E99)</f>
-        <v>60313763.9138152</v>
+        <f aca="false">B94*C94*6/SUM(B10:B15)</f>
+        <v>13194529.369656</v>
       </c>
       <c r="F102" s="20" t="n">
-        <f aca="false">AVERAGE(F94:F99)</f>
-        <v>74398677.5567426</v>
+        <f aca="false">B94*C94*6/SUM(B44:B49)</f>
+        <v>13798458.048707</v>
       </c>
       <c r="G102" s="20" t="n">
-        <f aca="false">AVERAGE(G94:G99)</f>
-        <v>13186722.7685788</v>
+        <f aca="false">SUM(B94*C94*6)/SUM(D80:D85)</f>
+        <v>2315043.82753913</v>
       </c>
       <c r="H102" s="20" t="n">
-        <f aca="false">AVERAGE(H94:H99)</f>
-        <v>17611673.0244117</v>
+        <f aca="false">SUM(B94*C94*6)/SUM(B64:B69)</f>
+        <v>8837281.84848745</v>
       </c>
       <c r="I102" s="20" t="n">
-        <f aca="false">AVERAGE(I94:I99)</f>
-        <v>4115257.65741838</v>
+        <f aca="false">SUM(B94*C94*6)/SUM(D80:D85)</f>
+        <v>2315043.82753913</v>
       </c>
       <c r="J102" s="20" t="n">
-        <f aca="false">AVERAGE(J94:J99)</f>
-        <v>17302675.5948614</v>
+        <f aca="false">SUM(B94*C94*6)/SUM(D64:D69)</f>
+        <v>4628164.55696203</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -4140,31 +4140,31 @@
       </c>
       <c r="B111" s="21" t="n">
         <f aca="false">D$102/B109</f>
-        <v>10987.4698938842</v>
+        <v>2561.06844121682</v>
       </c>
       <c r="C111" s="21" t="n">
         <f aca="false">E$102/C109</f>
-        <v>39654.0196672026</v>
+        <v>8674.90425355424</v>
       </c>
       <c r="D111" s="21" t="n">
         <f aca="false">F$102/D109</f>
-        <v>14879.7355113485</v>
+        <v>2759.69160974141</v>
       </c>
       <c r="E111" s="21" t="n">
         <f aca="false">G$102/E109</f>
-        <v>1416.40416418676</v>
+        <v>248.66206525662</v>
       </c>
       <c r="F111" s="21" t="n">
         <f aca="false">H$102/F109</f>
-        <v>2601.42880715092</v>
+        <v>1305.35920952547</v>
       </c>
       <c r="G111" s="21" t="n">
         <f aca="false">I$102/G109</f>
-        <v>442.025527112608</v>
+        <v>248.66206525662</v>
       </c>
       <c r="H111" s="21" t="n">
         <f aca="false">J$102/H109</f>
-        <v>2555.78664621291</v>
+        <v>683.628442682722</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -4182,31 +4182,31 @@
       </c>
       <c r="B112" s="21" t="n">
         <f aca="false">D$102/B110</f>
-        <v>162370.388431844</v>
+        <v>37846.9002979818</v>
       </c>
       <c r="C112" s="21" t="n">
         <f aca="false">E$102/C110</f>
-        <v>241255.055655261</v>
+        <v>52778.117478624</v>
       </c>
       <c r="D112" s="21" t="n">
         <f aca="false">F$102/D110</f>
-        <v>247995.591855809</v>
+        <v>45994.8601623568</v>
       </c>
       <c r="E112" s="21" t="n">
         <f aca="false">G$102/E110</f>
-        <v>28666.7886273451</v>
+        <v>5032.70397291116</v>
       </c>
       <c r="F112" s="21" t="n">
         <f aca="false">H$102/F110</f>
-        <v>83865.1096400557</v>
+        <v>42082.2945166069</v>
       </c>
       <c r="G112" s="21" t="n">
         <f aca="false">I$102/G110</f>
-        <v>8946.21229873562</v>
+        <v>5032.70397291116</v>
       </c>
       <c r="H112" s="21" t="n">
         <f aca="false">J$102/H110</f>
-        <v>82393.6933088638</v>
+        <v>22038.8788426763</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -376,8 +376,8 @@
   </sheetPr>
   <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D112" activeCellId="0" sqref="D112"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="H3" s="7" t="n">
         <f aca="false">(B3-$D$57)*100000</f>
-        <v>7.24049999999421</v>
+        <v>8.24049999998966</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="8" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">($D57*$E57+$B3*$C3)*100000</f>
-        <v>9.70879110044179</v>
+        <v>9.70875110044179</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
@@ -545,7 +545,7 @@
       </c>
       <c r="P3" s="8" t="n">
         <f aca="false">($D57*$E57+$B3*$C3)*2*100000</f>
-        <v>19.4175822008836</v>
+        <v>19.4175022008836</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H20" s="7" t="n">
         <f aca="false">(B20-$D$57)*100000</f>
-        <v>15.387999999994</v>
+        <v>16.3879999999894</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="8" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="K20" s="8" t="n">
         <f aca="false">($B20*$C20+$D57*$E57)*100000</f>
-        <v>12.2162792271476</v>
+        <v>12.2162392271476</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="P20" s="8" t="n">
         <f aca="false">($B20*$C20+$D57*$E57)*2*100000</f>
-        <v>24.4325584542953</v>
+        <v>24.4324784542953</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="1" t="s">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H37" s="7" t="n">
         <f aca="false">(B37-$D$57)*100000</f>
-        <v>-7.3447999999976</v>
+        <v>-6.34480000000215</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="8" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="K37" s="8" t="n">
         <f aca="false">($B37*$C37+$D57*$E57)*100000</f>
-        <v>9.70698798664722</v>
+        <v>9.70694798664722</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="P37" s="8" t="n">
         <f aca="false">($B37*$C37+$D57*$E57)*2*100000</f>
-        <v>19.4139759732944</v>
+        <v>19.4138959732944</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="1" t="s">
@@ -2622,7 +2622,7 @@
         <v>0.00012</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.5933</v>
+        <v>0.59329</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>4E-005</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>TITAN, keff</t>
   </si>
@@ -171,42 +167,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.00E+0"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00E+00"/>
-    <numFmt numFmtId="171" formatCode="0.0E+00"/>
-    <numFmt numFmtId="172" formatCode="H:MM:SS"/>
-    <numFmt numFmtId="173" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="174" formatCode="[M]&quot;m &quot;SS"/>
-    <numFmt numFmtId="175" formatCode="[H]&quot;h &quot;M&quot;m &quot;SS"/>
-    <numFmt numFmtId="176" formatCode="0"/>
+  <numFmts count="8">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0000000"/>
+    <numFmt numFmtId="60" formatCode="0.0"/>
+    <numFmt numFmtId="61" formatCode="0.0E+00"/>
+    <numFmt numFmtId="62" formatCode="h:mm:&quot;SS&quot;"/>
+    <numFmt numFmtId="63" formatCode="hh:mm:&quot;SS&quot;"/>
+    <numFmt numFmtId="64" formatCode="[m]&quot;m&quot; s&quot;s&quot;"/>
+    <numFmt numFmtId="65" formatCode="[h]&quot;h&quot; m&quot;m&quot; s&quot;s&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,580 +203,1682 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="8">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="62" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="63" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="64" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="65" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.9767441860465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.7302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.7302325581395"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2511627906977"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.3348837209302"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="1" width="10.7302325581395"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="256" min="18" style="1" width="10.7302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.7162790697674"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4453" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7344" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7344" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.2891" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7344" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.2891" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.2891" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7344" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7344" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7344" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7344" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7344" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7344" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7344" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7344" style="1" customWidth="1"/>
+    <col min="20" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>5</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>7</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s" s="2">
         <v>9</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4">
         <v>1.00006199</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>9.57598313E-005</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7" t="n">
-        <f aca="false">(B2-$B$72)*100000</f>
-        <v>27.7990000000061</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <f aca="false">(B2-$B$56)*100000</f>
-        <v>27.7990000000061</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <f aca="false">(B2-$D$72)*100000</f>
-        <v>10.1989999999996</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">(B2-$D$56)*100000</f>
-        <v>10.1989999999996</v>
+      <c r="C2" s="5">
+        <v>9.57598313e-05</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
+        <f>(B2-$B$72)*100000</f>
+        <v>27.79900000000612</v>
+      </c>
+      <c r="F2" s="6">
+        <f>(B2-$B$56)*100000</f>
+        <v>27.79900000000612</v>
+      </c>
+      <c r="G2" s="6">
+        <f>(B2-$D$72)*100000</f>
+        <v>10.19900000001073</v>
+      </c>
+      <c r="H2" s="6">
+        <f>(B2-$D$56)*100000</f>
+        <v>10.19900000001073</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="8" t="n">
-        <f aca="false">($B56*$C56+$B2*$C2)*100000</f>
-        <v>19.0745247451942</v>
-      </c>
-      <c r="K2" s="8" t="n">
-        <f aca="false">($D56*$E56+$B2*$C2)*100000</f>
-        <v>16.5762967451942</v>
+      <c r="J2" s="7">
+        <f>($B56*$C56+$B2*$C2)*100000</f>
+        <v>19.07452474519423</v>
+      </c>
+      <c r="K2" s="7">
+        <f>($D56*$E56+$B2*$C2)*100000</f>
+        <v>16.57629674519423</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="8" t="n">
-        <f aca="false">($B56*$C56+$B2*$C2)*2*100000</f>
-        <v>38.1490494903885</v>
-      </c>
-      <c r="P2" s="8" t="n">
-        <f aca="false">($D56*$E56+$B2*$C2)*2*100000</f>
-        <v>33.1525934903885</v>
+      <c r="O2" s="7">
+        <f>($B56*$C56+$B2*$C2)*2*100000</f>
+        <v>38.14904949038846</v>
+      </c>
+      <c r="P2" s="7">
+        <f>($D56*$E56+$B2*$C2)*2*100000</f>
+        <v>33.15259349038846</v>
       </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="R2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4">
         <v>0.593372405</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>0.000123625417</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7" t="n">
-        <f aca="false">(B3-$B$73)*100000</f>
-        <v>-3.65949999999726</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <f aca="false">(B3-$B$57)*100000</f>
-        <v>-3.65949999999726</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <f aca="false">(B3-$D$73)*100000</f>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
+        <f>(B3-$B$73)*100000</f>
+        <v>-3.659499999997262</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(B3-$B$57)*100000</f>
+        <v>-3.659499999997262</v>
+      </c>
+      <c r="G3" s="6">
+        <f>(B3-$D$73)*100000</f>
         <v>7.24049999999421</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">(B3-$D$57)*100000</f>
-        <v>8.24049999998966</v>
+      <c r="H3" s="6">
+        <f>(B3-$D$57)*100000</f>
+        <v>8.240500000000761</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="8" t="n">
-        <f aca="false">($B57*$C57+$B3*$C3)*100000</f>
-        <v>14.4564991004418</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <f aca="false">($D57*$E57+$B3*$C3)*100000</f>
-        <v>9.70875110044179</v>
+      <c r="J3" s="7">
+        <f>($B57*$C57+$B3*$C3)*100000</f>
+        <v>14.45649910044179</v>
+      </c>
+      <c r="K3" s="7">
+        <f>($D57*$E57+$B3*$C3)*100000</f>
+        <v>9.708751100441788</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O3" s="8" t="n">
-        <f aca="false">($B57*$C57+$B3*$C3)*2*100000</f>
-        <v>28.9129982008836</v>
-      </c>
-      <c r="P3" s="8" t="n">
-        <f aca="false">($D57*$E57+$B3*$C3)*2*100000</f>
-        <v>19.4175022008836</v>
+      <c r="O3" s="7">
+        <f>($B57*$C57+$B3*$C3)*2*100000</f>
+        <v>28.91299820088357</v>
+      </c>
+      <c r="P3" s="7">
+        <f>($D57*$E57+$B3*$C3)*2*100000</f>
+        <v>19.41750220088358</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="R3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4">
         <v>0.275029391</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5">
         <v>0.000146275561</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7" t="n">
-        <f aca="false">(B4-$B$74)*100000</f>
-        <v>-2.1608999999978</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <f aca="false">(B4-$B$58)*100000</f>
-        <v>-2.1608999999978</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <f aca="false">(B4-$D$74)*100000</f>
-        <v>-18.0608999999998</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">(B4-$D$58)*100000</f>
-        <v>-18.0608999999998</v>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
+        <f>(B4-$B$74)*100000</f>
+        <v>-2.160899999997801</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(B4-$B$58)*100000</f>
+        <v>-2.160899999997801</v>
+      </c>
+      <c r="G4" s="6">
+        <f>(B4-$D$74)*100000</f>
+        <v>-14.06090000000138</v>
+      </c>
+      <c r="H4" s="6">
+        <f>(B4-$D$58)*100000</f>
+        <v>-14.06090000000138</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="8" t="n">
-        <f aca="false">($B58*$C58+$B4*$C4)*100000</f>
-        <v>8.97392584600133</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <f aca="false">($D58*$E58+$B4*$C4)*100000</f>
-        <v>5.12384784600134</v>
+      <c r="J4" s="7">
+        <f>($B58*$C58+$B4*$C4)*100000</f>
+        <v>8.973925846001334</v>
+      </c>
+      <c r="K4" s="7">
+        <f>($D58*$E58+$B4*$C4)*100000</f>
+        <v>5.949197846001335</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O4" s="8" t="n">
-        <f aca="false">($B58*$C58+$B4*$C4)*2*100000</f>
-        <v>17.9478516920027</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <f aca="false">($D58*$E58+$B4*$C4)*2*100000</f>
-        <v>10.2476956920027</v>
+      <c r="O4" s="7">
+        <f>($B58*$C58+$B4*$C4)*2*100000</f>
+        <v>17.94785169200267</v>
+      </c>
+      <c r="P4" s="7">
+        <f>($D58*$E58+$B4*$C4)*2*100000</f>
+        <v>11.89839569200267</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4">
         <v>0.880700469</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>9.57598313E-005</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7" t="n">
-        <f aca="false">(B5-$B$75)*100000</f>
-        <v>21.0468999999991</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <f aca="false">(B5-$B$59)*100000</f>
-        <v>21.0468999999991</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <f aca="false">(B5-$D$75)*100000</f>
-        <v>19.0468999999971</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">(B5-$D$59)*100000</f>
-        <v>19.0468999999971</v>
+      <c r="C5" s="5">
+        <v>9.57598313e-05</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6">
+        <f>(B5-$B$75)*100000</f>
+        <v>21.04689999999909</v>
+      </c>
+      <c r="F5" s="6">
+        <f>(B5-$B$59)*100000</f>
+        <v>21.04689999999909</v>
+      </c>
+      <c r="G5" s="6">
+        <f>(B5-$D$75)*100000</f>
+        <v>19.04689999999709</v>
+      </c>
+      <c r="H5" s="6">
+        <f>(B5-$D$59)*100000</f>
+        <v>19.04689999999709</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="8" t="n">
-        <f aca="false">($B59*$C59+$B5*$C5)*100000</f>
-        <v>16.0938358337271</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <f aca="false">($D59*$E59+$B5*$C5)*100000</f>
-        <v>13.7166328337271</v>
+      <c r="J5" s="7">
+        <f>($B59*$C59+$B5*$C5)*100000</f>
+        <v>16.09383583372709</v>
+      </c>
+      <c r="K5" s="7">
+        <f>($D59*$E59+$B5*$C5)*100000</f>
+        <v>13.71663283372709</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O5" s="8" t="n">
-        <f aca="false">($B59*$C59+$B5*$C5)*2*100000</f>
-        <v>32.1876716674542</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <f aca="false">($D59*$E59+$B5*$C5)*2*100000</f>
-        <v>27.4332656674542</v>
+      <c r="O5" s="7">
+        <f>($B59*$C59+$B5*$C5)*2*100000</f>
+        <v>32.18767166745418</v>
+      </c>
+      <c r="P5" s="7">
+        <f>($D59*$E59+$B5*$C5)*2*100000</f>
+        <v>27.43326566745418</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="R5" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4">
         <v>1.09868598</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>7.81875788E-005</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7" t="n">
-        <f aca="false">(B6-$B$76)*100000</f>
+      <c r="C6" s="5">
+        <v>7.81875788e-05</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
+        <f>(B6-$B$76)*100000</f>
         <v>-2.40200000001245</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <f aca="false">(B6-$B$60)*100000</f>
+      <c r="F6" s="6">
+        <f>(B6-$B$60)*100000</f>
         <v>-2.40200000001245</v>
       </c>
-      <c r="G6" s="7" t="n">
-        <f aca="false">(B6-$D$76)*100000</f>
-        <v>-8.40200000000735</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">(B6-$D$60)*100000</f>
-        <v>-8.40200000000735</v>
+      <c r="G6" s="6">
+        <f>(B6-$D$76)*100000</f>
+        <v>-8.402000000007348</v>
+      </c>
+      <c r="H6" s="6">
+        <f>(B6-$D$60)*100000</f>
+        <v>-8.402000000007348</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="8" t="n">
-        <f aca="false">($B60*$C60+$B6*$C6)*100000</f>
-        <v>32.7619796637705</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <f aca="false">($D60*$E60+$B6*$C6)*100000</f>
-        <v>15.1829796637705</v>
+      <c r="J6" s="7">
+        <f>($B60*$C60+$B6*$C6)*100000</f>
+        <v>32.76197966377052</v>
+      </c>
+      <c r="K6" s="7">
+        <f>($D60*$E60+$B6*$C6)*100000</f>
+        <v>15.18297966377052</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O6" s="8" t="n">
-        <f aca="false">($B60*$C60+$B6*$C6)*2*100000</f>
-        <v>65.5239593275411</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <f aca="false">($D60*$E60+$B6*$C6)*2*100000</f>
-        <v>30.365959327541</v>
+      <c r="O6" s="7">
+        <f>($B60*$C60+$B6*$C6)*2*100000</f>
+        <v>65.52395932754105</v>
+      </c>
+      <c r="P6" s="7">
+        <f>($D60*$E60+$B6*$C6)*2*100000</f>
+        <v>30.36595932754104</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="R6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4">
         <v>1.05107951</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>9.57598313E-005</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7" t="n">
-        <f aca="false">(B7-$B$77)*100000</f>
-        <v>74.951000000012</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <f aca="false">(B7-$B$61)*100000</f>
-        <v>74.951000000012</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <f aca="false">(B7-$D$77)*100000</f>
-        <v>112.951000000017</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">(B7-$D$61)*100000</f>
-        <v>112.951000000017</v>
+      <c r="C7" s="5">
+        <v>9.57598313e-05</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
+        <f>(B7-$B$77)*100000</f>
+        <v>74.95100000001199</v>
+      </c>
+      <c r="F7" s="6">
+        <f>(B7-$B$61)*100000</f>
+        <v>74.95100000001199</v>
+      </c>
+      <c r="G7" s="6">
+        <f>(B7-$D$77)*100000</f>
+        <v>42.95100000000218</v>
+      </c>
+      <c r="H7" s="6">
+        <f>(B7-$D$61)*100000</f>
+        <v>42.95100000000218</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="8" t="n">
-        <f aca="false">($B61*$C61+$B7*$C7)*100000</f>
-        <v>17.6274956560487</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <f aca="false">($D61*$E61+$B7*$C7)*100000</f>
-        <v>17.4147696560487</v>
+      <c r="J7" s="7">
+        <f>($B61*$C61+$B7*$C7)*100000</f>
+        <v>17.62749565604867</v>
+      </c>
+      <c r="K7" s="7">
+        <f>($D61*$E61+$B7*$C7)*100000</f>
+        <v>19.52096965604867</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="M7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O7" s="8" t="n">
-        <f aca="false">($B61*$C61+$B7*$C7)*2*100000</f>
-        <v>35.2549913120973</v>
-      </c>
-      <c r="P7" s="8" t="n">
-        <f aca="false">($D61*$E61+$B7*$C7)*2*100000</f>
-        <v>34.8295393120973</v>
+      <c r="O7" s="7">
+        <f>($B61*$C61+$B7*$C7)*2*100000</f>
+        <v>35.25499131209733</v>
+      </c>
+      <c r="P7" s="7">
+        <f>($D61*$E61+$B7*$C7)*2*100000</f>
+        <v>39.04193931209734</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="R7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="17" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -801,274 +1888,274 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s" s="2">
         <v>5</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="6">
         <v>1.47383321</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7" t="n">
-        <f aca="false">$B$80/B10</f>
-        <v>4.91236046987976</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <f aca="false">$B$64/B10</f>
-        <v>4.29017337721682</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">$D$80/B10</f>
-        <v>20.7395697554315</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <f aca="false">$D$64/B10</f>
-        <v>3.35858899529072</v>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <f>$B$80/B10</f>
+        <v>4.912360469879763</v>
+      </c>
+      <c r="F10" s="6">
+        <f>$B$64/B10</f>
+        <v>4.290173377216815</v>
+      </c>
+      <c r="G10" s="6">
+        <f>$D$80/B10</f>
+        <v>20.73956975543155</v>
+      </c>
+      <c r="H10" s="6">
+        <f>$D$64/B10</f>
+        <v>3.358588995290722</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="6">
         <v>7.52899984</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="n">
-        <f aca="false">$B$81/B11</f>
-        <v>5.23442699395781</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <f aca="false">$B$65/B11</f>
-        <v>3.20067744881238</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">$D$81/B11</f>
-        <v>13.0694650140941</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <f aca="false">$D$65/B11</f>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6">
+        <f>$B$81/B11</f>
+        <v>5.234426993957805</v>
+      </c>
+      <c r="F11" s="6">
+        <f>$B$65/B11</f>
+        <v>3.200677448812378</v>
+      </c>
+      <c r="G11" s="6">
+        <f>$D$81/B11</f>
+        <v>13.06946501409409</v>
+      </c>
+      <c r="H11" s="6">
+        <f>$D$65/B11</f>
         <v>5.84849704729617</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="6">
         <v>26.4744995</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7" t="n">
-        <f aca="false">$B$82/B12</f>
-        <v>5.52040653308668</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <f aca="false">$B$66/B12</f>
-        <v>2.88978834141888</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <f aca="false">$D$82/B12</f>
-        <v>4.95823034035699</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <f aca="false">$D$66/B12</f>
-        <v>2.42434548510854</v>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6">
+        <f>$B$82/B12</f>
+        <v>5.520406533086678</v>
+      </c>
+      <c r="F12" s="6">
+        <f>$B$66/B12</f>
+        <v>2.889788341418881</v>
+      </c>
+      <c r="G12" s="6">
+        <f>$D$82/B12</f>
+        <v>4.958230340356991</v>
+      </c>
+      <c r="H12" s="6">
+        <f>$D$66/B12</f>
+        <v>2.424345485108542</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="6">
         <v>25.7771667</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7" t="n">
-        <f aca="false">$B$83/B13</f>
-        <v>3.0709348673297</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <f aca="false">$B$67/B13</f>
-        <v>1.74893542508689</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <f aca="false">$D$83/B13</f>
-        <v>10.4536960870361</v>
-      </c>
-      <c r="H13" s="9" t="n">
-        <f aca="false">$D$67/B13</f>
-        <v>3.14360900390706</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6">
+        <f>$B$83/B13</f>
+        <v>3.070934867329698</v>
+      </c>
+      <c r="F13" s="6">
+        <f>$B$67/B13</f>
+        <v>1.748935425086885</v>
+      </c>
+      <c r="G13" s="6">
+        <f>$D$83/B13</f>
+        <v>10.45369608703605</v>
+      </c>
+      <c r="H13" s="6">
+        <f>$D$67/B13</f>
+        <v>3.143609003907064</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <f aca="false">81.0563314*650000/649000</f>
-        <v>81.1812255932204</v>
+      <c r="B14" s="6">
+        <f>81.0563314*650000/649000</f>
+        <v>81.18122559322035</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7" t="n">
-        <f aca="false">$B$84/B14</f>
-        <v>1.48876786617636</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <f aca="false">$B$68/B14</f>
-        <v>0.843244229189328</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <f aca="false">$D$84/B14</f>
-        <v>3.94672533777018</v>
-      </c>
-      <c r="H14" s="9" t="n">
-        <f aca="false">$D$68/B14</f>
-        <v>2.45315340517145</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6">
+        <f>$B$84/B14</f>
+        <v>1.488767866176355</v>
+      </c>
+      <c r="F14" s="6">
+        <f>$B$68/B14</f>
+        <v>0.8432442291893276</v>
+      </c>
+      <c r="G14" s="6">
+        <f>$D$84/B14</f>
+        <v>3.946725337770183</v>
+      </c>
+      <c r="H14" s="6">
+        <f>$D$68/B14</f>
+        <v>2.453153405171448</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="6">
         <v>34.9105021</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7" t="n">
-        <f aca="false">$B$85/B15</f>
-        <v>2.33560662537707</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <f aca="false">$B$69/B15</f>
-        <v>1.26960362452077</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <f aca="false">$D$85/B15</f>
-        <v>4.60262644002476</v>
-      </c>
-      <c r="H15" s="9" t="n">
-        <f aca="false">$D$69/B15</f>
-        <v>3.2153648113815</v>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6">
+        <f>$B$85/B15</f>
+        <v>2.335606625377066</v>
+      </c>
+      <c r="F15" s="6">
+        <f>$B$69/B15</f>
+        <v>1.269603624520771</v>
+      </c>
+      <c r="G15" s="6">
+        <f>$D$85/B15</f>
+        <v>4.602626440024762</v>
+      </c>
+      <c r="H15" s="6">
+        <f>$D$69/B15</f>
+        <v>3.215364811381501</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" ht="17" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1078,18 +2165,18 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" ht="17" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1099,405 +2186,405 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s" s="2">
         <v>5</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="4">
         <v>1.00002122</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>7.81875788E-005</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7" t="n">
-        <f aca="false">(B19-$B$72)*100000</f>
+      <c r="C19" s="5">
+        <v>7.81875788e-05</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6">
+        <f>(B19-$B$72)*100000</f>
         <v>23.7220000000038</v>
       </c>
-      <c r="F19" s="7" t="n">
-        <f aca="false">(B19-$B$56)*100000</f>
+      <c r="F19" s="6">
+        <f>(B19-$B$56)*100000</f>
         <v>23.7220000000038</v>
       </c>
-      <c r="G19" s="7" t="n">
-        <f aca="false">(B19-$D$72)*100000</f>
-        <v>6.1219999999973</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <f aca="false">(B19-$D$56)*100000</f>
-        <v>6.1219999999973</v>
+      <c r="G19" s="6">
+        <f>(B19-$D$72)*100000</f>
+        <v>6.122000000008399</v>
+      </c>
+      <c r="H19" s="6">
+        <f>(B19-$D$56)*100000</f>
+        <v>6.122000000008399</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="8" t="n">
-        <f aca="false">($B19*$C19+$B56*$C56)*100000</f>
-        <v>17.3168717940422</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <f aca="false">($B19*$C19+$D56*$E56)*100000</f>
-        <v>14.8186437940422</v>
+      <c r="J19" s="7">
+        <f>($B19*$C19+$B56*$C56)*100000</f>
+        <v>17.31687179404221</v>
+      </c>
+      <c r="K19" s="7">
+        <f>($B19*$C19+$D56*$E56)*100000</f>
+        <v>14.81864379404221</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="M19" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O19" s="8" t="n">
-        <f aca="false">($B19*$C19+$B56*$C56)*2*100000</f>
-        <v>34.6337435880844</v>
-      </c>
-      <c r="P19" s="8" t="n">
-        <f aca="false">($B19*$C19+$D56*$E56)*2*100000</f>
-        <v>29.6372875880844</v>
+      <c r="O19" s="7">
+        <f>($B19*$C19+$B56*$C56)*2*100000</f>
+        <v>34.63374358808443</v>
+      </c>
+      <c r="P19" s="7">
+        <f>($B19*$C19+$D56*$E56)*2*100000</f>
+        <v>29.63728758808442</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="4">
         <v>0.59345388</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="5">
         <v>0.000165860896</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7" t="n">
-        <f aca="false">(B20-$B$73)*100000</f>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6">
+        <f>(B20-$B$73)*100000</f>
         <v>4.48800000000249</v>
       </c>
-      <c r="F20" s="7" t="n">
-        <f aca="false">(B20-$B$57)*100000</f>
+      <c r="F20" s="6">
+        <f>(B20-$B$57)*100000</f>
         <v>4.48800000000249</v>
       </c>
-      <c r="G20" s="7" t="n">
-        <f aca="false">(B20-$D$73)*100000</f>
-        <v>15.387999999994</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <f aca="false">(B20-$D$57)*100000</f>
-        <v>16.3879999999894</v>
+      <c r="G20" s="6">
+        <f>(B20-$D$73)*100000</f>
+        <v>15.38799999999396</v>
+      </c>
+      <c r="H20" s="6">
+        <f>(B20-$D$57)*100000</f>
+        <v>16.38800000000051</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="8" t="n">
-        <f aca="false">($B20*$C20+$B57*$C57)*100000</f>
-        <v>16.9639872271476</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <f aca="false">($B20*$C20+$D57*$E57)*100000</f>
-        <v>12.2162392271476</v>
+      <c r="J20" s="7">
+        <f>($B20*$C20+$B57*$C57)*100000</f>
+        <v>16.96398722714765</v>
+      </c>
+      <c r="K20" s="7">
+        <f>($B20*$C20+$D57*$E57)*100000</f>
+        <v>12.21623922714765</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O20" s="8" t="n">
-        <f aca="false">($B20*$C20+$B57*$C57)*2*100000</f>
+      <c r="O20" s="7">
+        <f>($B20*$C20+$B57*$C57)*2*100000</f>
         <v>33.9279744542953</v>
       </c>
-      <c r="P20" s="8" t="n">
-        <f aca="false">($B20*$C20+$D57*$E57)*2*100000</f>
+      <c r="P20" s="7">
+        <f>($B20*$C20+$D57*$E57)*2*100000</f>
         <v>24.4324784542953</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="4">
         <v>0.275104821</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="5">
         <v>0.000206864876</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7" t="n">
-        <f aca="false">(B21-$B$74)*100000</f>
-        <v>5.38210000000094</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <f aca="false">(B21-$B$58)*100000</f>
-        <v>5.38210000000094</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <f aca="false">(B21-$D$74)*100000</f>
-        <v>-10.5179000000011</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <f aca="false">(B21-$D$58)*100000</f>
-        <v>-10.5179000000011</v>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6">
+        <f>(B21-$B$74)*100000</f>
+        <v>5.382100000000944</v>
+      </c>
+      <c r="F21" s="6">
+        <f>(B21-$B$58)*100000</f>
+        <v>5.382100000000944</v>
+      </c>
+      <c r="G21" s="6">
+        <f>(B21-$D$74)*100000</f>
+        <v>-6.51790000000263</v>
+      </c>
+      <c r="H21" s="6">
+        <f>(B21-$D$58)*100000</f>
+        <v>-6.51790000000263</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="8" t="n">
-        <f aca="false">($B21*$C21+$B58*$C58)*100000</f>
-        <v>10.6418704683167</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <f aca="false">($B21*$C21+$D58*$E58)*100000</f>
-        <v>6.79179246831672</v>
+      <c r="J21" s="7">
+        <f>($B21*$C21+$B58*$C58)*100000</f>
+        <v>10.64187046831672</v>
+      </c>
+      <c r="K21" s="7">
+        <f>($B21*$C21+$D58*$E58)*100000</f>
+        <v>7.61714246831672</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O21" s="8" t="n">
-        <f aca="false">($B21*$C21+$B58*$C58)*2*100000</f>
-        <v>21.2837409366334</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <f aca="false">($B21*$C21+$D58*$E58)*2*100000</f>
-        <v>13.5835849366334</v>
+      <c r="O21" s="7">
+        <f>($B21*$C21+$B58*$C58)*2*100000</f>
+        <v>21.28374093663344</v>
+      </c>
+      <c r="P21" s="7">
+        <f>($B21*$C21+$D58*$E58)*2*100000</f>
+        <v>15.23428493663344</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="4">
         <v>0.880708635</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>9.57598313E-005</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7" t="n">
-        <f aca="false">(B22-$B$75)*100000</f>
-        <v>21.8634999999967</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <f aca="false">(B22-$B$59)*100000</f>
-        <v>21.8634999999967</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <f aca="false">(B22-$D$75)*100000</f>
+      <c r="C22" s="5">
+        <v>9.57598313e-05</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6">
+        <f>(B22-$B$75)*100000</f>
+        <v>21.86349999999671</v>
+      </c>
+      <c r="F22" s="6">
+        <f>(B22-$B$59)*100000</f>
+        <v>21.86349999999671</v>
+      </c>
+      <c r="G22" s="6">
+        <f>(B22-$D$75)*100000</f>
         <v>19.8634999999947</v>
       </c>
-      <c r="H22" s="7" t="n">
-        <f aca="false">(B22-$D$59)*100000</f>
+      <c r="H22" s="6">
+        <f>(B22-$D$59)*100000</f>
         <v>19.8634999999947</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="8" t="n">
-        <f aca="false">($B22*$C22+$B59*$C59)*100000</f>
-        <v>16.0939140312053</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <f aca="false">($B22*$C22+$D59*$E59)*100000</f>
-        <v>13.7167110312053</v>
+      <c r="J22" s="7">
+        <f>($B22*$C22+$B59*$C59)*100000</f>
+        <v>16.09391403120533</v>
+      </c>
+      <c r="K22" s="7">
+        <f>($B22*$C22+$D59*$E59)*100000</f>
+        <v>13.71671103120533</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
+      <c r="M22" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O22" s="8" t="n">
-        <f aca="false">($B22*$C22+$B59*$C59)*2*100000</f>
-        <v>32.1878280624107</v>
-      </c>
-      <c r="P22" s="8" t="n">
-        <f aca="false">($B22*$C22+$D59*$E59)*2*100000</f>
-        <v>27.4334220624107</v>
+      <c r="O22" s="7">
+        <f>($B22*$C22+$B59*$C59)*2*100000</f>
+        <v>32.18782806241066</v>
+      </c>
+      <c r="P22" s="7">
+        <f>($B22*$C22+$D59*$E59)*2*100000</f>
+        <v>27.43342206241065</v>
       </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="4">
         <v>1.09879124</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>5.52869642E-005</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7" t="n">
-        <f aca="false">(B23-$B$76)*100000</f>
-        <v>8.12399999998714</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <f aca="false">(B23-$B$60)*100000</f>
-        <v>8.12399999998714</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <f aca="false">(B23-$D$76)*100000</f>
-        <v>2.12399999999224</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <f aca="false">(B23-$D$60)*100000</f>
-        <v>2.12399999999224</v>
+      <c r="C23" s="5">
+        <v>5.52869642e-05</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6">
+        <f>(B23-$B$76)*100000</f>
+        <v>8.123999999987142</v>
+      </c>
+      <c r="F23" s="6">
+        <f>(B23-$B$60)*100000</f>
+        <v>8.123999999987142</v>
+      </c>
+      <c r="G23" s="6">
+        <f>(B23-$D$76)*100000</f>
+        <v>2.123999999992243</v>
+      </c>
+      <c r="H23" s="6">
+        <f>(B23-$D$60)*100000</f>
+        <v>2.123999999992243</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="8" t="n">
-        <f aca="false">($B23*$C23+$B60*$C60)*100000</f>
-        <v>30.2465031949154</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <f aca="false">($B23*$C23+$D60*$E60)*100000</f>
-        <v>12.6675031949154</v>
+      <c r="J23" s="7">
+        <f>($B23*$C23+$B60*$C60)*100000</f>
+        <v>30.24650319491536</v>
+      </c>
+      <c r="K23" s="7">
+        <f>($B23*$C23+$D60*$E60)*100000</f>
+        <v>12.66750319491536</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O23" s="8" t="n">
-        <f aca="false">($B23*$C23+$B60*$C60)*2*100000</f>
-        <v>60.4930063898307</v>
-      </c>
-      <c r="P23" s="8" t="n">
-        <f aca="false">($B23*$C23+$D60*$E60)*2*100000</f>
-        <v>25.3350063898307</v>
+      <c r="O23" s="7">
+        <f>($B23*$C23+$B60*$C60)*2*100000</f>
+        <v>60.49300638983073</v>
+      </c>
+      <c r="P23" s="7">
+        <f>($B23*$C23+$D60*$E60)*2*100000</f>
+        <v>25.33500638983072</v>
       </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="4">
         <v>1.05106199</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>9.57598313E-005</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7" t="n">
-        <f aca="false">(B24-$B$77)*100000</f>
-        <v>73.1990000000016</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <f aca="false">(B24-$B$61)*100000</f>
-        <v>73.1990000000016</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <f aca="false">(B24-$D$77)*100000</f>
-        <v>111.199000000006</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <f aca="false">(B24-$D$61)*100000</f>
-        <v>111.199000000006</v>
+      <c r="C24" s="5">
+        <v>9.57598313e-05</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6">
+        <f>(B24-$B$77)*100000</f>
+        <v>73.19900000000158</v>
+      </c>
+      <c r="F24" s="6">
+        <f>(B24-$B$61)*100000</f>
+        <v>73.19900000000158</v>
+      </c>
+      <c r="G24" s="6">
+        <f>(B24-$D$77)*100000</f>
+        <v>41.19899999999177</v>
+      </c>
+      <c r="H24" s="6">
+        <f>(B24-$D$61)*100000</f>
+        <v>41.19899999999177</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="8" t="n">
-        <f aca="false">($B24*$C24+$B61*$C61)*100000</f>
-        <v>17.6273278848242</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <f aca="false">($B24*$C24+$D61*$E61)*100000</f>
-        <v>17.4146018848242</v>
+      <c r="J24" s="7">
+        <f>($B24*$C24+$B61*$C61)*100000</f>
+        <v>17.62732788482423</v>
+      </c>
+      <c r="K24" s="7">
+        <f>($B24*$C24+$D61*$E61)*100000</f>
+        <v>19.52080188482423</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O24" s="8" t="n">
-        <f aca="false">($B24*$C24+$B61*$C61)*2*100000</f>
-        <v>35.2546557696485</v>
-      </c>
-      <c r="P24" s="8" t="n">
-        <f aca="false">($B24*$C24+$D61*$E61)*2*100000</f>
-        <v>34.8292037696485</v>
+      <c r="O24" s="7">
+        <f>($B24*$C24+$B61*$C61)*2*100000</f>
+        <v>35.25465576964846</v>
+      </c>
+      <c r="P24" s="7">
+        <f>($B24*$C24+$D61*$E61)*2*100000</f>
+        <v>39.04160376964846</v>
       </c>
       <c r="Q24" s="3"/>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="17" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1507,273 +2594,273 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="R25" s="10"/>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s" s="2">
         <v>5</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="R26" s="10"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="6">
         <v>2.44733327</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="7" t="n">
-        <f aca="false">$B$80/B27</f>
-        <v>2.95832205966783</v>
-      </c>
-      <c r="F27" s="7" t="n">
-        <f aca="false">$B$64/B27</f>
-        <v>2.58362850597786</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <f aca="false">$D$80/B27</f>
-        <v>12.489785122999</v>
-      </c>
-      <c r="H27" s="9" t="n">
-        <f aca="false">$D$64/B27</f>
-        <v>2.02260969549112</v>
+      <c r="E27" s="6">
+        <f>$B$80/B27</f>
+        <v>2.958322059667828</v>
+      </c>
+      <c r="F27" s="6">
+        <f>$B$64/B27</f>
+        <v>2.583628505977856</v>
+      </c>
+      <c r="G27" s="6">
+        <f>$D$80/B27</f>
+        <v>12.48978512299904</v>
+      </c>
+      <c r="H27" s="6">
+        <f>$D$64/B27</f>
+        <v>2.022609695491125</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="R27" s="10"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="6">
         <v>12.5981669</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="7" t="n">
-        <f aca="false">$B$81/B28</f>
-        <v>3.1282328860082</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <f aca="false">$B$65/B28</f>
-        <v>1.91281002952898</v>
-      </c>
-      <c r="G28" s="9" t="n">
-        <f aca="false">$D$81/B28</f>
-        <v>7.81066013659495</v>
-      </c>
-      <c r="H28" s="9" t="n">
-        <f aca="false">$D$65/B28</f>
-        <v>3.49521749337464</v>
+      <c r="E28" s="6">
+        <f>$B$81/B28</f>
+        <v>3.128232886008201</v>
+      </c>
+      <c r="F28" s="6">
+        <f>$B$65/B28</f>
+        <v>1.912810029528978</v>
+      </c>
+      <c r="G28" s="6">
+        <f>$D$81/B28</f>
+        <v>7.810660136594952</v>
+      </c>
+      <c r="H28" s="6">
+        <f>$D$65/B28</f>
+        <v>3.495217493374638</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="R28" s="10"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="6">
         <v>42.545166</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="7" t="n">
-        <f aca="false">$B$82/B29</f>
-        <v>3.43517287016814</v>
-      </c>
-      <c r="F29" s="7" t="n">
-        <f aca="false">$B$66/B29</f>
-        <v>1.79822309307713</v>
-      </c>
-      <c r="G29" s="9" t="n">
-        <f aca="false">$D$82/B29</f>
-        <v>3.08534856031978</v>
-      </c>
-      <c r="H29" s="9" t="n">
-        <f aca="false">$D$66/B29</f>
+      <c r="E29" s="6">
+        <f>$B$82/B29</f>
+        <v>3.435172870168141</v>
+      </c>
+      <c r="F29" s="6">
+        <f>$B$66/B29</f>
+        <v>1.798223093077131</v>
+      </c>
+      <c r="G29" s="6">
+        <f>$D$82/B29</f>
+        <v>3.085348560319779</v>
+      </c>
+      <c r="H29" s="6">
+        <f>$D$66/B29</f>
         <v>1.50859285243671</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="6">
         <v>39.828833</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="7" t="n">
-        <f aca="false">$B$83/B30</f>
-        <v>1.98750488120001</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <f aca="false">$B$67/B30</f>
-        <v>1.13190863513375</v>
-      </c>
-      <c r="G30" s="9" t="n">
-        <f aca="false">$D$83/B30</f>
-        <v>6.76561792977128</v>
-      </c>
-      <c r="H30" s="9" t="n">
-        <f aca="false">$D$67/B30</f>
-        <v>2.03453948382905</v>
+      <c r="E30" s="6">
+        <f>$B$83/B30</f>
+        <v>1.987504881200009</v>
+      </c>
+      <c r="F30" s="6">
+        <f>$B$67/B30</f>
+        <v>1.131908635133748</v>
+      </c>
+      <c r="G30" s="6">
+        <f>$D$83/B30</f>
+        <v>6.765617929771279</v>
+      </c>
+      <c r="H30" s="6">
+        <f>$D$67/B30</f>
+        <v>2.034539483829047</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="R30" s="10"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="6">
         <v>121.341829</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="7" t="n">
-        <f aca="false">$B$84/B31</f>
-        <v>0.996029159903301</v>
-      </c>
-      <c r="F31" s="7" t="n">
-        <f aca="false">$B$68/B31</f>
-        <v>0.564155003795105</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <f aca="false">$D$84/B31</f>
-        <v>2.64047445666902</v>
-      </c>
-      <c r="H31" s="9" t="n">
-        <f aca="false">$D$68/B31</f>
-        <v>1.64123123609749</v>
+      <c r="E31" s="6">
+        <f>$B$84/B31</f>
+        <v>0.9960291599033009</v>
+      </c>
+      <c r="F31" s="6">
+        <f>$B$68/B31</f>
+        <v>0.5641550037951052</v>
+      </c>
+      <c r="G31" s="6">
+        <f>$D$84/B31</f>
+        <v>2.640474456669019</v>
+      </c>
+      <c r="H31" s="6">
+        <f>$D$68/B31</f>
+        <v>1.641231236097488</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="R31" s="10"/>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="6">
         <v>56.03</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="7" t="n">
-        <f aca="false">$B$85/B32</f>
-        <v>1.45524183473139</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <f aca="false">$B$69/B32</f>
-        <v>0.791049437801178</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <f aca="false">$D$85/B32</f>
-        <v>2.8677494199536</v>
-      </c>
-      <c r="H32" s="9" t="n">
-        <f aca="false">$D$69/B32</f>
-        <v>2.00339104051401</v>
+      <c r="E32" s="6">
+        <f>$B$85/B32</f>
+        <v>1.455241834731394</v>
+      </c>
+      <c r="F32" s="6">
+        <f>$B$69/B32</f>
+        <v>0.7910494378011779</v>
+      </c>
+      <c r="G32" s="6">
+        <f>$D$85/B32</f>
+        <v>2.867749419953596</v>
+      </c>
+      <c r="H32" s="6">
+        <f>$D$69/B32</f>
+        <v>2.003391040514011</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R32" s="10"/>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" ht="17" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1791,10 +2878,10 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R33" s="10"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" ht="17" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1812,397 +2899,397 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="R34" s="10"/>
+      <c r="S34" s="11"/>
+    </row>
+    <row r="35" ht="17" customHeight="1">
+      <c r="A35" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s" s="2">
         <v>5</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="R35" s="10"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="4">
         <v>0.999960184</v>
       </c>
-      <c r="C36" s="6" t="n">
-        <v>9.57598313E-005</v>
+      <c r="C36" s="5">
+        <v>9.57598313e-05</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="7" t="n">
-        <f aca="false">(B36-$B$72)*100000</f>
-        <v>17.6183999999968</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <f aca="false">(B36-$B$56)*100000</f>
-        <v>17.6183999999968</v>
-      </c>
-      <c r="G36" s="7" t="n">
-        <f aca="false">(B36-$D$72)*100000</f>
-        <v>0.0184000000014173</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <f aca="false">(B36-$D$56)*100000</f>
-        <v>0.0184000000014173</v>
+      <c r="E36" s="6">
+        <f>(B36-$B$72)*100000</f>
+        <v>17.61839999999681</v>
+      </c>
+      <c r="F36" s="6">
+        <f>(B36-$B$56)*100000</f>
+        <v>17.61839999999681</v>
+      </c>
+      <c r="G36" s="6">
+        <f>(B36-$D$72)*100000</f>
+        <v>0.01840000000141728</v>
+      </c>
+      <c r="H36" s="6">
+        <f>(B36-$D$56)*100000</f>
+        <v>0.01840000000141728</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="8" t="n">
-        <f aca="false">($B36*$C36+$B56*$C56)*100000</f>
+      <c r="J36" s="7">
+        <f>($B36*$C36+$B56*$C56)*100000</f>
         <v>19.0735498526557</v>
       </c>
-      <c r="K36" s="8" t="n">
-        <f aca="false">($B36*$C36+$D56*$E56)*100000</f>
+      <c r="K36" s="7">
+        <f>($B36*$C36+$D56*$E56)*100000</f>
         <v>16.5753218526557</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O36" s="8" t="n">
-        <f aca="false">($B36*$C36+$B56*$C56)*2*100000</f>
+      <c r="O36" s="7">
+        <f>($B36*$C36+$B56*$C56)*2*100000</f>
         <v>38.1470997053114</v>
       </c>
-      <c r="P36" s="8" t="n">
-        <f aca="false">($B36*$C36+$D56*$E56)*2*100000</f>
+      <c r="P36" s="7">
+        <f>($B36*$C36+$D56*$E56)*2*100000</f>
         <v>33.1506437053114</v>
       </c>
       <c r="Q36" s="3"/>
-      <c r="R36" s="1" t="s">
+      <c r="R36" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="4">
         <v>0.593226552</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="5">
         <v>0.000123625417</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="7" t="n">
-        <f aca="false">(B37-$B$73)*100000</f>
-        <v>-18.2448000000002</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <f aca="false">(B37-$B$57)*100000</f>
-        <v>-18.2448000000002</v>
-      </c>
-      <c r="G37" s="7" t="n">
-        <f aca="false">(B37-$D$73)*100000</f>
-        <v>-7.3447999999976</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <f aca="false">(B37-$D$57)*100000</f>
-        <v>-6.34480000000215</v>
+      <c r="E37" s="6">
+        <f>(B37-$B$73)*100000</f>
+        <v>-18.24480000000017</v>
+      </c>
+      <c r="F37" s="6">
+        <f>(B37-$B$57)*100000</f>
+        <v>-18.24480000000017</v>
+      </c>
+      <c r="G37" s="6">
+        <f>(B37-$D$73)*100000</f>
+        <v>-7.3448000000087</v>
+      </c>
+      <c r="H37" s="6">
+        <f>(B37-$D$57)*100000</f>
+        <v>-6.344800000002149</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="8" t="n">
-        <f aca="false">($B37*$C37+$B57*$C57)*100000</f>
-        <v>14.4546959866472</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <f aca="false">($B37*$C37+$D57*$E57)*100000</f>
-        <v>9.70694798664722</v>
+      <c r="J37" s="7">
+        <f>($B37*$C37+$B57*$C57)*100000</f>
+        <v>14.45469598664722</v>
+      </c>
+      <c r="K37" s="7">
+        <f>($B37*$C37+$D57*$E57)*100000</f>
+        <v>9.706947986647219</v>
       </c>
       <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
+      <c r="M37" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O37" s="8" t="n">
-        <f aca="false">($B37*$C37+$B57*$C57)*2*100000</f>
-        <v>28.9093919732944</v>
-      </c>
-      <c r="P37" s="8" t="n">
-        <f aca="false">($B37*$C37+$D57*$E57)*2*100000</f>
-        <v>19.4138959732944</v>
+      <c r="O37" s="7">
+        <f>($B37*$C37+$B57*$C57)*2*100000</f>
+        <v>28.90939197329444</v>
+      </c>
+      <c r="P37" s="7">
+        <f>($B37*$C37+$D57*$E57)*2*100000</f>
+        <v>19.41389597329444</v>
       </c>
       <c r="Q37" s="3"/>
-      <c r="R37" s="1" t="s">
+      <c r="R37" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="4">
         <v>0.274988353</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="5">
         <v>0.000156375158</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="7" t="n">
-        <f aca="false">(B38-$B$74)*100000</f>
-        <v>-6.26469999999713</v>
-      </c>
-      <c r="F38" s="7" t="n">
-        <f aca="false">(B38-$B$58)*100000</f>
-        <v>-6.26469999999713</v>
-      </c>
-      <c r="G38" s="7" t="n">
-        <f aca="false">(B38-$D$74)*100000</f>
-        <v>-22.1646999999991</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <f aca="false">(B38-$D$58)*100000</f>
-        <v>-22.1646999999991</v>
+      <c r="E38" s="6">
+        <f>(B38-$B$74)*100000</f>
+        <v>-6.264699999997125</v>
+      </c>
+      <c r="F38" s="6">
+        <f>(B38-$B$58)*100000</f>
+        <v>-6.264699999997125</v>
+      </c>
+      <c r="G38" s="6">
+        <f>(B38-$D$74)*100000</f>
+        <v>-18.1647000000007</v>
+      </c>
+      <c r="H38" s="6">
+        <f>(B38-$D$58)*100000</f>
+        <v>-18.1647000000007</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="8" t="n">
-        <f aca="false">($B38*$C38+$B58*$C58)*100000</f>
-        <v>9.25105271485348</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <f aca="false">($B38*$C38+$D58*$E58)*100000</f>
-        <v>5.40097471485348</v>
+      <c r="J38" s="7">
+        <f>($B38*$C38+$B58*$C58)*100000</f>
+        <v>9.251052714853477</v>
+      </c>
+      <c r="K38" s="7">
+        <f>($B38*$C38+$D58*$E58)*100000</f>
+        <v>6.226324714853478</v>
       </c>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
+      <c r="M38" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O38" s="8" t="n">
-        <f aca="false">($B38*$C38+$B58*$C58)*2*100000</f>
-        <v>18.502105429707</v>
-      </c>
-      <c r="P38" s="8" t="n">
-        <f aca="false">($B38*$C38+$D58*$E58)*2*100000</f>
-        <v>10.801949429707</v>
+      <c r="O38" s="7">
+        <f>($B38*$C38+$B58*$C58)*2*100000</f>
+        <v>18.50210542970695</v>
+      </c>
+      <c r="P38" s="7">
+        <f>($B38*$C38+$D58*$E58)*2*100000</f>
+        <v>12.45264942970696</v>
       </c>
       <c r="Q38" s="3"/>
-      <c r="R38" s="1" t="s">
+      <c r="R38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" t="s" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="4">
         <v>0.88075459</v>
       </c>
-      <c r="C39" s="6" t="n">
-        <v>9.57598313E-005</v>
+      <c r="C39" s="5">
+        <v>9.57598313e-05</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="7" t="n">
-        <f aca="false">(B39-$B$75)*100000</f>
+      <c r="E39" s="6">
+        <f>(B39-$B$75)*100000</f>
         <v>26.4590000000009</v>
       </c>
-      <c r="F39" s="7" t="n">
-        <f aca="false">(B39-$B$59)*100000</f>
+      <c r="F39" s="6">
+        <f>(B39-$B$59)*100000</f>
         <v>26.4590000000009</v>
       </c>
-      <c r="G39" s="7" t="n">
-        <f aca="false">(B39-$D$75)*100000</f>
-        <v>24.4589999999878</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <f aca="false">(B39-$D$59)*100000</f>
-        <v>24.4589999999878</v>
+      <c r="G39" s="6">
+        <f>(B39-$D$75)*100000</f>
+        <v>24.4589999999989</v>
+      </c>
+      <c r="H39" s="6">
+        <f>(B39-$D$59)*100000</f>
+        <v>24.4589999999989</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="8" t="n">
-        <f aca="false">($B39*$C39+$B59*$C59)*100000</f>
-        <v>16.0943540955101</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <f aca="false">($B39*$C39+$D59*$E59)*100000</f>
-        <v>13.7171510955101</v>
+      <c r="J39" s="7">
+        <f>($B39*$C39+$B59*$C59)*100000</f>
+        <v>16.09435409551007</v>
+      </c>
+      <c r="K39" s="7">
+        <f>($B39*$C39+$D59*$E59)*100000</f>
+        <v>13.71715109551007</v>
       </c>
       <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
+      <c r="M39" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O39" s="8" t="n">
-        <f aca="false">($B39*$C39+$B59*$C59)*2*100000</f>
-        <v>32.1887081910201</v>
-      </c>
-      <c r="P39" s="8" t="n">
-        <f aca="false">($B39*$C39+$D59*$E59)*2*100000</f>
-        <v>27.4343021910201</v>
+      <c r="O39" s="7">
+        <f>($B39*$C39+$B59*$C59)*2*100000</f>
+        <v>32.18870819102013</v>
+      </c>
+      <c r="P39" s="7">
+        <f>($B39*$C39+$D59*$E59)*2*100000</f>
+        <v>27.43430219102013</v>
       </c>
       <c r="Q39" s="3"/>
-      <c r="R39" s="1" t="s">
+      <c r="R39" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="S39" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="4">
         <v>1.09858978</v>
       </c>
-      <c r="C40" s="6" t="n">
-        <v>5.52869642E-005</v>
+      <c r="C40" s="5">
+        <v>5.52869642e-05</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="7" t="n">
-        <f aca="false">(B40-$B$76)*100000</f>
-        <v>-12.0220000000115</v>
-      </c>
-      <c r="F40" s="7" t="n">
-        <f aca="false">(B40-$B$60)*100000</f>
-        <v>-12.0220000000115</v>
-      </c>
-      <c r="G40" s="7" t="n">
-        <f aca="false">(B40-$D$76)*100000</f>
-        <v>-18.0220000000064</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <f aca="false">(B40-$D$60)*100000</f>
-        <v>-18.0220000000064</v>
+      <c r="E40" s="6">
+        <f>(B40-$B$76)*100000</f>
+        <v>-12.02200000001152</v>
+      </c>
+      <c r="F40" s="6">
+        <f>(B40-$B$60)*100000</f>
+        <v>-12.02200000001152</v>
+      </c>
+      <c r="G40" s="6">
+        <f>(B40-$D$76)*100000</f>
+        <v>-18.02200000000642</v>
+      </c>
+      <c r="H40" s="6">
+        <f>(B40-$D$60)*100000</f>
+        <v>-18.02200000000642</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="8" t="n">
-        <f aca="false">($B40*$C40+$B60*$C60)*100000</f>
-        <v>30.2453893837346</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <f aca="false">($B40*$C40+$D60*$E60)*100000</f>
-        <v>12.6663893837346</v>
+      <c r="J40" s="7">
+        <f>($B40*$C40+$B60*$C60)*100000</f>
+        <v>30.24538938373459</v>
+      </c>
+      <c r="K40" s="7">
+        <f>($B40*$C40+$D60*$E60)*100000</f>
+        <v>12.66638938373459</v>
       </c>
       <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
+      <c r="M40" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="O40" s="8" t="n">
-        <f aca="false">($B40*$C40+$B60*$C60)*2*100000</f>
-        <v>60.4907787674692</v>
-      </c>
-      <c r="P40" s="8" t="n">
-        <f aca="false">($B40*$C40+$D60*$E60)*2*100000</f>
-        <v>25.3327787674692</v>
+      <c r="O40" s="7">
+        <f>($B40*$C40+$B60*$C60)*2*100000</f>
+        <v>60.49077876746917</v>
+      </c>
+      <c r="P40" s="7">
+        <f>($B40*$C40+$D60*$E60)*2*100000</f>
+        <v>25.33277876746918</v>
       </c>
       <c r="Q40" s="3"/>
-      <c r="R40" s="1" t="s">
+      <c r="R40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" t="s" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="4">
         <v>1.05110347</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="5">
         <v>0.000123625417</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="7" t="n">
-        <f aca="false">(B41-$B$77)*100000</f>
-        <v>77.3469999999943</v>
-      </c>
-      <c r="F41" s="7" t="n">
-        <f aca="false">(B41-$B$61)*100000</f>
-        <v>77.3469999999943</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <f aca="false">(B41-$D$77)*100000</f>
-        <v>115.346999999999</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <f aca="false">(B41-$D$61)*100000</f>
-        <v>115.346999999999</v>
+      <c r="E41" s="6">
+        <f>(B41-$B$77)*100000</f>
+        <v>77.34699999999428</v>
+      </c>
+      <c r="F41" s="6">
+        <f>(B41-$B$61)*100000</f>
+        <v>77.34699999999428</v>
+      </c>
+      <c r="G41" s="6">
+        <f>(B41-$D$77)*100000</f>
+        <v>45.34699999998448</v>
+      </c>
+      <c r="H41" s="6">
+        <f>(B41-$D$61)*100000</f>
+        <v>45.34699999998448</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="8" t="n">
-        <f aca="false">($B41*$C41+$B61*$C61)*100000</f>
+      <c r="J41" s="7">
+        <f>($B41*$C41+$B61*$C61)*100000</f>
         <v>20.5566864788897</v>
       </c>
-      <c r="K41" s="8" t="n">
-        <f aca="false">($B41*$C41+$D61*$E61)*100000</f>
-        <v>20.3439604788897</v>
+      <c r="K41" s="7">
+        <f>($B41*$C41+$D61*$E61)*100000</f>
+        <v>22.4501604788897</v>
       </c>
       <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="O41" s="8" t="n">
-        <f aca="false">($B41*$C41+$B61*$C61)*2*100000</f>
+      <c r="O41" s="7">
+        <f>($B41*$C41+$B61*$C61)*2*100000</f>
         <v>41.1133729577794</v>
       </c>
-      <c r="P41" s="8" t="n">
-        <f aca="false">($B41*$C41+$D61*$E61)*2*100000</f>
-        <v>40.6879209577794</v>
+      <c r="P41" s="7">
+        <f>($B41*$C41+$D61*$E61)*2*100000</f>
+        <v>44.9003209577794</v>
       </c>
       <c r="Q41" s="3"/>
-      <c r="R41" s="1" t="s">
+      <c r="R41" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" t="s" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="17" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2212,34 +3299,36 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="8"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="R42" s="15"/>
+      <c r="S42" s="16"/>
+    </row>
+    <row r="43" ht="17" customHeight="1">
+      <c r="A43" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s" s="2">
         <v>5</v>
       </c>
       <c r="I43" s="3"/>
@@ -2249,220 +3338,234 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="16"/>
+    </row>
+    <row r="44" ht="17" customHeight="1">
+      <c r="A44" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B44" s="7" t="n">
+      <c r="B44" s="6">
         <v>1.18483327</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="7" t="n">
-        <f aca="false">$B$80/B44</f>
-        <v>6.11056440033964</v>
-      </c>
-      <c r="F44" s="7" t="n">
-        <f aca="false">$B$64/B44</f>
-        <v>5.3366158430038</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <f aca="false">$D$80/B44</f>
-        <v>25.7982852445278</v>
-      </c>
-      <c r="H44" s="9" t="n">
-        <f aca="false">$D$64/B44</f>
-        <v>4.1778030085195</v>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6">
+        <f>$B$80/B44</f>
+        <v>6.110564400339636</v>
+      </c>
+      <c r="F44" s="6">
+        <f>$B$64/B44</f>
+        <v>5.336615843003801</v>
+      </c>
+      <c r="G44" s="6">
+        <f>$D$80/B44</f>
+        <v>25.79828524452778</v>
+      </c>
+      <c r="H44" s="6">
+        <f>$D$64/B44</f>
+        <v>4.177803008519503</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="16"/>
+    </row>
+    <row r="45" ht="17" customHeight="1">
+      <c r="A45" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B45" s="7" t="n">
+      <c r="B45" s="6">
         <v>5.78566691</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="7" t="n">
-        <f aca="false">$B$81/B45</f>
-        <v>6.81166071484056</v>
-      </c>
-      <c r="F45" s="7" t="n">
-        <f aca="false">$B$65/B45</f>
-        <v>4.16510324131328</v>
-      </c>
-      <c r="G45" s="9" t="n">
-        <f aca="false">$D$81/B45</f>
-        <v>17.0075466719186</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <f aca="false">$D$65/B45</f>
-        <v>7.61076190840259</v>
+      <c r="D45" s="3"/>
+      <c r="E45" s="6">
+        <f>$B$81/B45</f>
+        <v>6.811660714840564</v>
+      </c>
+      <c r="F45" s="6">
+        <f>$B$65/B45</f>
+        <v>4.165103241313282</v>
+      </c>
+      <c r="G45" s="6">
+        <f>$D$81/B45</f>
+        <v>17.00754667191859</v>
+      </c>
+      <c r="H45" s="6">
+        <f>$D$65/B45</f>
+        <v>7.610761908402593</v>
       </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="16"/>
+    </row>
+    <row r="46" ht="17" customHeight="1">
+      <c r="A46" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="6">
         <v>20.9061666</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7" t="n">
-        <f aca="false">$B$82/B46</f>
-        <v>6.99076032427676</v>
-      </c>
-      <c r="F46" s="7" t="n">
-        <f aca="false">$B$66/B46</f>
-        <v>3.65948006938776</v>
-      </c>
-      <c r="G46" s="9" t="n">
-        <f aca="false">$D$82/B46</f>
+      <c r="D46" s="3"/>
+      <c r="E46" s="6">
+        <f>$B$82/B46</f>
+        <v>6.990760324276762</v>
+      </c>
+      <c r="F46" s="6">
+        <f>$B$66/B46</f>
+        <v>3.659480069387757</v>
+      </c>
+      <c r="G46" s="6">
+        <f>$D$82/B46</f>
         <v>6.27884916341698</v>
       </c>
-      <c r="H46" s="9" t="n">
-        <f aca="false">$D$66/B46</f>
-        <v>3.07006705539854</v>
+      <c r="H46" s="6">
+        <f>$D$66/B46</f>
+        <v>3.070067055398542</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="16"/>
+    </row>
+    <row r="47" ht="17" customHeight="1">
+      <c r="A47" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="6">
         <v>24.6835002</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="7" t="n">
-        <f aca="false">$B$83/B47</f>
+      <c r="D47" s="3"/>
+      <c r="E47" s="6">
+        <f>$B$83/B47</f>
         <v>3.20700060196487</v>
       </c>
-      <c r="F47" s="7" t="n">
-        <f aca="false">$B$67/B47</f>
-        <v>1.82642654545404</v>
-      </c>
-      <c r="G47" s="9" t="n">
-        <f aca="false">$D$83/B47</f>
+      <c r="F47" s="6">
+        <f>$B$67/B47</f>
+        <v>1.826426545454036</v>
+      </c>
+      <c r="G47" s="6">
+        <f>$D$83/B47</f>
         <v>10.9168742067896</v>
       </c>
-      <c r="H47" s="9" t="n">
-        <f aca="false">$D$67/B47</f>
-        <v>3.28289475466422</v>
+      <c r="H47" s="6">
+        <f>$D$67/B47</f>
+        <v>3.282894754664224</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="16"/>
+    </row>
+    <row r="48" ht="17" customHeight="1">
+      <c r="A48" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="6">
         <v>81.395166</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="7" t="n">
-        <f aca="false">$B$84/B48</f>
-        <v>1.48485476397947</v>
-      </c>
-      <c r="F48" s="7" t="n">
-        <f aca="false">$B$68/B48</f>
-        <v>0.841027832045947</v>
-      </c>
-      <c r="G48" s="9" t="n">
-        <f aca="false">$D$84/B48</f>
-        <v>3.93635169931344</v>
-      </c>
-      <c r="H48" s="9" t="n">
-        <f aca="false">$D$68/B48</f>
-        <v>2.4467054959996</v>
+      <c r="D48" s="3"/>
+      <c r="E48" s="6">
+        <f>$B$84/B48</f>
+        <v>1.484854763979473</v>
+      </c>
+      <c r="F48" s="6">
+        <f>$B$68/B48</f>
+        <v>0.8410278320459473</v>
+      </c>
+      <c r="G48" s="6">
+        <f>$D$84/B48</f>
+        <v>3.936351699313445</v>
+      </c>
+      <c r="H48" s="6">
+        <f>$D$68/B48</f>
+        <v>2.446705495999603</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="16"/>
+    </row>
+    <row r="49" ht="17" customHeight="1">
+      <c r="A49" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="6">
         <v>35.628833</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="7" t="n">
-        <f aca="false">$B$85/B49</f>
-        <v>2.28851728037233</v>
-      </c>
-      <c r="F49" s="7" t="n">
-        <f aca="false">$B$69/B49</f>
-        <v>1.24400650450718</v>
-      </c>
-      <c r="G49" s="9" t="n">
-        <f aca="false">$D$85/B49</f>
-        <v>4.509830563353</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <f aca="false">$D$69/B49</f>
-        <v>3.15053821717933</v>
+      <c r="D49" s="3"/>
+      <c r="E49" s="6">
+        <f>$B$85/B49</f>
+        <v>2.288517280372332</v>
+      </c>
+      <c r="F49" s="6">
+        <f>$B$69/B49</f>
+        <v>1.244006504507178</v>
+      </c>
+      <c r="G49" s="6">
+        <f>$D$85/B49</f>
+        <v>4.509830563353002</v>
+      </c>
+      <c r="H49" s="6">
+        <f>$D$69/B49</f>
+        <v>3.150538217179328</v>
       </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="16"/>
+    </row>
+    <row r="50" ht="17" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2480,8 +3583,10 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R50" s="15"/>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" ht="17" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2499,8 +3604,10 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R51" s="15"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" ht="17" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2518,8 +3625,10 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R52" s="15"/>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" ht="17" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2537,8 +3646,10 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R53" s="15"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" ht="17" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2556,16 +3667,18 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-    </row>
-    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="R54" s="15"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" ht="17" customHeight="1">
+      <c r="A55" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" t="s" s="2">
         <v>24</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="12" t="s">
+      <c r="D55" t="s" s="2">
         <v>25</v>
       </c>
       <c r="E55" s="3"/>
@@ -2581,22 +3694,24 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="R55" s="15"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" ht="17" customHeight="1">
+      <c r="A56" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B56" s="5" t="n">
+      <c r="B56" s="4">
         <v>0.999784</v>
       </c>
-      <c r="C56" s="6" t="n">
-        <v>9.5E-005</v>
-      </c>
-      <c r="D56" s="5" t="n">
+      <c r="C56" s="5">
+        <v>9.500000000000001e-05</v>
+      </c>
+      <c r="D56" s="4">
         <v>0.99996</v>
       </c>
-      <c r="E56" s="6" t="n">
-        <v>7E-005</v>
+      <c r="E56" s="5">
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2610,22 +3725,24 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="R56" s="15"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" ht="17" customHeight="1">
+      <c r="A57" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B57" s="5" t="n">
+      <c r="B57" s="4">
         <v>0.593409</v>
       </c>
-      <c r="C57" s="6" t="n">
+      <c r="C57" s="5">
         <v>0.00012</v>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="D57" s="4">
         <v>0.59329</v>
       </c>
-      <c r="E57" s="6" t="n">
-        <v>4E-005</v>
+      <c r="E57" s="5">
+        <v>4e-05</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2639,22 +3756,24 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-    </row>
-    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="R57" s="15"/>
+      <c r="S57" s="16"/>
+    </row>
+    <row r="58" ht="17" customHeight="1">
+      <c r="A58" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="4">
         <v>0.275051</v>
       </c>
-      <c r="C58" s="6" t="n">
+      <c r="C58" s="5">
         <v>0.00018</v>
       </c>
-      <c r="D58" s="5" t="n">
-        <v>0.27521</v>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>4E-005</v>
+      <c r="D58" s="4">
+        <v>0.27517</v>
+      </c>
+      <c r="E58" s="5">
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2668,22 +3787,24 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-    </row>
-    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="R58" s="15"/>
+      <c r="S58" s="16"/>
+    </row>
+    <row r="59" ht="17" customHeight="1">
+      <c r="A59" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="4">
         <v>0.88049</v>
       </c>
-      <c r="C59" s="6" t="n">
-        <v>8.7E-005</v>
-      </c>
-      <c r="D59" s="5" t="n">
+      <c r="C59" s="5">
+        <v>8.7e-05</v>
+      </c>
+      <c r="D59" s="4">
         <v>0.88051</v>
       </c>
-      <c r="E59" s="6" t="n">
-        <v>6E-005</v>
+      <c r="E59" s="5">
+        <v>6e-05</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2697,22 +3818,24 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="R59" s="15"/>
+      <c r="S59" s="16"/>
+    </row>
+    <row r="60" ht="17" customHeight="1">
+      <c r="A60" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="4">
         <v>1.09871</v>
       </c>
-      <c r="C60" s="6" t="n">
+      <c r="C60" s="5">
         <v>0.00022</v>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="D60" s="4">
         <v>1.09877</v>
       </c>
-      <c r="E60" s="6" t="n">
-        <v>6E-005</v>
+      <c r="E60" s="5">
+        <v>6e-05</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -2726,22 +3849,24 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-    </row>
-    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="R60" s="15"/>
+      <c r="S60" s="16"/>
+    </row>
+    <row r="61" ht="17" customHeight="1">
+      <c r="A61" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B61" s="5" t="n">
+      <c r="B61" s="4">
         <v>1.05033</v>
       </c>
-      <c r="C61" s="6" t="n">
-        <v>7.2E-005</v>
-      </c>
-      <c r="D61" s="5" t="n">
-        <v>1.04995</v>
-      </c>
-      <c r="E61" s="6" t="n">
-        <v>7E-005</v>
+      <c r="C61" s="5">
+        <v>7.2e-05</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1.05065</v>
+      </c>
+      <c r="E61" s="5">
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2755,8 +3880,10 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-    </row>
-    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R61" s="15"/>
+      <c r="S61" s="16"/>
+    </row>
+    <row r="62" ht="17" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2774,16 +3901,18 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-    </row>
-    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="R62" s="15"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" ht="17" customHeight="1">
+      <c r="A63" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s" s="2">
         <v>24</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s" s="2">
         <v>25</v>
       </c>
       <c r="E63" s="3"/>
@@ -2799,28 +3928,30 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-    </row>
-    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="R63" s="15"/>
+      <c r="S63" s="16"/>
+    </row>
+    <row r="64" ht="17" customHeight="1">
+      <c r="A64" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B64" s="9" t="n">
+      <c r="B64" s="6">
         <v>6.323</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="9" t="n">
-        <f aca="false">4+57/60</f>
+      <c r="D64" s="6">
+        <f>4+57/60</f>
         <v>4.95</v>
       </c>
-      <c r="E64" s="13" t="n">
+      <c r="E64" s="17">
         <v>0.126875</v>
       </c>
-      <c r="F64" s="14" t="n">
-        <v>0.122256944444444</v>
-      </c>
-      <c r="G64" s="15" t="n">
-        <f aca="false">E64-F64</f>
-        <v>0.00461805555555554</v>
+      <c r="F64" s="18">
+        <v>0.1222569444444445</v>
+      </c>
+      <c r="G64" s="19">
+        <f>E64-F64</f>
+        <v>0.004618055555555556</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2832,28 +3963,30 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-    </row>
-    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="R64" s="15"/>
+      <c r="S64" s="16"/>
+    </row>
+    <row r="65" ht="17" customHeight="1">
+      <c r="A65" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B65" s="7" t="n">
+      <c r="B65" s="6">
         <v>24.0979</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="9" t="n">
-        <f aca="false">44+2/60</f>
-        <v>44.0333333333333</v>
-      </c>
-      <c r="E65" s="14" t="n">
+      <c r="D65" s="6">
+        <f>44+2/60</f>
+        <v>44.03333333333333</v>
+      </c>
+      <c r="E65" s="18">
         <v>0.148425925925926</v>
       </c>
-      <c r="F65" s="14" t="n">
-        <v>0.126886574074074</v>
-      </c>
-      <c r="G65" s="15" t="n">
-        <f aca="false">E65-F65</f>
-        <v>0.0215393518518519</v>
+      <c r="F65" s="18">
+        <v>0.1268865740740741</v>
+      </c>
+      <c r="G65" s="19">
+        <f>E65-F65</f>
+        <v>0.02153935185185185</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -2865,27 +3998,29 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="R65" s="15"/>
+      <c r="S65" s="16"/>
+    </row>
+    <row r="66" ht="17" customHeight="1">
+      <c r="A66" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B66" s="7" t="n">
+      <c r="B66" s="6">
         <v>76.5057</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="9" t="n">
-        <f aca="false">60+4+11/60</f>
-        <v>64.1833333333333</v>
-      </c>
-      <c r="E66" s="14" t="n">
+      <c r="D66" s="6">
+        <f>60+4+11/60</f>
+        <v>64.18333333333334</v>
+      </c>
+      <c r="E66" s="18">
         <v>0.188136574074074</v>
       </c>
-      <c r="F66" s="13" t="n">
+      <c r="F66" s="17">
         <v>0.148449074074074</v>
       </c>
-      <c r="G66" s="16" t="n">
-        <f aca="false">E66-F66</f>
+      <c r="G66" s="19">
+        <f>E66-F66</f>
         <v>0.0396875</v>
       </c>
       <c r="H66" s="3"/>
@@ -2898,28 +4033,30 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-    </row>
-    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="R66" s="15"/>
+      <c r="S66" s="16"/>
+    </row>
+    <row r="67" ht="17" customHeight="1">
+      <c r="A67" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B67" s="7" t="n">
+      <c r="B67" s="6">
         <v>45.0826</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="9" t="n">
-        <f aca="false">60+21+2/60</f>
-        <v>81.0333333333333</v>
-      </c>
-      <c r="E67" s="14" t="n">
-        <v>0.221145833333333</v>
-      </c>
-      <c r="F67" s="13" t="n">
-        <v>0.188148148148148</v>
-      </c>
-      <c r="G67" s="16" t="n">
-        <f aca="false">E67-F67</f>
-        <v>0.0329976851851852</v>
+      <c r="D67" s="6">
+        <f>60+21+2/60</f>
+        <v>81.03333333333333</v>
+      </c>
+      <c r="E67" s="18">
+        <v>0.2211458333333334</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0.1881481481481482</v>
+      </c>
+      <c r="G67" s="19">
+        <f>E67-F67</f>
+        <v>0.03299768518518519</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -2931,28 +4068,30 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="R67" s="15"/>
+      <c r="S67" s="16"/>
+    </row>
+    <row r="68" ht="17" customHeight="1">
+      <c r="A68" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B68" s="7" t="n">
+      <c r="B68" s="6">
         <v>68.4556</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="9" t="n">
-        <f aca="false">3*60+19+9/60</f>
+      <c r="D68" s="6">
+        <f>3*60+19+9/60</f>
         <v>199.15</v>
       </c>
-      <c r="E68" s="14" t="n">
-        <v>0.299837962962963</v>
-      </c>
-      <c r="F68" s="14" t="n">
-        <v>0.221157407407407</v>
-      </c>
-      <c r="G68" s="16" t="n">
-        <f aca="false">E68-F68</f>
-        <v>0.0786805555555555</v>
+      <c r="E68" s="18">
+        <v>0.2998379629629629</v>
+      </c>
+      <c r="F68" s="18">
+        <v>0.2211574074074074</v>
+      </c>
+      <c r="G68" s="20">
+        <f>E68-F68</f>
+        <v>0.07868055555555556</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -2964,28 +4103,30 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-    </row>
-    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="R68" s="15"/>
+      <c r="S68" s="16"/>
+    </row>
+    <row r="69" ht="17" customHeight="1">
+      <c r="A69" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B69" s="7" t="n">
+      <c r="B69" s="6">
         <v>44.3225</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="9" t="n">
-        <f aca="false">60+52+15/60</f>
+      <c r="D69" s="6">
+        <f>60+52+15/60</f>
         <v>112.25</v>
       </c>
-      <c r="E69" s="13" t="n">
-        <v>0.368993055555556</v>
-      </c>
-      <c r="F69" s="14" t="n">
+      <c r="E69" s="17">
+        <v>0.3689930555555555</v>
+      </c>
+      <c r="F69" s="18">
         <v>0.299849537037037</v>
       </c>
-      <c r="G69" s="16" t="n">
-        <f aca="false">E69-F69</f>
-        <v>0.0691435185185185</v>
+      <c r="G69" s="20">
+        <f>E69-F69</f>
+        <v>0.06914351851851852</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -2997,8 +4138,10 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-    </row>
-    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R69" s="15"/>
+      <c r="S69" s="16"/>
+    </row>
+    <row r="70" ht="17" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3016,16 +4159,18 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
+      <c r="R70" s="15"/>
+      <c r="S70" s="16"/>
+    </row>
+    <row r="71" ht="17" customHeight="1">
+      <c r="A71" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" t="s" s="2">
         <v>24</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="12" t="s">
+      <c r="D71" t="s" s="2">
         <v>25</v>
       </c>
       <c r="E71" s="3"/>
@@ -3041,22 +4186,24 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-    </row>
-    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="R71" s="15"/>
+      <c r="S71" s="16"/>
+    </row>
+    <row r="72" ht="17" customHeight="1">
+      <c r="A72" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="4">
         <v>0.999784</v>
       </c>
-      <c r="C72" s="6" t="n">
-        <v>9.5E-005</v>
-      </c>
-      <c r="D72" s="5" t="n">
+      <c r="C72" s="5">
+        <v>9.500000000000001e-05</v>
+      </c>
+      <c r="D72" s="4">
         <v>0.99996</v>
       </c>
-      <c r="E72" s="6" t="n">
-        <v>7E-005</v>
+      <c r="E72" s="5">
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3070,22 +4217,24 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-    </row>
-    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="R72" s="15"/>
+      <c r="S72" s="16"/>
+    </row>
+    <row r="73" ht="17" customHeight="1">
+      <c r="A73" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="4">
         <v>0.593409</v>
       </c>
-      <c r="C73" s="6" t="n">
+      <c r="C73" s="5">
         <v>0.00012</v>
       </c>
-      <c r="D73" s="5" t="n">
+      <c r="D73" s="4">
         <v>0.5933</v>
       </c>
-      <c r="E73" s="6" t="n">
-        <v>4E-005</v>
+      <c r="E73" s="5">
+        <v>4e-05</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3099,22 +4248,24 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-    </row>
-    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="R73" s="15"/>
+      <c r="S73" s="16"/>
+    </row>
+    <row r="74" ht="17" customHeight="1">
+      <c r="A74" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="4">
         <v>0.275051</v>
       </c>
-      <c r="C74" s="6" t="n">
+      <c r="C74" s="5">
         <v>0.00018</v>
       </c>
-      <c r="D74" s="5" t="n">
-        <v>0.27521</v>
-      </c>
-      <c r="E74" s="6" t="n">
-        <v>4E-005</v>
+      <c r="D74" s="4">
+        <v>0.27517</v>
+      </c>
+      <c r="E74" s="5">
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3128,22 +4279,24 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-    </row>
-    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="R74" s="15"/>
+      <c r="S74" s="16"/>
+    </row>
+    <row r="75" ht="17" customHeight="1">
+      <c r="A75" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="4">
         <v>0.88049</v>
       </c>
-      <c r="C75" s="6" t="n">
-        <v>8.7E-005</v>
-      </c>
-      <c r="D75" s="5" t="n">
+      <c r="C75" s="5">
+        <v>8.7e-05</v>
+      </c>
+      <c r="D75" s="4">
         <v>0.88051</v>
       </c>
-      <c r="E75" s="6" t="n">
-        <v>6E-005</v>
+      <c r="E75" s="5">
+        <v>6e-05</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3157,22 +4310,24 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-    </row>
-    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="R75" s="15"/>
+      <c r="S75" s="16"/>
+    </row>
+    <row r="76" ht="17" customHeight="1">
+      <c r="A76" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B76" s="5" t="n">
+      <c r="B76" s="4">
         <v>1.09871</v>
       </c>
-      <c r="C76" s="6" t="n">
+      <c r="C76" s="5">
         <v>0.00022</v>
       </c>
-      <c r="D76" s="5" t="n">
+      <c r="D76" s="4">
         <v>1.09877</v>
       </c>
-      <c r="E76" s="6" t="n">
-        <v>6E-005</v>
+      <c r="E76" s="5">
+        <v>6e-05</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3186,22 +4341,24 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-    </row>
-    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="R76" s="15"/>
+      <c r="S76" s="16"/>
+    </row>
+    <row r="77" ht="17" customHeight="1">
+      <c r="A77" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="4">
         <v>1.05033</v>
       </c>
-      <c r="C77" s="6" t="n">
-        <v>7.2E-005</v>
-      </c>
-      <c r="D77" s="5" t="n">
-        <v>1.04995</v>
-      </c>
-      <c r="E77" s="6" t="n">
-        <v>7E-005</v>
+      <c r="C77" s="5">
+        <v>7.2e-05</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1.05065</v>
+      </c>
+      <c r="E77" s="5">
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3215,8 +4372,10 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R77" s="15"/>
+      <c r="S77" s="16"/>
+    </row>
+    <row r="78" ht="17" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3234,16 +4393,18 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
+      <c r="R78" s="15"/>
+      <c r="S78" s="16"/>
+    </row>
+    <row r="79" ht="17" customHeight="1">
+      <c r="A79" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" t="s" s="2">
         <v>24</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="12" t="s">
+      <c r="D79" t="s" s="2">
         <v>25</v>
       </c>
       <c r="E79" s="3"/>
@@ -3259,16 +4420,18 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="R79" s="15"/>
+      <c r="S79" s="16"/>
+    </row>
+    <row r="80" ht="17" customHeight="1">
+      <c r="A80" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B80" s="7" t="n">
+      <c r="B80" s="6">
         <v>7.24</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="7" t="n">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6">
         <v>30.5666666666666</v>
       </c>
       <c r="E80" s="3"/>
@@ -3284,17 +4447,19 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="R80" s="15"/>
+      <c r="S80" s="16"/>
+    </row>
+    <row r="81" ht="17" customHeight="1">
+      <c r="A81" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B81" s="7" t="n">
+      <c r="B81" s="6">
         <v>39.41</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="7" t="n">
-        <v>98.4</v>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6">
+        <v>98.40000000000001</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3309,16 +4474,18 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-    </row>
-    <row r="82" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="R81" s="15"/>
+      <c r="S81" s="16"/>
+    </row>
+    <row r="82" ht="17" customHeight="1">
+      <c r="A82" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B82" s="7" t="n">
+      <c r="B82" s="6">
         <v>146.15</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="7" t="n">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6">
         <v>131.266666666666</v>
       </c>
       <c r="E82" s="3"/>
@@ -3334,16 +4501,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="R82" s="15"/>
+      <c r="S82" s="16"/>
+    </row>
+    <row r="83" ht="17" customHeight="1">
+      <c r="A83" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B83" s="7" t="n">
+      <c r="B83" s="6">
         <v>79.16</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="7" t="n">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6">
         <v>269.466666666666</v>
       </c>
       <c r="E83" s="3"/>
@@ -3359,16 +4528,18 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-    </row>
-    <row r="84" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="R83" s="15"/>
+      <c r="S83" s="16"/>
+    </row>
+    <row r="84" ht="17" customHeight="1">
+      <c r="A84" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B84" s="7" t="n">
+      <c r="B84" s="6">
         <v>120.86</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="7" t="n">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
         <v>320.4</v>
       </c>
       <c r="E84" s="3"/>
@@ -3384,16 +4555,18 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-    </row>
-    <row r="85" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="R84" s="15"/>
+      <c r="S84" s="16"/>
+    </row>
+    <row r="85" ht="17" customHeight="1">
+      <c r="A85" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B85" s="7" t="n">
+      <c r="B85" s="6">
         <v>81.5372</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="7" t="n">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6">
         <v>160.68</v>
       </c>
       <c r="E85" s="3"/>
@@ -3409,8 +4582,10 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-    </row>
-    <row r="86" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R85" s="15"/>
+      <c r="S85" s="16"/>
+    </row>
+    <row r="86" ht="17" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3428,15 +4603,17 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-    </row>
-    <row r="87" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R86" s="15"/>
+      <c r="S86" s="16"/>
+    </row>
+    <row r="87" ht="17" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -3447,15 +4624,17 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-    </row>
-    <row r="88" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R87" s="15"/>
+      <c r="S87" s="16"/>
+    </row>
+    <row r="88" ht="17" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -3466,15 +4645,17 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-    </row>
-    <row r="89" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R88" s="15"/>
+      <c r="S88" s="16"/>
+    </row>
+    <row r="89" ht="17" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="12"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -3485,15 +4666,17 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-    </row>
-    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R89" s="15"/>
+      <c r="S89" s="16"/>
+    </row>
+    <row r="90" ht="17" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -3504,15 +4687,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R90" s="15"/>
+      <c r="S90" s="16"/>
+    </row>
+    <row r="91" ht="17" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="12"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -3523,15 +4708,17 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-    </row>
-    <row r="92" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R91" s="15"/>
+      <c r="S91" s="16"/>
+    </row>
+    <row r="92" ht="17" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -3542,81 +4729,85 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-    </row>
-    <row r="93" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R92" s="15"/>
+      <c r="S92" s="16"/>
+    </row>
+    <row r="93" ht="17" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="17" t="s">
+      <c r="B93" t="s" s="21">
         <v>29</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" t="s" s="21">
         <v>30</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" t="s" s="21">
         <v>31</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F93" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="G93" s="18" t="s">
+      <c r="G93" t="s" s="21">
         <v>34</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="I93" s="18" t="s">
+      <c r="I93" t="s" s="21">
         <v>36</v>
       </c>
-      <c r="J93" s="18" t="s">
+      <c r="J93" t="s" s="21">
         <v>37</v>
       </c>
-      <c r="K93" s="19"/>
+      <c r="K93" s="22"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-    </row>
-    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="R93" s="15"/>
+      <c r="S93" s="16"/>
+    </row>
+    <row r="94" ht="17" customHeight="1">
+      <c r="A94" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3">
         <v>60</v>
       </c>
-      <c r="C94" s="6" t="n">
+      <c r="C94" s="5">
         <v>6500000</v>
       </c>
-      <c r="D94" s="6" t="n">
-        <f aca="false">B94*C94/B27</f>
-        <v>159357127.523543</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <f aca="false">B94*C94/B10</f>
+      <c r="D94" s="5">
+        <f>B94*C94/B27</f>
+        <v>159357127.5235432</v>
+      </c>
+      <c r="E94" s="5">
+        <f>B94*C94/B10</f>
         <v>264616102.659269</v>
       </c>
-      <c r="F94" s="20" t="n">
-        <f aca="false">B94*C94/B44</f>
-        <v>329160237.03487</v>
-      </c>
-      <c r="G94" s="6" t="n">
-        <f aca="false">B94*C94/B80</f>
-        <v>53867403.3149171</v>
-      </c>
-      <c r="H94" s="6" t="n">
-        <f aca="false">B94*C94/B64</f>
-        <v>61679582.4766725</v>
-      </c>
-      <c r="I94" s="20" t="n">
-        <f aca="false">B94*C94/D80</f>
-        <v>12758996.7284624</v>
-      </c>
-      <c r="J94" s="20" t="n">
-        <f aca="false">B94*C94/D64</f>
-        <v>78787878.7878788</v>
+      <c r="F94" s="5">
+        <f>B94*C94/B44</f>
+        <v>329160237.0348699</v>
+      </c>
+      <c r="G94" s="5">
+        <f>B94*C94/B80</f>
+        <v>53867403.31491712</v>
+      </c>
+      <c r="H94" s="5">
+        <f>B94*C94/B64</f>
+        <v>61679582.47667246</v>
+      </c>
+      <c r="I94" s="5">
+        <f>B94*C94/D80</f>
+        <v>12758996.72846241</v>
+      </c>
+      <c r="J94" s="5">
+        <f>B94*C94/D64</f>
+        <v>78787878.78787878</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3625,44 +4816,46 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-    </row>
-    <row r="95" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="R94" s="15"/>
+      <c r="S94" s="16"/>
+    </row>
+    <row r="95" ht="17" customHeight="1">
+      <c r="A95" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3">
         <v>60</v>
       </c>
-      <c r="C95" s="6" t="n">
+      <c r="C95" s="5">
         <v>6500000</v>
       </c>
-      <c r="D95" s="6" t="n">
-        <f aca="false">B95*C95/B28</f>
-        <v>30956884.6877239</v>
-      </c>
-      <c r="E95" s="6" t="n">
-        <f aca="false">B95*C95/B11</f>
-        <v>51799708.8973241</v>
-      </c>
-      <c r="F95" s="20" t="n">
-        <f aca="false">B95*C95/B45</f>
-        <v>67407959.370409</v>
-      </c>
-      <c r="G95" s="6" t="n">
-        <f aca="false">B95*C95/B81</f>
-        <v>9895965.49099213</v>
-      </c>
-      <c r="H95" s="6" t="n">
-        <f aca="false">B95*C95/B65</f>
-        <v>16183982.8366787</v>
-      </c>
-      <c r="I95" s="20" t="n">
-        <f aca="false">B95*C95/D81</f>
-        <v>3963414.63414634</v>
-      </c>
-      <c r="J95" s="20" t="n">
-        <f aca="false">B95*C95/D65</f>
-        <v>8856926.57077971</v>
+      <c r="D95" s="5">
+        <f>B95*C95/B28</f>
+        <v>30956884.68772389</v>
+      </c>
+      <c r="E95" s="5">
+        <f>B95*C95/B11</f>
+        <v>51799708.89732414</v>
+      </c>
+      <c r="F95" s="5">
+        <f>B95*C95/B45</f>
+        <v>67407959.37040904</v>
+      </c>
+      <c r="G95" s="5">
+        <f>B95*C95/B81</f>
+        <v>9895965.490992134</v>
+      </c>
+      <c r="H95" s="5">
+        <f>B95*C95/B65</f>
+        <v>16183982.83667872</v>
+      </c>
+      <c r="I95" s="5">
+        <f>B95*C95/D81</f>
+        <v>3963414.634146341</v>
+      </c>
+      <c r="J95" s="5">
+        <f>B95*C95/D65</f>
+        <v>8856926.570779713</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -3671,44 +4864,46 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="R95" s="15"/>
+      <c r="S95" s="16"/>
+    </row>
+    <row r="96" ht="17" customHeight="1">
+      <c r="A96" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3">
         <v>60</v>
       </c>
-      <c r="C96" s="6" t="n">
+      <c r="C96" s="5">
         <v>6500000</v>
       </c>
-      <c r="D96" s="6" t="n">
-        <f aca="false">B96*C96/B29</f>
+      <c r="D96" s="5">
+        <f>B96*C96/B29</f>
         <v>9166728.83589172</v>
       </c>
-      <c r="E96" s="6" t="n">
-        <f aca="false">B96*C96/B12</f>
-        <v>14731156.6739911</v>
-      </c>
-      <c r="F96" s="20" t="n">
-        <f aca="false">B96*C96/B46</f>
-        <v>18654782.9385422</v>
-      </c>
-      <c r="G96" s="6" t="n">
-        <f aca="false">B96*C96/B82</f>
-        <v>2668491.27608621</v>
-      </c>
-      <c r="H96" s="6" t="n">
-        <f aca="false">B96*C96/B66</f>
+      <c r="E96" s="5">
+        <f>B96*C96/B12</f>
+        <v>14731156.67399114</v>
+      </c>
+      <c r="F96" s="5">
+        <f>B96*C96/B46</f>
+        <v>18654782.93854216</v>
+      </c>
+      <c r="G96" s="5">
+        <f>B96*C96/B82</f>
+        <v>2668491.276086213</v>
+      </c>
+      <c r="H96" s="5">
+        <f>B96*C96/B66</f>
         <v>5097659.39008466</v>
       </c>
-      <c r="I96" s="20" t="n">
-        <f aca="false">B96*C96/D82</f>
-        <v>2971051.29507366</v>
-      </c>
-      <c r="J96" s="20" t="n">
-        <f aca="false">B96*C96/D66</f>
-        <v>6076343.80680343</v>
+      <c r="I96" s="5">
+        <f>B96*C96/D82</f>
+        <v>2971051.295073656</v>
+      </c>
+      <c r="J96" s="5">
+        <f>B96*C96/D66</f>
+        <v>6076343.806803428</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -3717,43 +4912,45 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="R96" s="15"/>
+      <c r="S96" s="16"/>
+    </row>
+    <row r="97" ht="17" customHeight="1">
+      <c r="A97" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3">
         <v>60</v>
       </c>
-      <c r="C97" s="6" t="n">
+      <c r="C97" s="5">
         <v>6500000</v>
       </c>
-      <c r="D97" s="6" t="n">
-        <f aca="false">B97*C97/B30</f>
-        <v>9791901.25907028</v>
-      </c>
-      <c r="E97" s="6" t="n">
-        <f aca="false">B97*C97/B13</f>
-        <v>15129669.0027613</v>
-      </c>
-      <c r="F97" s="20" t="n">
-        <f aca="false">B97*C97/B47</f>
-        <v>15800028.2310043</v>
-      </c>
-      <c r="G97" s="6" t="n">
-        <f aca="false">B97*C97/B83</f>
-        <v>4926730.67205659</v>
-      </c>
-      <c r="H97" s="6" t="n">
-        <f aca="false">B97*C97/B67</f>
+      <c r="D97" s="5">
+        <f>B97*C97/B30</f>
+        <v>9791901.259070281</v>
+      </c>
+      <c r="E97" s="5">
+        <f>B97*C97/B13</f>
+        <v>15129669.00276127</v>
+      </c>
+      <c r="F97" s="5">
+        <f>B97*C97/B47</f>
+        <v>15800028.23100429</v>
+      </c>
+      <c r="G97" s="5">
+        <f>B97*C97/B83</f>
+        <v>4926730.672056595</v>
+      </c>
+      <c r="H97" s="5">
+        <f>B97*C97/B67</f>
         <v>8650787.66530768</v>
       </c>
-      <c r="I97" s="20" t="n">
-        <f aca="false">B97*C97/D83</f>
-        <v>1447303.3151905</v>
-      </c>
-      <c r="J97" s="20" t="n">
-        <f aca="false">B97*C97/D67</f>
+      <c r="I97" s="5">
+        <f>B97*C97/D83</f>
+        <v>1447303.315190503</v>
+      </c>
+      <c r="J97" s="5">
+        <f>B97*C97/D67</f>
         <v>4812834.22459893</v>
       </c>
       <c r="K97" s="3"/>
@@ -3763,44 +4960,46 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-    </row>
-    <row r="98" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="R97" s="15"/>
+      <c r="S97" s="16"/>
+    </row>
+    <row r="98" ht="17" customHeight="1">
+      <c r="A98" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3">
         <v>60</v>
       </c>
-      <c r="C98" s="6" t="n">
+      <c r="C98" s="5">
         <v>6000000</v>
       </c>
-      <c r="D98" s="6" t="n">
-        <f aca="false">B98*C98/B31</f>
-        <v>2966825.23221238</v>
-      </c>
-      <c r="E98" s="6" t="n">
-        <f aca="false">B98*C98/B14</f>
-        <v>4434522.85142717</v>
-      </c>
-      <c r="F98" s="20" t="n">
-        <f aca="false">B98*C98/B48</f>
-        <v>4422867.07788028</v>
-      </c>
-      <c r="G98" s="6" t="n">
-        <f aca="false">B98*C98/B84</f>
-        <v>2978652.98692702</v>
-      </c>
-      <c r="H98" s="6" t="n">
-        <f aca="false">B98*C98/B68</f>
-        <v>5258883.13008724</v>
-      </c>
-      <c r="I98" s="20" t="n">
-        <f aca="false">B98*C98/D84</f>
-        <v>1123595.50561798</v>
-      </c>
-      <c r="J98" s="20" t="n">
-        <f aca="false">B98*C98/D68</f>
-        <v>1807682.65126789</v>
+      <c r="D98" s="5">
+        <f>B98*C98/B31</f>
+        <v>2966825.232212381</v>
+      </c>
+      <c r="E98" s="5">
+        <f>B98*C98/B14</f>
+        <v>4434522.851427172</v>
+      </c>
+      <c r="F98" s="5">
+        <f>B98*C98/B48</f>
+        <v>4422867.077880276</v>
+      </c>
+      <c r="G98" s="5">
+        <f>B98*C98/B84</f>
+        <v>2978652.986927023</v>
+      </c>
+      <c r="H98" s="5">
+        <f>B98*C98/B68</f>
+        <v>5258883.130087239</v>
+      </c>
+      <c r="I98" s="5">
+        <f>B98*C98/D84</f>
+        <v>1123595.505617978</v>
+      </c>
+      <c r="J98" s="5">
+        <f>B98*C98/D68</f>
+        <v>1807682.651267888</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -3809,44 +5008,46 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-    </row>
-    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="R98" s="15"/>
+      <c r="S98" s="16"/>
+    </row>
+    <row r="99" ht="17" customHeight="1">
+      <c r="A99" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3">
         <v>60</v>
       </c>
-      <c r="C99" s="6" t="n">
+      <c r="C99" s="5">
         <v>6500000</v>
       </c>
-      <c r="D99" s="6" t="n">
-        <f aca="false">B99*C99/B32</f>
-        <v>6960556.84454756</v>
-      </c>
-      <c r="E99" s="6" t="n">
-        <f aca="false">B99*C99/B15</f>
-        <v>11171423.3981184</v>
-      </c>
-      <c r="F99" s="20" t="n">
-        <f aca="false">B99*C99/B49</f>
+      <c r="D99" s="5">
+        <f>B99*C99/B32</f>
+        <v>6960556.844547563</v>
+      </c>
+      <c r="E99" s="5">
+        <f>B99*C99/B15</f>
+        <v>11171423.39811835</v>
+      </c>
+      <c r="F99" s="5">
+        <f>B99*C99/B49</f>
         <v>10946190.68775</v>
       </c>
-      <c r="G99" s="6" t="n">
-        <f aca="false">B99*C99/B85</f>
-        <v>4783092.87049347</v>
-      </c>
-      <c r="H99" s="6" t="n">
-        <f aca="false">B99*C99/B69</f>
-        <v>8799142.64763946</v>
-      </c>
-      <c r="I99" s="20" t="n">
-        <f aca="false">B99*C99/D85</f>
-        <v>2427184.46601942</v>
-      </c>
-      <c r="J99" s="20" t="n">
-        <f aca="false">B99*C99/D69</f>
-        <v>3474387.52783964</v>
+      <c r="G99" s="5">
+        <f>B99*C99/B85</f>
+        <v>4783092.870493468</v>
+      </c>
+      <c r="H99" s="5">
+        <f>B99*C99/B69</f>
+        <v>8799142.647639461</v>
+      </c>
+      <c r="I99" s="5">
+        <f>B99*C99/D85</f>
+        <v>2427184.466019417</v>
+      </c>
+      <c r="J99" s="5">
+        <f>B99*C99/D69</f>
+        <v>3474387.527839644</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -3855,15 +5056,17 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-    </row>
-    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R99" s="15"/>
+      <c r="S99" s="16"/>
+    </row>
+    <row r="100" ht="17" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="12"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -3874,15 +5077,17 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-    </row>
-    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R100" s="15"/>
+      <c r="S100" s="16"/>
+    </row>
+    <row r="101" ht="17" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="12"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -3893,40 +5098,42 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-    </row>
-    <row r="102" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+      <c r="R101" s="15"/>
+      <c r="S101" s="16"/>
+    </row>
+    <row r="102" ht="17" customHeight="1">
+      <c r="A102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="20" t="n">
-        <f aca="false">B94*C94*6/SUM(B27:B32)</f>
-        <v>8515552.56704591</v>
-      </c>
-      <c r="E102" s="20" t="n">
-        <f aca="false">B94*C94*6/SUM(B10:B15)</f>
-        <v>13194529.369656</v>
-      </c>
-      <c r="F102" s="20" t="n">
-        <f aca="false">B94*C94*6/SUM(B44:B49)</f>
-        <v>13798458.048707</v>
-      </c>
-      <c r="G102" s="20" t="n">
-        <f aca="false">SUM(B94*C94*6)/SUM(D80:D85)</f>
-        <v>2315043.82753913</v>
-      </c>
-      <c r="H102" s="20" t="n">
-        <f aca="false">SUM(B94*C94*6)/SUM(B64:B69)</f>
-        <v>8837281.84848745</v>
-      </c>
-      <c r="I102" s="20" t="n">
-        <f aca="false">SUM(B94*C94*6)/SUM(D80:D85)</f>
-        <v>2315043.82753913</v>
-      </c>
-      <c r="J102" s="20" t="n">
-        <f aca="false">SUM(B94*C94*6)/SUM(D64:D69)</f>
-        <v>4628164.55696203</v>
+      <c r="D102" s="5">
+        <f>B94*C94*6/SUM(B27:B32)</f>
+        <v>8515552.567045914</v>
+      </c>
+      <c r="E102" s="5">
+        <f>B94*C94*6/SUM(B10:B15)</f>
+        <v>13194529.36965601</v>
+      </c>
+      <c r="F102" s="5">
+        <f>B94*C94*6/SUM(B44:B49)</f>
+        <v>13798458.04870703</v>
+      </c>
+      <c r="G102" s="5">
+        <f>SUM(B94*C94*6)/SUM(D80:D85)</f>
+        <v>2315043.827539132</v>
+      </c>
+      <c r="H102" s="5">
+        <f>SUM(B94*C94*6)/SUM(B64:B69)</f>
+        <v>8837281.848487446</v>
+      </c>
+      <c r="I102" s="5">
+        <f>SUM(B94*C94*6)/SUM(D80:D85)</f>
+        <v>2315043.827539132</v>
+      </c>
+      <c r="J102" s="5">
+        <f>SUM(B94*C94*6)/SUM(D64:D69)</f>
+        <v>4628164.556962025</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -3935,15 +5142,17 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-    </row>
-    <row r="103" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R102" s="15"/>
+      <c r="S102" s="16"/>
+    </row>
+    <row r="103" ht="17" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="12"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -3954,15 +5163,17 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-    </row>
-    <row r="104" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R103" s="15"/>
+      <c r="S103" s="16"/>
+    </row>
+    <row r="104" ht="17" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="12"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -3973,15 +5184,17 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-    </row>
-    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R104" s="15"/>
+      <c r="S104" s="16"/>
+    </row>
+    <row r="105" ht="17" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="12"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -3992,15 +5205,17 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-    </row>
-    <row r="106" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R105" s="15"/>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" ht="17" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -4011,15 +5226,17 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-    </row>
-    <row r="107" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R106" s="15"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" ht="17" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -4030,31 +5247,33 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-    </row>
-    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4"/>
-      <c r="B108" s="17" t="s">
+      <c r="R107" s="15"/>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" ht="17" customHeight="1">
+      <c r="A108" s="3"/>
+      <c r="B108" t="s" s="21">
         <v>39</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" t="s" s="21">
         <v>40</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" t="s" s="21">
         <v>41</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" t="s" s="21">
         <v>42</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G108" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="H108" s="18" t="s">
+      <c r="H108" t="s" s="21">
         <v>45</v>
       </c>
-      <c r="I108" s="19"/>
+      <c r="I108" s="22"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -4063,30 +5282,32 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-    </row>
-    <row r="109" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="R108" s="15"/>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" ht="17" customHeight="1">
+      <c r="A109" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B109" s="21" t="n">
+      <c r="B109" s="3">
         <v>3325</v>
       </c>
-      <c r="C109" s="22" t="n">
+      <c r="C109" s="3">
         <v>1521</v>
       </c>
-      <c r="D109" s="22" t="n">
+      <c r="D109" s="3">
         <v>5000</v>
       </c>
-      <c r="E109" s="21" t="n">
+      <c r="E109" s="3">
         <v>9310</v>
       </c>
-      <c r="F109" s="21" t="n">
+      <c r="F109" s="3">
         <v>6770</v>
       </c>
-      <c r="G109" s="21" t="n">
+      <c r="G109" s="3">
         <v>9310</v>
       </c>
-      <c r="H109" s="21" t="n">
+      <c r="H109" s="3">
         <v>6770</v>
       </c>
       <c r="I109" s="3"/>
@@ -4098,30 +5319,32 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-    </row>
-    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="R109" s="15"/>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="110" ht="17" customHeight="1">
+      <c r="A110" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B110" s="21" t="n">
+      <c r="B110" s="3">
         <v>225</v>
       </c>
-      <c r="C110" s="22" t="n">
+      <c r="C110" s="3">
         <v>250</v>
       </c>
-      <c r="D110" s="22" t="n">
+      <c r="D110" s="3">
         <v>300</v>
       </c>
-      <c r="E110" s="21" t="n">
+      <c r="E110" s="3">
         <v>460</v>
       </c>
-      <c r="F110" s="21" t="n">
+      <c r="F110" s="3">
         <v>210</v>
       </c>
-      <c r="G110" s="21" t="n">
+      <c r="G110" s="3">
         <v>460</v>
       </c>
-      <c r="H110" s="21" t="n">
+      <c r="H110" s="3">
         <v>210</v>
       </c>
       <c r="I110" s="3"/>
@@ -4133,38 +5356,40 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-    </row>
-    <row r="111" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="R110" s="15"/>
+      <c r="S110" s="16"/>
+    </row>
+    <row r="111" ht="17" customHeight="1">
+      <c r="A111" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B111" s="21" t="n">
-        <f aca="false">D$102/B109</f>
-        <v>2561.06844121682</v>
-      </c>
-      <c r="C111" s="21" t="n">
-        <f aca="false">E$102/C109</f>
-        <v>8674.90425355424</v>
-      </c>
-      <c r="D111" s="21" t="n">
-        <f aca="false">F$102/D109</f>
-        <v>2759.69160974141</v>
-      </c>
-      <c r="E111" s="21" t="n">
-        <f aca="false">G$102/E109</f>
-        <v>248.66206525662</v>
-      </c>
-      <c r="F111" s="21" t="n">
-        <f aca="false">H$102/F109</f>
-        <v>1305.35920952547</v>
-      </c>
-      <c r="G111" s="21" t="n">
-        <f aca="false">I$102/G109</f>
-        <v>248.66206525662</v>
-      </c>
-      <c r="H111" s="21" t="n">
-        <f aca="false">J$102/H109</f>
-        <v>683.628442682722</v>
+      <c r="B111" s="3">
+        <f>D$102/B109</f>
+        <v>2561.068441216816</v>
+      </c>
+      <c r="C111" s="3">
+        <f>E$102/C109</f>
+        <v>8674.904253554245</v>
+      </c>
+      <c r="D111" s="3">
+        <f>F$102/D109</f>
+        <v>2759.691609741406</v>
+      </c>
+      <c r="E111" s="3">
+        <f>G$102/E109</f>
+        <v>248.6620652566199</v>
+      </c>
+      <c r="F111" s="3">
+        <f>H$102/F109</f>
+        <v>1305.359209525472</v>
+      </c>
+      <c r="G111" s="3">
+        <f>I$102/G109</f>
+        <v>248.6620652566199</v>
+      </c>
+      <c r="H111" s="3">
+        <f>J$102/H109</f>
+        <v>683.6284426827216</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -4175,38 +5400,40 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-    </row>
-    <row r="112" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="R111" s="15"/>
+      <c r="S111" s="16"/>
+    </row>
+    <row r="112" ht="17" customHeight="1">
+      <c r="A112" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B112" s="21" t="n">
-        <f aca="false">D$102/B110</f>
-        <v>37846.9002979818</v>
-      </c>
-      <c r="C112" s="21" t="n">
-        <f aca="false">E$102/C110</f>
-        <v>52778.117478624</v>
-      </c>
-      <c r="D112" s="21" t="n">
-        <f aca="false">F$102/D110</f>
-        <v>45994.8601623568</v>
-      </c>
-      <c r="E112" s="21" t="n">
-        <f aca="false">G$102/E110</f>
-        <v>5032.70397291116</v>
-      </c>
-      <c r="F112" s="21" t="n">
-        <f aca="false">H$102/F110</f>
-        <v>42082.2945166069</v>
-      </c>
-      <c r="G112" s="21" t="n">
-        <f aca="false">I$102/G110</f>
-        <v>5032.70397291116</v>
-      </c>
-      <c r="H112" s="21" t="n">
-        <f aca="false">J$102/H110</f>
-        <v>22038.8788426763</v>
+      <c r="B112" s="3">
+        <f>D$102/B110</f>
+        <v>37846.900297981840</v>
+      </c>
+      <c r="C112" s="3">
+        <f>E$102/C110</f>
+        <v>52778.117478624023</v>
+      </c>
+      <c r="D112" s="3">
+        <f>F$102/D110</f>
+        <v>45994.860162356759</v>
+      </c>
+      <c r="E112" s="3">
+        <f>G$102/E110</f>
+        <v>5032.703972911156</v>
+      </c>
+      <c r="F112" s="3">
+        <f>H$102/F110</f>
+        <v>42082.294516606889</v>
+      </c>
+      <c r="G112" s="3">
+        <f>I$102/G110</f>
+        <v>5032.703972911156</v>
+      </c>
+      <c r="H112" s="3">
+        <f>J$102/H110</f>
+        <v>22038.878842676309</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -4217,15 +5444,17 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-    </row>
-    <row r="113" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R112" s="15"/>
+      <c r="S112" s="16"/>
+    </row>
+    <row r="113" ht="17" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="12"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -4236,15 +5465,17 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-    </row>
-    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R113" s="15"/>
+      <c r="S113" s="16"/>
+    </row>
+    <row r="114" ht="17" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="12"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -4255,8 +5486,10 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-    </row>
-    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R114" s="15"/>
+      <c r="S114" s="16"/>
+    </row>
+    <row r="115" ht="17" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4274,8 +5507,10 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-    </row>
-    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R115" s="15"/>
+      <c r="S115" s="16"/>
+    </row>
+    <row r="116" ht="17" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4293,8 +5528,10 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-    </row>
-    <row r="117" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R116" s="15"/>
+      <c r="S116" s="16"/>
+    </row>
+    <row r="117" ht="17" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4312,8 +5549,10 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-    </row>
-    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R117" s="15"/>
+      <c r="S117" s="16"/>
+    </row>
+    <row r="118" ht="17" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4322,8 +5561,8 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -4331,8 +5570,10 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-    </row>
-    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R118" s="15"/>
+      <c r="S118" s="16"/>
+    </row>
+    <row r="119" ht="17" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4350,8 +5591,10 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-    </row>
-    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R119" s="15"/>
+      <c r="S119" s="16"/>
+    </row>
+    <row r="120" ht="17" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4369,8 +5612,10 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-    </row>
-    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R120" s="15"/>
+      <c r="S120" s="16"/>
+    </row>
+    <row r="121" ht="17" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4388,8 +5633,10 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-    </row>
-    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R121" s="15"/>
+      <c r="S121" s="16"/>
+    </row>
+    <row r="122" ht="17" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4407,15 +5654,17 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-    </row>
-    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R122" s="15"/>
+      <c r="S122" s="16"/>
+    </row>
+    <row r="123" ht="17" customHeight="1">
       <c r="A123" s="2"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="12"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -4426,14 +5675,14 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
+      <c r="R123" s="23"/>
+      <c r="S123" s="24"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>